--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitaar/Documents/Research/Derm/Dr. Elman/Skin Image AI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CC1D4-9ED3-7847-8005-590B49B9EE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A46E86-8D73-436B-B20D-B2D9639F9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="25120" windowHeight="19700" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="204">
   <si>
     <t>PictureCode</t>
   </si>
@@ -118,12 +118,564 @@
   <si>
     <t>Correct Disorder Name</t>
   </si>
+  <si>
+    <t>allergic-dermatitis_001</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_002</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_003</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_004</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_005</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_006</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_007</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_008</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_009</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_010</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_011</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_012</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_013</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_014</t>
+  </si>
+  <si>
+    <t>allergic-dermatitis_015</t>
+  </si>
+  <si>
+    <t>Allergic Dermatitis</t>
+  </si>
+  <si>
+    <t>640x480</t>
+  </si>
+  <si>
+    <t>611x480</t>
+  </si>
+  <si>
+    <t>360x480</t>
+  </si>
+  <si>
+    <t>640x441</t>
+  </si>
+  <si>
+    <t>640x468</t>
+  </si>
+  <si>
+    <t>angioedema_001</t>
+  </si>
+  <si>
+    <t>angioedema_002</t>
+  </si>
+  <si>
+    <t>angioedema_003</t>
+  </si>
+  <si>
+    <t>angioedema_004</t>
+  </si>
+  <si>
+    <t>angioedema_005</t>
+  </si>
+  <si>
+    <t>angioedema_006</t>
+  </si>
+  <si>
+    <t>angioedema_007</t>
+  </si>
+  <si>
+    <t>angioedema_008</t>
+  </si>
+  <si>
+    <t>angioedema_009</t>
+  </si>
+  <si>
+    <t>angioedema_010</t>
+  </si>
+  <si>
+    <t>angioedema_011</t>
+  </si>
+  <si>
+    <t>angioedema_012</t>
+  </si>
+  <si>
+    <t>angioedema_013</t>
+  </si>
+  <si>
+    <t>angioedema_014</t>
+  </si>
+  <si>
+    <t>angioedema_015</t>
+  </si>
+  <si>
+    <t>Angioedema</t>
+  </si>
+  <si>
+    <t>eczema_001</t>
+  </si>
+  <si>
+    <t>eczema_002</t>
+  </si>
+  <si>
+    <t>eczema_003</t>
+  </si>
+  <si>
+    <t>eczema_004</t>
+  </si>
+  <si>
+    <t>eczema_005</t>
+  </si>
+  <si>
+    <t>eczema_006</t>
+  </si>
+  <si>
+    <t>eczema_007</t>
+  </si>
+  <si>
+    <t>eczema_008</t>
+  </si>
+  <si>
+    <t>eczema_009</t>
+  </si>
+  <si>
+    <t>eczema_010</t>
+  </si>
+  <si>
+    <t>eczema_011</t>
+  </si>
+  <si>
+    <t>eczema_012</t>
+  </si>
+  <si>
+    <t>eczema_013</t>
+  </si>
+  <si>
+    <t>eczema_014</t>
+  </si>
+  <si>
+    <t>eczema_015</t>
+  </si>
+  <si>
+    <t>Eczema / Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_001</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_002</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_003</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_004</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_005</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_006</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_007</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_008</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_009</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_010</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_011</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_012</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_013</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_014</t>
+  </si>
+  <si>
+    <t>irritant_dermatitis_015</t>
+  </si>
+  <si>
+    <t>Irritant Dermatitis</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>614x461</t>
+  </si>
+  <si>
+    <t>640x479</t>
+  </si>
+  <si>
+    <t>480x480</t>
+  </si>
+  <si>
+    <t>urticaria_001</t>
+  </si>
+  <si>
+    <t>urticaria_002</t>
+  </si>
+  <si>
+    <t>urticaria_003</t>
+  </si>
+  <si>
+    <t>urticaria_004</t>
+  </si>
+  <si>
+    <t>urticaria_005</t>
+  </si>
+  <si>
+    <t>urticaria_006</t>
+  </si>
+  <si>
+    <t>urticaria_007</t>
+  </si>
+  <si>
+    <t>urticaria_008</t>
+  </si>
+  <si>
+    <t>urticaria_009</t>
+  </si>
+  <si>
+    <t>urticaria_010</t>
+  </si>
+  <si>
+    <t>urticaria_011</t>
+  </si>
+  <si>
+    <t>urticaria_012</t>
+  </si>
+  <si>
+    <t>urticaria_013</t>
+  </si>
+  <si>
+    <t>urticaria_014</t>
+  </si>
+  <si>
+    <t>urticaria_015</t>
+  </si>
+  <si>
+    <t>Urticaria</t>
+  </si>
+  <si>
+    <t>466x640</t>
+  </si>
+  <si>
+    <t>acne_001</t>
+  </si>
+  <si>
+    <t>acne_002</t>
+  </si>
+  <si>
+    <t>acne_003</t>
+  </si>
+  <si>
+    <t>acne_004</t>
+  </si>
+  <si>
+    <t>acne_005</t>
+  </si>
+  <si>
+    <t>acne_006</t>
+  </si>
+  <si>
+    <t>acne_007</t>
+  </si>
+  <si>
+    <t>acne_008</t>
+  </si>
+  <si>
+    <t>acne_009</t>
+  </si>
+  <si>
+    <t>acne_010</t>
+  </si>
+  <si>
+    <t>acne_011</t>
+  </si>
+  <si>
+    <t>acne_012</t>
+  </si>
+  <si>
+    <t>acne_013</t>
+  </si>
+  <si>
+    <t>acne_014</t>
+  </si>
+  <si>
+    <t>acne_015</t>
+  </si>
+  <si>
+    <t>Acne</t>
+  </si>
+  <si>
+    <t>640x428</t>
+  </si>
+  <si>
+    <t>640x446</t>
+  </si>
+  <si>
+    <t>640x469</t>
+  </si>
+  <si>
+    <t>639x480</t>
+  </si>
+  <si>
+    <t>coxsakievirus_001</t>
+  </si>
+  <si>
+    <t>Coxsakievirus</t>
+  </si>
+  <si>
+    <t>coxsakievirus_002</t>
+  </si>
+  <si>
+    <t>coxsakievirus_003</t>
+  </si>
+  <si>
+    <t>coxsakievirus_004</t>
+  </si>
+  <si>
+    <t>coxsakievirus_005</t>
+  </si>
+  <si>
+    <t>coxsakievirus_006</t>
+  </si>
+  <si>
+    <t>coxsakievirus_007</t>
+  </si>
+  <si>
+    <t>coxsakievirus_008</t>
+  </si>
+  <si>
+    <t>coxsakievirus_009</t>
+  </si>
+  <si>
+    <t>coxsakievirus_010</t>
+  </si>
+  <si>
+    <t>coxsakievirus_011</t>
+  </si>
+  <si>
+    <t>coxsakievirus_012</t>
+  </si>
+  <si>
+    <t>coxsakievirus_013</t>
+  </si>
+  <si>
+    <t>coxsakievirus_014</t>
+  </si>
+  <si>
+    <t>coxsakievirus_015</t>
+  </si>
+  <si>
+    <t>640x426</t>
+  </si>
+  <si>
+    <t>426x640</t>
+  </si>
+  <si>
+    <t>588x480</t>
+  </si>
+  <si>
+    <t>612x480</t>
+  </si>
+  <si>
+    <t>impetigo_001</t>
+  </si>
+  <si>
+    <t>impetigo_002</t>
+  </si>
+  <si>
+    <t>impetigo_003</t>
+  </si>
+  <si>
+    <t>impetigo_004</t>
+  </si>
+  <si>
+    <t>impetigo_005</t>
+  </si>
+  <si>
+    <t>impetigo_006</t>
+  </si>
+  <si>
+    <t>impetigo_007</t>
+  </si>
+  <si>
+    <t>impetigo_008</t>
+  </si>
+  <si>
+    <t>impetigo_009</t>
+  </si>
+  <si>
+    <t>impetigo_010</t>
+  </si>
+  <si>
+    <t>impetigo_011</t>
+  </si>
+  <si>
+    <t>impetigo_012</t>
+  </si>
+  <si>
+    <t>impetigo_013</t>
+  </si>
+  <si>
+    <t>impetigo_014</t>
+  </si>
+  <si>
+    <t>impetigo_015</t>
+  </si>
+  <si>
+    <t>Impetigo</t>
+  </si>
+  <si>
+    <t>597x480</t>
+  </si>
+  <si>
+    <t>630x480</t>
+  </si>
+  <si>
+    <t>Molluscum Contagiosum</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_001</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_002</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_003</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_004</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_005</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_006</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_007</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_008</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_009</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_010</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_011</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_012</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_013</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_014</t>
+  </si>
+  <si>
+    <t>molluscum_contagiosum_015</t>
+  </si>
+  <si>
+    <t>369x480</t>
+  </si>
+  <si>
+    <t>626x480</t>
+  </si>
+  <si>
+    <t>640x416</t>
+  </si>
+  <si>
+    <t>591x480</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_001</t>
+  </si>
+  <si>
+    <t>Seborrhoeic Dermatitis</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_002</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_003</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_004</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_005</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_006</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_007</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_008</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_009</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_010</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_011</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_012</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_013</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_014</t>
+  </si>
+  <si>
+    <t>seborrhoeic_dermatitis_015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +688,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -184,6 +742,105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>144511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C056315E-4502-3561-9E74-D3A860FF950B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="33442274"/>
+          <a:ext cx="7172325" cy="4306937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1190624</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>25584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="A picture containing timeline&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA66580-26F3-FCB0-6E43-A61CD178BA21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190624" y="38061899"/>
+          <a:ext cx="7381875" cy="2768785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,26 +1140,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9D3A69-BC2D-7345-811C-0394B0A4FCD6}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P152" sqref="P152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="12" width="12.125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.75" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="10.125" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="126">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +1223,3909 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>7</v>
+      </c>
+      <c r="S27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>6</v>
+      </c>
+      <c r="S36" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>7</v>
+      </c>
+      <c r="S40" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>6</v>
+      </c>
+      <c r="S41" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42" t="s">
+        <v>36</v>
+      </c>
+      <c r="T42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s">
+        <v>36</v>
+      </c>
+      <c r="T46">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s">
+        <v>36</v>
+      </c>
+      <c r="T47">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s">
+        <v>89</v>
+      </c>
+      <c r="S48" t="s">
+        <v>36</v>
+      </c>
+      <c r="T48">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s">
+        <v>36</v>
+      </c>
+      <c r="T49">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51" t="s">
+        <v>90</v>
+      </c>
+      <c r="T51">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s">
+        <v>36</v>
+      </c>
+      <c r="T52">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s">
+        <v>92</v>
+      </c>
+      <c r="T60">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s">
+        <v>91</v>
+      </c>
+      <c r="T61">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63" t="s">
+        <v>36</v>
+      </c>
+      <c r="T63">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64" t="s">
+        <v>36</v>
+      </c>
+      <c r="T64">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="S65" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>108</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s">
+        <v>92</v>
+      </c>
+      <c r="T66">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>4</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s">
+        <v>109</v>
+      </c>
+      <c r="T68">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69" t="s">
+        <v>36</v>
+      </c>
+      <c r="T69">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>6</v>
+      </c>
+      <c r="S70" t="s">
+        <v>36</v>
+      </c>
+      <c r="T70">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71" t="s">
+        <v>36</v>
+      </c>
+      <c r="T71">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>108</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="S72" t="s">
+        <v>36</v>
+      </c>
+      <c r="T72">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>6</v>
+      </c>
+      <c r="S73" t="s">
+        <v>36</v>
+      </c>
+      <c r="T73">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74" t="s">
+        <v>36</v>
+      </c>
+      <c r="T74">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>4</v>
+      </c>
+      <c r="S75" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>108</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s">
+        <v>89</v>
+      </c>
+      <c r="S76" t="s">
+        <v>91</v>
+      </c>
+      <c r="T76">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>4</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79" t="s">
+        <v>36</v>
+      </c>
+      <c r="T79">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80" t="s">
+        <v>91</v>
+      </c>
+      <c r="T80">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81" t="s">
+        <v>126</v>
+      </c>
+      <c r="T81">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83" t="s">
+        <v>127</v>
+      </c>
+      <c r="T83">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84" t="s">
+        <v>128</v>
+      </c>
+      <c r="T84">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>125</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85" t="s">
+        <v>129</v>
+      </c>
+      <c r="T85">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>125</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86" t="s">
+        <v>36</v>
+      </c>
+      <c r="T86">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>4</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88" t="s">
+        <v>36</v>
+      </c>
+      <c r="T88">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89" t="s">
+        <v>36</v>
+      </c>
+      <c r="T89">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90" t="s">
+        <v>36</v>
+      </c>
+      <c r="T90">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91" t="s">
+        <v>36</v>
+      </c>
+      <c r="T91">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>131</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s">
+        <v>146</v>
+      </c>
+      <c r="T92">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>131</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>5</v>
+      </c>
+      <c r="S93" t="s">
+        <v>147</v>
+      </c>
+      <c r="T93">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>4</v>
+      </c>
+      <c r="R94">
+        <v>5</v>
+      </c>
+      <c r="S94" t="s">
+        <v>146</v>
+      </c>
+      <c r="T94">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>131</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>4</v>
+      </c>
+      <c r="R95">
+        <v>5</v>
+      </c>
+      <c r="S95" t="s">
+        <v>146</v>
+      </c>
+      <c r="T95">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>131</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>7</v>
+      </c>
+      <c r="S96" t="s">
+        <v>36</v>
+      </c>
+      <c r="T96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>131</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97" t="s">
+        <v>36</v>
+      </c>
+      <c r="T97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s">
+        <v>36</v>
+      </c>
+      <c r="T98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>131</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>3</v>
+      </c>
+      <c r="R99">
+        <v>6</v>
+      </c>
+      <c r="S99" t="s">
+        <v>36</v>
+      </c>
+      <c r="T99">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>131</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>4</v>
+      </c>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100" t="s">
+        <v>36</v>
+      </c>
+      <c r="T100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>131</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101" t="s">
+        <v>36</v>
+      </c>
+      <c r="T101">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>131</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>5</v>
+      </c>
+      <c r="S102" t="s">
+        <v>36</v>
+      </c>
+      <c r="T102">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103" t="s">
+        <v>127</v>
+      </c>
+      <c r="T103">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>131</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>7</v>
+      </c>
+      <c r="S104" t="s">
+        <v>148</v>
+      </c>
+      <c r="T104">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>131</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s">
+        <v>149</v>
+      </c>
+      <c r="T105">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>131</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+      <c r="R106">
+        <v>5</v>
+      </c>
+      <c r="S106" t="s">
+        <v>146</v>
+      </c>
+      <c r="T106">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107" t="s">
+        <v>36</v>
+      </c>
+      <c r="T107">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>165</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108" t="s">
+        <v>36</v>
+      </c>
+      <c r="T108">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>5</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109" t="s">
+        <v>36</v>
+      </c>
+      <c r="T109">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>165</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>6</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110" t="s">
+        <v>36</v>
+      </c>
+      <c r="T110">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>5</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111" t="s">
+        <v>36</v>
+      </c>
+      <c r="T111">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>5</v>
+      </c>
+      <c r="S112" t="s">
+        <v>36</v>
+      </c>
+      <c r="T112">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>165</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>2</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113" t="s">
+        <v>36</v>
+      </c>
+      <c r="T113">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>165</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114" t="s">
+        <v>36</v>
+      </c>
+      <c r="T114">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>165</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>3</v>
+      </c>
+      <c r="S115" t="s">
+        <v>92</v>
+      </c>
+      <c r="T115">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>165</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>6</v>
+      </c>
+      <c r="S116" t="s">
+        <v>92</v>
+      </c>
+      <c r="T116">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>165</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117" t="s">
+        <v>37</v>
+      </c>
+      <c r="T117">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>165</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118" t="s">
+        <v>166</v>
+      </c>
+      <c r="T118">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>165</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119" t="s">
+        <v>91</v>
+      </c>
+      <c r="T119">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>165</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>3</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120" t="s">
+        <v>36</v>
+      </c>
+      <c r="T120">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>165</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="S121" t="s">
+        <v>167</v>
+      </c>
+      <c r="T121">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>168</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>5</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122" t="s">
+        <v>38</v>
+      </c>
+      <c r="T122">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>168</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123" t="s">
+        <v>36</v>
+      </c>
+      <c r="T123">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>168</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>3</v>
+      </c>
+      <c r="S124" t="s">
+        <v>36</v>
+      </c>
+      <c r="T124">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>168</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125" t="s">
+        <v>89</v>
+      </c>
+      <c r="S125" t="s">
+        <v>184</v>
+      </c>
+      <c r="T125">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>168</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>6</v>
+      </c>
+      <c r="S126" t="s">
+        <v>38</v>
+      </c>
+      <c r="T126">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>168</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>5</v>
+      </c>
+      <c r="S127" t="s">
+        <v>36</v>
+      </c>
+      <c r="T127">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>168</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128" t="s">
+        <v>36</v>
+      </c>
+      <c r="T128">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="A129" t="s">
+        <v>176</v>
+      </c>
+      <c r="B129">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>168</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+      <c r="S129" t="s">
+        <v>36</v>
+      </c>
+      <c r="T129">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
+      <c r="A130" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>6</v>
+      </c>
+      <c r="S130" t="s">
+        <v>185</v>
+      </c>
+      <c r="T130">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
+      <c r="A131" t="s">
+        <v>178</v>
+      </c>
+      <c r="B131">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>168</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>6</v>
+      </c>
+      <c r="S131" t="s">
+        <v>186</v>
+      </c>
+      <c r="T131">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
+      <c r="A132" t="s">
+        <v>179</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>168</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>1</v>
+      </c>
+      <c r="S132" t="s">
+        <v>36</v>
+      </c>
+      <c r="T132">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
+      <c r="A133" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>168</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133" t="s">
+        <v>36</v>
+      </c>
+      <c r="T133">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
+      <c r="A134" t="s">
+        <v>181</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>168</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134" t="s">
+        <v>36</v>
+      </c>
+      <c r="T134">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="A135" t="s">
+        <v>182</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>168</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135" t="s">
+        <v>36</v>
+      </c>
+      <c r="T135">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
+      <c r="A136" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>168</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136" t="s">
+        <v>187</v>
+      </c>
+      <c r="T136">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
+      <c r="A137" t="s">
+        <v>188</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>189</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
+        <v>3</v>
+      </c>
+      <c r="S137" t="s">
+        <v>36</v>
+      </c>
+      <c r="T137">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
+      <c r="A138" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="R138">
+        <v>3</v>
+      </c>
+      <c r="S138" t="s">
+        <v>36</v>
+      </c>
+      <c r="T138">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
+      <c r="A139" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>189</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139" t="s">
+        <v>36</v>
+      </c>
+      <c r="T139">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
+      <c r="A140" t="s">
+        <v>192</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>189</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140" t="s">
+        <v>36</v>
+      </c>
+      <c r="T140">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
+      <c r="A141" t="s">
+        <v>193</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>2</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141" t="s">
+        <v>36</v>
+      </c>
+      <c r="T141">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
+      <c r="A142" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>2</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142" t="s">
+        <v>36</v>
+      </c>
+      <c r="T142">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
+      <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>189</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>4</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143" t="s">
+        <v>36</v>
+      </c>
+      <c r="T143">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
+      <c r="A144" t="s">
+        <v>196</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>189</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144" t="s">
+        <v>36</v>
+      </c>
+      <c r="T144">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
+      <c r="A145" t="s">
+        <v>197</v>
+      </c>
+      <c r="B145">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>189</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>6</v>
+      </c>
+      <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145" t="s">
+        <v>36</v>
+      </c>
+      <c r="T145">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
+      <c r="A146" t="s">
+        <v>198</v>
+      </c>
+      <c r="B146">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>189</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>6</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146" t="s">
+        <v>36</v>
+      </c>
+      <c r="T146">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
+      <c r="A147" t="s">
+        <v>199</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>189</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147" t="s">
+        <v>36</v>
+      </c>
+      <c r="T147">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
+      <c r="A148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>189</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148">
+        <v>3</v>
+      </c>
+      <c r="S148" t="s">
+        <v>36</v>
+      </c>
+      <c r="T148">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
+      <c r="A149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>189</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149" t="s">
+        <v>36</v>
+      </c>
+      <c r="T149">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
+      <c r="A150" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>189</v>
+      </c>
+      <c r="P150">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>1</v>
+      </c>
+      <c r="S150" t="s">
+        <v>36</v>
+      </c>
+      <c r="T150">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
+      <c r="A151" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>189</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151" t="s">
+        <v>36</v>
+      </c>
+      <c r="T151">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A46E86-8D73-436B-B20D-B2D9639F9A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F986BD-1ACA-404E-99AF-73F6325D7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="277">
   <si>
     <t>PictureCode</t>
   </si>
@@ -669,6 +669,225 @@
   </si>
   <si>
     <t>seborrhoeic_dermatitis_015</t>
+  </si>
+  <si>
+    <t>behcet_001</t>
+  </si>
+  <si>
+    <t>behcet_002</t>
+  </si>
+  <si>
+    <t>behcet_003</t>
+  </si>
+  <si>
+    <t>behcet_004</t>
+  </si>
+  <si>
+    <t>behcet_005</t>
+  </si>
+  <si>
+    <t>behcet_006</t>
+  </si>
+  <si>
+    <t>behcet_007</t>
+  </si>
+  <si>
+    <t>behcet_008</t>
+  </si>
+  <si>
+    <t>behcet_009</t>
+  </si>
+  <si>
+    <t>behcet_010</t>
+  </si>
+  <si>
+    <t>behcet_011</t>
+  </si>
+  <si>
+    <t>behcet_012</t>
+  </si>
+  <si>
+    <t>behcet_013</t>
+  </si>
+  <si>
+    <t>behcet_014</t>
+  </si>
+  <si>
+    <t>behcet_015</t>
+  </si>
+  <si>
+    <t>Behcet Disease</t>
+  </si>
+  <si>
+    <t>dermatomyositis_001</t>
+  </si>
+  <si>
+    <t>dermatomyositis_002</t>
+  </si>
+  <si>
+    <t>dermatomyositis_003</t>
+  </si>
+  <si>
+    <t>dermatomyositis_004</t>
+  </si>
+  <si>
+    <t>dermatomyositis_005</t>
+  </si>
+  <si>
+    <t>dermatomyositis_006</t>
+  </si>
+  <si>
+    <t>dermatomyositis_007</t>
+  </si>
+  <si>
+    <t>dermatomyositis_008</t>
+  </si>
+  <si>
+    <t>dermatomyositis_009</t>
+  </si>
+  <si>
+    <t>dermatomyositis_010</t>
+  </si>
+  <si>
+    <t>dermatomyositis_011</t>
+  </si>
+  <si>
+    <t>dermatomyositis_012</t>
+  </si>
+  <si>
+    <t>dermatomyositis_013</t>
+  </si>
+  <si>
+    <t>dermatomyositis_014</t>
+  </si>
+  <si>
+    <t>dermatomyositis_015</t>
+  </si>
+  <si>
+    <t>Dermatomyositis</t>
+  </si>
+  <si>
+    <t>640x425</t>
+  </si>
+  <si>
+    <t>640x417</t>
+  </si>
+  <si>
+    <t>640x527</t>
+  </si>
+  <si>
+    <t>640x289</t>
+  </si>
+  <si>
+    <t>640x404</t>
+  </si>
+  <si>
+    <t>640x424</t>
+  </si>
+  <si>
+    <t>lichen_planus_001</t>
+  </si>
+  <si>
+    <t>lichen_planus_002</t>
+  </si>
+  <si>
+    <t>lichen_planus_003</t>
+  </si>
+  <si>
+    <t>lichen_planus_004</t>
+  </si>
+  <si>
+    <t>lichen_planus_005</t>
+  </si>
+  <si>
+    <t>lichen_planus_006</t>
+  </si>
+  <si>
+    <t>lichen_planus_007</t>
+  </si>
+  <si>
+    <t>lichen_planus_008</t>
+  </si>
+  <si>
+    <t>lichen_planus_009</t>
+  </si>
+  <si>
+    <t>lichen_planus_010</t>
+  </si>
+  <si>
+    <t>lichen_planus_011</t>
+  </si>
+  <si>
+    <t>lichen_planus_012</t>
+  </si>
+  <si>
+    <t>lichen_planus_013</t>
+  </si>
+  <si>
+    <t>lichen_planus_014</t>
+  </si>
+  <si>
+    <t>lichen_planus_015</t>
+  </si>
+  <si>
+    <t>Lichen Planus</t>
+  </si>
+  <si>
+    <t>640x415</t>
+  </si>
+  <si>
+    <t>617x480</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_001</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_002</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_003</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_004</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_005</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_006</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_007</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_008</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_009</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_010</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_011</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_012</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_013</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_014</t>
+  </si>
+  <si>
+    <t>cutaneous_lupus_015</t>
+  </si>
+  <si>
+    <t>Lupus of the Skin</t>
+  </si>
+  <si>
+    <t>370x480</t>
   </si>
 </sst>
 </file>
@@ -749,15 +968,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>144511</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>68311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -786,7 +1005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="33442274"/>
+          <a:off x="1733550" y="53768624"/>
           <a:ext cx="7172325" cy="4306937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -799,15 +1018,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1190624</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>1400174</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>25584</xdr:rowOff>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>16059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -830,7 +1049,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190624" y="38061899"/>
+          <a:off x="1400174" y="58654949"/>
           <a:ext cx="7381875" cy="2768785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1140,11 +1359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9D3A69-BC2D-7345-811C-0394B0A4FCD6}">
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P152" sqref="P152"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P212" sqref="P212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5123,6 +5342,1566 @@
         <v>96</v>
       </c>
     </row>
+    <row r="152" spans="1:20">
+      <c r="A152" t="s">
+        <v>204</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>219</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
+        <v>6</v>
+      </c>
+      <c r="S152" t="s">
+        <v>36</v>
+      </c>
+      <c r="T152">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
+      <c r="A153" t="s">
+        <v>205</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>219</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <v>6</v>
+      </c>
+      <c r="S153" t="s">
+        <v>36</v>
+      </c>
+      <c r="T153">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
+      <c r="A154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>219</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154" t="s">
+        <v>36</v>
+      </c>
+      <c r="T154">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
+      <c r="A155" t="s">
+        <v>207</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>219</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155" t="s">
+        <v>36</v>
+      </c>
+      <c r="T155">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
+      <c r="A156" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>219</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>2</v>
+      </c>
+      <c r="R156">
+        <v>4</v>
+      </c>
+      <c r="S156" t="s">
+        <v>36</v>
+      </c>
+      <c r="T156">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
+      <c r="A157" t="s">
+        <v>209</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>219</v>
+      </c>
+      <c r="P157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>5</v>
+      </c>
+      <c r="R157">
+        <v>7</v>
+      </c>
+      <c r="S157" t="s">
+        <v>36</v>
+      </c>
+      <c r="T157">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
+      <c r="A158" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>219</v>
+      </c>
+      <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>5</v>
+      </c>
+      <c r="R158">
+        <v>5</v>
+      </c>
+      <c r="S158" t="s">
+        <v>36</v>
+      </c>
+      <c r="T158">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
+      <c r="A159" t="s">
+        <v>211</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>219</v>
+      </c>
+      <c r="P159">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>5</v>
+      </c>
+      <c r="R159">
+        <v>1</v>
+      </c>
+      <c r="S159" t="s">
+        <v>36</v>
+      </c>
+      <c r="T159">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
+      <c r="A160" t="s">
+        <v>212</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>219</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>5</v>
+      </c>
+      <c r="R160">
+        <v>1</v>
+      </c>
+      <c r="S160" t="s">
+        <v>36</v>
+      </c>
+      <c r="T160">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
+      <c r="A161" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>219</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>6</v>
+      </c>
+      <c r="S161" t="s">
+        <v>36</v>
+      </c>
+      <c r="T161">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
+      <c r="A162" t="s">
+        <v>214</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>219</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>1</v>
+      </c>
+      <c r="R162">
+        <v>6</v>
+      </c>
+      <c r="S162" t="s">
+        <v>36</v>
+      </c>
+      <c r="T162">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
+      <c r="A163" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>219</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>2</v>
+      </c>
+      <c r="R163">
+        <v>1</v>
+      </c>
+      <c r="S163" t="s">
+        <v>36</v>
+      </c>
+      <c r="T163">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
+      <c r="A164" t="s">
+        <v>216</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>219</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>3</v>
+      </c>
+      <c r="R164">
+        <v>1</v>
+      </c>
+      <c r="S164" t="s">
+        <v>36</v>
+      </c>
+      <c r="T164">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
+      <c r="A165" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>219</v>
+      </c>
+      <c r="P165">
+        <v>1</v>
+      </c>
+      <c r="Q165">
+        <v>5</v>
+      </c>
+      <c r="R165" t="s">
+        <v>89</v>
+      </c>
+      <c r="S165" t="s">
+        <v>36</v>
+      </c>
+      <c r="T165">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
+      <c r="A166" t="s">
+        <v>218</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>219</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>3</v>
+      </c>
+      <c r="R166" t="s">
+        <v>89</v>
+      </c>
+      <c r="S166" t="s">
+        <v>36</v>
+      </c>
+      <c r="T166">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
+      <c r="A167" t="s">
+        <v>220</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>235</v>
+      </c>
+      <c r="P167">
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167" t="s">
+        <v>36</v>
+      </c>
+      <c r="T167">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
+      <c r="A168" t="s">
+        <v>221</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>235</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168" t="s">
+        <v>36</v>
+      </c>
+      <c r="T168">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>235</v>
+      </c>
+      <c r="P169">
+        <v>1</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>6</v>
+      </c>
+      <c r="S169" t="s">
+        <v>236</v>
+      </c>
+      <c r="T169">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
+      <c r="A170" t="s">
+        <v>223</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>235</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>2</v>
+      </c>
+      <c r="R170">
+        <v>6</v>
+      </c>
+      <c r="S170" t="s">
+        <v>36</v>
+      </c>
+      <c r="T170">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
+      <c r="A171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>235</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>3</v>
+      </c>
+      <c r="R171">
+        <v>6</v>
+      </c>
+      <c r="S171" t="s">
+        <v>36</v>
+      </c>
+      <c r="T171">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
+      <c r="A172" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>235</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <v>4</v>
+      </c>
+      <c r="R172">
+        <v>4</v>
+      </c>
+      <c r="S172" t="s">
+        <v>36</v>
+      </c>
+      <c r="T172">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
+      <c r="A173" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>235</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>1</v>
+      </c>
+      <c r="R173">
+        <v>6</v>
+      </c>
+      <c r="S173" t="s">
+        <v>36</v>
+      </c>
+      <c r="T173">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
+      <c r="A174" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>235</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>4</v>
+      </c>
+      <c r="S174" t="s">
+        <v>237</v>
+      </c>
+      <c r="T174">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
+      <c r="A175" t="s">
+        <v>228</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>235</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>4</v>
+      </c>
+      <c r="R175">
+        <v>5</v>
+      </c>
+      <c r="S175" t="s">
+        <v>238</v>
+      </c>
+      <c r="T175">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
+      <c r="A176" t="s">
+        <v>229</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>235</v>
+      </c>
+      <c r="P176">
+        <v>1</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176" t="s">
+        <v>239</v>
+      </c>
+      <c r="T176">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
+      <c r="A177" t="s">
+        <v>230</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>235</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>4</v>
+      </c>
+      <c r="R177">
+        <v>1</v>
+      </c>
+      <c r="S177" t="s">
+        <v>240</v>
+      </c>
+      <c r="T177">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
+      <c r="A178" t="s">
+        <v>231</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>235</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+      <c r="R178">
+        <v>1</v>
+      </c>
+      <c r="S178" t="s">
+        <v>241</v>
+      </c>
+      <c r="T178">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
+      <c r="A179" t="s">
+        <v>232</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>235</v>
+      </c>
+      <c r="P179">
+        <v>1</v>
+      </c>
+      <c r="Q179">
+        <v>4</v>
+      </c>
+      <c r="R179">
+        <v>5</v>
+      </c>
+      <c r="S179" t="s">
+        <v>36</v>
+      </c>
+      <c r="T179">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
+      <c r="A180" t="s">
+        <v>233</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>235</v>
+      </c>
+      <c r="P180">
+        <v>1</v>
+      </c>
+      <c r="Q180">
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <v>5</v>
+      </c>
+      <c r="S180" t="s">
+        <v>91</v>
+      </c>
+      <c r="T180">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
+      <c r="A181" t="s">
+        <v>234</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>235</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>3</v>
+      </c>
+      <c r="R181">
+        <v>5</v>
+      </c>
+      <c r="S181" t="s">
+        <v>36</v>
+      </c>
+      <c r="T181">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
+      <c r="A182" t="s">
+        <v>242</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>257</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+      <c r="S182" t="s">
+        <v>36</v>
+      </c>
+      <c r="T182">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="A183" t="s">
+        <v>243</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>257</v>
+      </c>
+      <c r="P183">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>4</v>
+      </c>
+      <c r="R183">
+        <v>4</v>
+      </c>
+      <c r="S183" t="s">
+        <v>36</v>
+      </c>
+      <c r="T183">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="A184" t="s">
+        <v>244</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>257</v>
+      </c>
+      <c r="P184">
+        <v>1</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>6</v>
+      </c>
+      <c r="S184" t="s">
+        <v>36</v>
+      </c>
+      <c r="T184">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" t="s">
+        <v>245</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>257</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>4</v>
+      </c>
+      <c r="R185">
+        <v>6</v>
+      </c>
+      <c r="S185" t="s">
+        <v>36</v>
+      </c>
+      <c r="T185">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" t="s">
+        <v>246</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>257</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186" t="s">
+        <v>36</v>
+      </c>
+      <c r="T186">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" t="s">
+        <v>247</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>257</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187" t="s">
+        <v>36</v>
+      </c>
+      <c r="T187">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="A188" t="s">
+        <v>248</v>
+      </c>
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>257</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>4</v>
+      </c>
+      <c r="S188" t="s">
+        <v>36</v>
+      </c>
+      <c r="T188">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
+      <c r="A189" t="s">
+        <v>249</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>257</v>
+      </c>
+      <c r="P189">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189" t="s">
+        <v>36</v>
+      </c>
+      <c r="T189">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
+      <c r="A190" t="s">
+        <v>250</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>257</v>
+      </c>
+      <c r="P190">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>6</v>
+      </c>
+      <c r="R190">
+        <v>4</v>
+      </c>
+      <c r="S190" t="s">
+        <v>36</v>
+      </c>
+      <c r="T190">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
+      <c r="A191" t="s">
+        <v>251</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>257</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>6</v>
+      </c>
+      <c r="R191">
+        <v>5</v>
+      </c>
+      <c r="S191" t="s">
+        <v>36</v>
+      </c>
+      <c r="T191">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
+      <c r="A192" t="s">
+        <v>252</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>257</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>3</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192" t="s">
+        <v>258</v>
+      </c>
+      <c r="T192">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
+      <c r="A193" t="s">
+        <v>253</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>257</v>
+      </c>
+      <c r="P193">
+        <v>1</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>1</v>
+      </c>
+      <c r="S193" t="s">
+        <v>259</v>
+      </c>
+      <c r="T193">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="A194" t="s">
+        <v>254</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>257</v>
+      </c>
+      <c r="P194">
+        <v>1</v>
+      </c>
+      <c r="Q194">
+        <v>4</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194" t="s">
+        <v>259</v>
+      </c>
+      <c r="T194">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="A195" t="s">
+        <v>255</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>257</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>3</v>
+      </c>
+      <c r="S195" t="s">
+        <v>36</v>
+      </c>
+      <c r="T195">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="A196" t="s">
+        <v>256</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>257</v>
+      </c>
+      <c r="P196">
+        <v>1</v>
+      </c>
+      <c r="Q196">
+        <v>4</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196" t="s">
+        <v>36</v>
+      </c>
+      <c r="T196">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="A197" t="s">
+        <v>260</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>275</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>3</v>
+      </c>
+      <c r="R197">
+        <v>1</v>
+      </c>
+      <c r="S197" t="s">
+        <v>36</v>
+      </c>
+      <c r="T197">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="A198" t="s">
+        <v>261</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>275</v>
+      </c>
+      <c r="P198">
+        <v>1</v>
+      </c>
+      <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
+        <v>1</v>
+      </c>
+      <c r="S198" t="s">
+        <v>36</v>
+      </c>
+      <c r="T198">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="A199" t="s">
+        <v>262</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>275</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>1</v>
+      </c>
+      <c r="S199" t="s">
+        <v>276</v>
+      </c>
+      <c r="T199">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
+      <c r="A200" t="s">
+        <v>263</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>275</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>2</v>
+      </c>
+      <c r="R200">
+        <v>7</v>
+      </c>
+      <c r="S200" t="s">
+        <v>36</v>
+      </c>
+      <c r="T200">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
+      <c r="A201" t="s">
+        <v>264</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>275</v>
+      </c>
+      <c r="P201">
+        <v>1</v>
+      </c>
+      <c r="Q201">
+        <v>4</v>
+      </c>
+      <c r="R201">
+        <v>4</v>
+      </c>
+      <c r="S201" t="s">
+        <v>36</v>
+      </c>
+      <c r="T201">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" t="s">
+        <v>265</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>275</v>
+      </c>
+      <c r="P202">
+        <v>1</v>
+      </c>
+      <c r="Q202">
+        <v>4</v>
+      </c>
+      <c r="R202">
+        <v>5</v>
+      </c>
+      <c r="S202" t="s">
+        <v>36</v>
+      </c>
+      <c r="T202">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="A203" t="s">
+        <v>266</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>275</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>2</v>
+      </c>
+      <c r="R203">
+        <v>6</v>
+      </c>
+      <c r="S203" t="s">
+        <v>36</v>
+      </c>
+      <c r="T203">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="A204" t="s">
+        <v>267</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>275</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
+        <v>1</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204" t="s">
+        <v>36</v>
+      </c>
+      <c r="T204">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="A205" t="s">
+        <v>268</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>275</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
+        <v>3</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205" t="s">
+        <v>91</v>
+      </c>
+      <c r="T205">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="A206" t="s">
+        <v>269</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>275</v>
+      </c>
+      <c r="P206">
+        <v>1</v>
+      </c>
+      <c r="Q206">
+        <v>4</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206" t="s">
+        <v>36</v>
+      </c>
+      <c r="T206">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="A207" t="s">
+        <v>270</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>275</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
+        <v>3</v>
+      </c>
+      <c r="R207">
+        <v>6</v>
+      </c>
+      <c r="S207" t="s">
+        <v>36</v>
+      </c>
+      <c r="T207">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="A208" t="s">
+        <v>271</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>275</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
+        <v>2</v>
+      </c>
+      <c r="R208">
+        <v>7</v>
+      </c>
+      <c r="S208" t="s">
+        <v>36</v>
+      </c>
+      <c r="T208">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="A209" t="s">
+        <v>272</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>275</v>
+      </c>
+      <c r="P209">
+        <v>1</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>1</v>
+      </c>
+      <c r="S209" t="s">
+        <v>36</v>
+      </c>
+      <c r="T209">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="A210" t="s">
+        <v>273</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>275</v>
+      </c>
+      <c r="P210">
+        <v>1</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>1</v>
+      </c>
+      <c r="S210" t="s">
+        <v>38</v>
+      </c>
+      <c r="T210">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" t="s">
+        <v>274</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>275</v>
+      </c>
+      <c r="P211">
+        <v>1</v>
+      </c>
+      <c r="Q211">
+        <v>4</v>
+      </c>
+      <c r="R211">
+        <v>1</v>
+      </c>
+      <c r="S211" t="s">
+        <v>36</v>
+      </c>
+      <c r="T211">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F986BD-1ACA-404E-99AF-73F6325D7DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821DB4E-1F44-46C5-BD72-E98579E30F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="283">
   <si>
     <t>PictureCode</t>
   </si>
@@ -888,6 +888,24 @@
   </si>
   <si>
     <t>370x480</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>buttock</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>scalp</t>
+  </si>
+  <si>
+    <t>genitals</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1380,8 @@
   <dimension ref="A1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P212" sqref="P212"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R167" sqref="R167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2004,8 +2022,8 @@
       <c r="Q23">
         <v>2</v>
       </c>
-      <c r="R23">
-        <v>1</v>
+      <c r="R23" t="s">
+        <v>277</v>
       </c>
       <c r="S23" t="s">
         <v>36</v>
@@ -2602,8 +2620,8 @@
       <c r="Q46">
         <v>4</v>
       </c>
-      <c r="R46">
-        <v>3</v>
+      <c r="R46" t="s">
+        <v>278</v>
       </c>
       <c r="S46" t="s">
         <v>36</v>
@@ -3330,8 +3348,8 @@
       <c r="Q74">
         <v>1</v>
       </c>
-      <c r="R74">
-        <v>2</v>
+      <c r="R74" t="s">
+        <v>279</v>
       </c>
       <c r="S74" t="s">
         <v>36</v>
@@ -3590,8 +3608,8 @@
       <c r="Q84">
         <v>4</v>
       </c>
-      <c r="R84">
-        <v>3</v>
+      <c r="R84" t="s">
+        <v>278</v>
       </c>
       <c r="S84" t="s">
         <v>128</v>
@@ -3720,8 +3738,8 @@
       <c r="Q89">
         <v>4</v>
       </c>
-      <c r="R89">
-        <v>2</v>
+      <c r="R89" t="s">
+        <v>280</v>
       </c>
       <c r="S89" t="s">
         <v>36</v>
@@ -4006,8 +4024,8 @@
       <c r="Q100">
         <v>4</v>
       </c>
-      <c r="R100">
-        <v>1</v>
+      <c r="R100" t="s">
+        <v>277</v>
       </c>
       <c r="S100" t="s">
         <v>36</v>
@@ -4032,8 +4050,8 @@
       <c r="Q101">
         <v>3</v>
       </c>
-      <c r="R101">
-        <v>1</v>
+      <c r="R101" t="s">
+        <v>277</v>
       </c>
       <c r="S101" t="s">
         <v>36</v>
@@ -5046,8 +5064,8 @@
       <c r="Q140">
         <v>2</v>
       </c>
-      <c r="R140">
-        <v>1</v>
+      <c r="R140" t="s">
+        <v>280</v>
       </c>
       <c r="S140" t="s">
         <v>36</v>
@@ -5124,8 +5142,8 @@
       <c r="Q143">
         <v>4</v>
       </c>
-      <c r="R143">
-        <v>1</v>
+      <c r="R143" t="s">
+        <v>281</v>
       </c>
       <c r="S143" t="s">
         <v>36</v>
@@ -5228,8 +5246,8 @@
       <c r="Q147">
         <v>6</v>
       </c>
-      <c r="R147">
-        <v>1</v>
+      <c r="R147" t="s">
+        <v>281</v>
       </c>
       <c r="S147" t="s">
         <v>36</v>
@@ -5436,8 +5454,8 @@
       <c r="Q155">
         <v>3</v>
       </c>
-      <c r="R155">
-        <v>1</v>
+      <c r="R155" t="s">
+        <v>277</v>
       </c>
       <c r="S155" t="s">
         <v>36</v>
@@ -5540,8 +5558,8 @@
       <c r="Q159">
         <v>5</v>
       </c>
-      <c r="R159">
-        <v>1</v>
+      <c r="R159" t="s">
+        <v>277</v>
       </c>
       <c r="S159" t="s">
         <v>36</v>
@@ -5566,8 +5584,8 @@
       <c r="Q160">
         <v>5</v>
       </c>
-      <c r="R160">
-        <v>1</v>
+      <c r="R160" t="s">
+        <v>277</v>
       </c>
       <c r="S160" t="s">
         <v>36</v>
@@ -5697,7 +5715,7 @@
         <v>5</v>
       </c>
       <c r="R165" t="s">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="S165" t="s">
         <v>36</v>
@@ -5723,7 +5741,7 @@
         <v>3</v>
       </c>
       <c r="R166" t="s">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="S166" t="s">
         <v>36</v>

--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821DB4E-1F44-46C5-BD72-E98579E30F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81C373-1A17-488A-9ED7-4156C0CA6C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="350">
   <si>
     <t>PictureCode</t>
   </si>
@@ -906,6 +906,207 @@
   </si>
   <si>
     <t>genitals</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_001</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_002</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_003</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_004</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_005</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_006</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_007</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_008</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_009</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_010</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_011</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_012</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_013</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_014</t>
+  </si>
+  <si>
+    <t>bullous_pemphigus_015</t>
+  </si>
+  <si>
+    <t>Bullous Pemphigus</t>
+  </si>
+  <si>
+    <t>640x429</t>
+  </si>
+  <si>
+    <t>640x467</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_001</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_002</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_003</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_004</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_005</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_006</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_007</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_008</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_009</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_010</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_011</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_012</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_013</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_014</t>
+  </si>
+  <si>
+    <t>dermatitis_herpetiformis_015</t>
+  </si>
+  <si>
+    <t>Dermatitis Herpetiformis</t>
+  </si>
+  <si>
+    <t>480x640</t>
+  </si>
+  <si>
+    <t>640x853</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_001</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_002</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_003</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_004</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_005</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_006</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_007</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_008</t>
+  </si>
+  <si>
+    <t>epidermolysis_bullosa_009</t>
+  </si>
+  <si>
+    <t>Epidermolysis Bullosa</t>
+  </si>
+  <si>
+    <t>622x480</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_001</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_002</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_003</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_004</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_005</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_006</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_007</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_008</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_009</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_010</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_011</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_012</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_013</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_014</t>
+  </si>
+  <si>
+    <t>pemphigus_vulgaris_015</t>
+  </si>
+  <si>
+    <t>Pemphigus Vulgaris</t>
+  </si>
+  <si>
+    <t>640x438</t>
+  </si>
+  <si>
+    <t>422x640</t>
+  </si>
+  <si>
+    <t>640x427</t>
+  </si>
+  <si>
+    <t>441x640</t>
   </si>
 </sst>
 </file>
@@ -986,15 +1187,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1733550</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>68311</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>163561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1023,7 +1224,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733550" y="53768624"/>
+          <a:off x="1600200" y="58464449"/>
           <a:ext cx="7172325" cy="4306937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1036,15 +1237,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1400174</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>1419224</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>16059</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>63684</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1067,7 +1268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400174" y="58654949"/>
+          <a:off x="1419224" y="63103124"/>
           <a:ext cx="7381875" cy="2768785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1377,11 +1578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9D3A69-BC2D-7345-811C-0394B0A4FCD6}">
-  <dimension ref="A1:T211"/>
+  <dimension ref="A1:T265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R167" sqref="R167"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P260" sqref="P260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6920,6 +7121,1320 @@
         <v>96</v>
       </c>
     </row>
+    <row r="212" spans="1:20">
+      <c r="A212" t="s">
+        <v>283</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>298</v>
+      </c>
+      <c r="P212">
+        <v>1</v>
+      </c>
+      <c r="Q212">
+        <v>4</v>
+      </c>
+      <c r="R212">
+        <v>6</v>
+      </c>
+      <c r="S212" t="s">
+        <v>38</v>
+      </c>
+      <c r="T212">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" t="s">
+        <v>284</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>298</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
+        <v>1</v>
+      </c>
+      <c r="R213">
+        <v>3</v>
+      </c>
+      <c r="S213" t="s">
+        <v>36</v>
+      </c>
+      <c r="T213">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" t="s">
+        <v>285</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>298</v>
+      </c>
+      <c r="P214">
+        <v>1</v>
+      </c>
+      <c r="Q214">
+        <v>4</v>
+      </c>
+      <c r="R214" t="s">
+        <v>280</v>
+      </c>
+      <c r="S214" t="s">
+        <v>36</v>
+      </c>
+      <c r="T214">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="A215" t="s">
+        <v>286</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>298</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215" t="s">
+        <v>299</v>
+      </c>
+      <c r="T215">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" t="s">
+        <v>287</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>298</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
+        <v>3</v>
+      </c>
+      <c r="R216" t="s">
+        <v>89</v>
+      </c>
+      <c r="S216" t="s">
+        <v>92</v>
+      </c>
+      <c r="T216">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" t="s">
+        <v>288</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>298</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>4</v>
+      </c>
+      <c r="S217" t="s">
+        <v>92</v>
+      </c>
+      <c r="T217">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" t="s">
+        <v>289</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>298</v>
+      </c>
+      <c r="P218">
+        <v>1</v>
+      </c>
+      <c r="Q218">
+        <v>4</v>
+      </c>
+      <c r="R218">
+        <v>6</v>
+      </c>
+      <c r="S218" t="s">
+        <v>92</v>
+      </c>
+      <c r="T218">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" t="s">
+        <v>290</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>298</v>
+      </c>
+      <c r="P219">
+        <v>1</v>
+      </c>
+      <c r="Q219">
+        <v>4</v>
+      </c>
+      <c r="R219">
+        <v>4</v>
+      </c>
+      <c r="S219" t="s">
+        <v>38</v>
+      </c>
+      <c r="T219">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" t="s">
+        <v>291</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>298</v>
+      </c>
+      <c r="P220">
+        <v>1</v>
+      </c>
+      <c r="Q220">
+        <v>4</v>
+      </c>
+      <c r="R220">
+        <v>6</v>
+      </c>
+      <c r="S220" t="s">
+        <v>36</v>
+      </c>
+      <c r="T220">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="A221" t="s">
+        <v>292</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>298</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
+        <v>3</v>
+      </c>
+      <c r="R221">
+        <v>6</v>
+      </c>
+      <c r="S221" t="s">
+        <v>36</v>
+      </c>
+      <c r="T221">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" t="s">
+        <v>293</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>298</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>2</v>
+      </c>
+      <c r="R222">
+        <v>4</v>
+      </c>
+      <c r="S222" t="s">
+        <v>36</v>
+      </c>
+      <c r="T222">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="A223" t="s">
+        <v>294</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>298</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>3</v>
+      </c>
+      <c r="R223">
+        <v>4</v>
+      </c>
+      <c r="S223" t="s">
+        <v>36</v>
+      </c>
+      <c r="T223">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="A224" t="s">
+        <v>295</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>298</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>1</v>
+      </c>
+      <c r="R224">
+        <v>4</v>
+      </c>
+      <c r="S224" t="s">
+        <v>36</v>
+      </c>
+      <c r="T224">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20">
+      <c r="A225" t="s">
+        <v>296</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>298</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>3</v>
+      </c>
+      <c r="R225">
+        <v>3</v>
+      </c>
+      <c r="S225" t="s">
+        <v>92</v>
+      </c>
+      <c r="T225">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
+      <c r="A226" t="s">
+        <v>297</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>298</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>1</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226" t="s">
+        <v>300</v>
+      </c>
+      <c r="T226">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20">
+      <c r="A227" t="s">
+        <v>301</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>316</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>2</v>
+      </c>
+      <c r="R227">
+        <v>4</v>
+      </c>
+      <c r="S227" t="s">
+        <v>36</v>
+      </c>
+      <c r="T227">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20">
+      <c r="A228" t="s">
+        <v>302</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>316</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>3</v>
+      </c>
+      <c r="R228">
+        <v>6</v>
+      </c>
+      <c r="S228" t="s">
+        <v>36</v>
+      </c>
+      <c r="T228">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20">
+      <c r="A229" t="s">
+        <v>303</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>316</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>6</v>
+      </c>
+      <c r="S229" t="s">
+        <v>36</v>
+      </c>
+      <c r="T229">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20">
+      <c r="A230" t="s">
+        <v>304</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>316</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>2</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230" t="s">
+        <v>36</v>
+      </c>
+      <c r="T230">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20">
+      <c r="A231" t="s">
+        <v>305</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>316</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>1</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231" t="s">
+        <v>317</v>
+      </c>
+      <c r="T231">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20">
+      <c r="A232" t="s">
+        <v>306</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>316</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>2</v>
+      </c>
+      <c r="R232">
+        <v>6</v>
+      </c>
+      <c r="S232" t="s">
+        <v>36</v>
+      </c>
+      <c r="T232">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20">
+      <c r="A233" t="s">
+        <v>307</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>316</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>1</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233" t="s">
+        <v>36</v>
+      </c>
+      <c r="T233">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20">
+      <c r="A234" t="s">
+        <v>308</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>316</v>
+      </c>
+      <c r="P234">
+        <v>1</v>
+      </c>
+      <c r="Q234">
+        <v>4</v>
+      </c>
+      <c r="R234">
+        <v>1</v>
+      </c>
+      <c r="S234" t="s">
+        <v>36</v>
+      </c>
+      <c r="T234">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20">
+      <c r="A235" t="s">
+        <v>309</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>316</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>1</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235" t="s">
+        <v>36</v>
+      </c>
+      <c r="T235">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20">
+      <c r="A236" t="s">
+        <v>310</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>316</v>
+      </c>
+      <c r="P236">
+        <v>1</v>
+      </c>
+      <c r="Q236">
+        <v>4</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236" t="s">
+        <v>36</v>
+      </c>
+      <c r="T236">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20">
+      <c r="A237" t="s">
+        <v>311</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>316</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>2</v>
+      </c>
+      <c r="R237">
+        <v>3</v>
+      </c>
+      <c r="S237" t="s">
+        <v>36</v>
+      </c>
+      <c r="T237">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20">
+      <c r="A238" t="s">
+        <v>312</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>316</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>3</v>
+      </c>
+      <c r="R238">
+        <v>6</v>
+      </c>
+      <c r="S238" t="s">
+        <v>36</v>
+      </c>
+      <c r="T238">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20">
+      <c r="A239" t="s">
+        <v>313</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>316</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
+        <v>3</v>
+      </c>
+      <c r="R239">
+        <v>4</v>
+      </c>
+      <c r="S239" t="s">
+        <v>36</v>
+      </c>
+      <c r="T239">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20">
+      <c r="A240" t="s">
+        <v>314</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>316</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
+        <v>3</v>
+      </c>
+      <c r="R240">
+        <v>6</v>
+      </c>
+      <c r="S240" t="s">
+        <v>36</v>
+      </c>
+      <c r="T240">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
+      <c r="A241" t="s">
+        <v>315</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>316</v>
+      </c>
+      <c r="P241">
+        <v>1</v>
+      </c>
+      <c r="Q241">
+        <v>5</v>
+      </c>
+      <c r="R241">
+        <v>7</v>
+      </c>
+      <c r="S241" t="s">
+        <v>318</v>
+      </c>
+      <c r="T241">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
+      <c r="A242" t="s">
+        <v>319</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>328</v>
+      </c>
+      <c r="P242">
+        <v>1</v>
+      </c>
+      <c r="Q242">
+        <v>4</v>
+      </c>
+      <c r="R242">
+        <v>7</v>
+      </c>
+      <c r="S242" t="s">
+        <v>258</v>
+      </c>
+      <c r="T242">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
+      <c r="A243" t="s">
+        <v>320</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>328</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
+        <v>3</v>
+      </c>
+      <c r="R243" t="s">
+        <v>280</v>
+      </c>
+      <c r="S243" t="s">
+        <v>38</v>
+      </c>
+      <c r="T243">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
+      <c r="A244" t="s">
+        <v>321</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>328</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
+        <v>3</v>
+      </c>
+      <c r="R244">
+        <v>5</v>
+      </c>
+      <c r="S244" t="s">
+        <v>36</v>
+      </c>
+      <c r="T244">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
+      <c r="A245" t="s">
+        <v>322</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>328</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>1</v>
+      </c>
+      <c r="S245" t="s">
+        <v>36</v>
+      </c>
+      <c r="T245">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
+      <c r="A246" t="s">
+        <v>323</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>328</v>
+      </c>
+      <c r="P246">
+        <v>1</v>
+      </c>
+      <c r="Q246">
+        <v>4</v>
+      </c>
+      <c r="R246">
+        <v>6</v>
+      </c>
+      <c r="S246" t="s">
+        <v>38</v>
+      </c>
+      <c r="T246">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20">
+      <c r="A247" t="s">
+        <v>324</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>328</v>
+      </c>
+      <c r="P247">
+        <v>1</v>
+      </c>
+      <c r="Q247">
+        <v>4</v>
+      </c>
+      <c r="R247">
+        <v>5</v>
+      </c>
+      <c r="S247" t="s">
+        <v>329</v>
+      </c>
+      <c r="T247">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20">
+      <c r="A248" t="s">
+        <v>325</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>328</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
+        <v>3</v>
+      </c>
+      <c r="R248">
+        <v>6</v>
+      </c>
+      <c r="S248" t="s">
+        <v>36</v>
+      </c>
+      <c r="T248">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20">
+      <c r="A249" t="s">
+        <v>326</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>328</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
+        <v>3</v>
+      </c>
+      <c r="R249">
+        <v>5</v>
+      </c>
+      <c r="S249" t="s">
+        <v>36</v>
+      </c>
+      <c r="T249">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20">
+      <c r="A250" t="s">
+        <v>327</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>328</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
+        <v>3</v>
+      </c>
+      <c r="R250">
+        <v>1</v>
+      </c>
+      <c r="S250" t="s">
+        <v>36</v>
+      </c>
+      <c r="T250">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
+      <c r="A251" t="s">
+        <v>330</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>345</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
+        <v>2</v>
+      </c>
+      <c r="R251">
+        <v>1</v>
+      </c>
+      <c r="S251" t="s">
+        <v>38</v>
+      </c>
+      <c r="T251">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20">
+      <c r="A252" t="s">
+        <v>331</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>345</v>
+      </c>
+      <c r="P252">
+        <v>1</v>
+      </c>
+      <c r="Q252">
+        <v>4</v>
+      </c>
+      <c r="R252">
+        <v>1</v>
+      </c>
+      <c r="S252" t="s">
+        <v>346</v>
+      </c>
+      <c r="T252">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20">
+      <c r="A253" t="s">
+        <v>332</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>345</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>3</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253" t="s">
+        <v>347</v>
+      </c>
+      <c r="T253">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20">
+      <c r="A254" t="s">
+        <v>333</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>345</v>
+      </c>
+      <c r="P254">
+        <v>1</v>
+      </c>
+      <c r="Q254">
+        <v>4</v>
+      </c>
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254" t="s">
+        <v>36</v>
+      </c>
+      <c r="T254">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20">
+      <c r="A255" t="s">
+        <v>334</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>345</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
+        <v>2</v>
+      </c>
+      <c r="R255">
+        <v>2</v>
+      </c>
+      <c r="S255" t="s">
+        <v>36</v>
+      </c>
+      <c r="T255">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20">
+      <c r="A256" t="s">
+        <v>335</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>345</v>
+      </c>
+      <c r="P256">
+        <v>1</v>
+      </c>
+      <c r="Q256">
+        <v>4</v>
+      </c>
+      <c r="R256" t="s">
+        <v>277</v>
+      </c>
+      <c r="S256" t="s">
+        <v>348</v>
+      </c>
+      <c r="T256">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20">
+      <c r="A257" t="s">
+        <v>336</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>345</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
+        <v>1</v>
+      </c>
+      <c r="R257">
+        <v>3</v>
+      </c>
+      <c r="S257" t="s">
+        <v>349</v>
+      </c>
+      <c r="T257">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20">
+      <c r="A258" t="s">
+        <v>337</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>345</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
+        <v>1</v>
+      </c>
+      <c r="R258" t="s">
+        <v>278</v>
+      </c>
+      <c r="S258" t="s">
+        <v>36</v>
+      </c>
+      <c r="T258">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20">
+      <c r="A259" t="s">
+        <v>338</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>345</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
+        <v>1</v>
+      </c>
+      <c r="R259">
+        <v>1</v>
+      </c>
+      <c r="S259" t="s">
+        <v>36</v>
+      </c>
+      <c r="T259">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20">
+      <c r="A260" t="s">
+        <v>339</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20">
+      <c r="A261" t="s">
+        <v>340</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20">
+      <c r="A262" t="s">
+        <v>341</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20">
+      <c r="A263" t="s">
+        <v>342</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20">
+      <c r="A264" t="s">
+        <v>343</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20">
+      <c r="A265" t="s">
+        <v>344</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81C373-1A17-488A-9ED7-4156C0CA6C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84072642-1229-45A8-8779-ED3DD48000B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="517">
   <si>
     <t>PictureCode</t>
   </si>
@@ -1107,6 +1107,507 @@
   </si>
   <si>
     <t>441x640</t>
+  </si>
+  <si>
+    <t>337x480</t>
+  </si>
+  <si>
+    <t>313x480</t>
+  </si>
+  <si>
+    <t>porphyria_cutanea_tarda_001</t>
+  </si>
+  <si>
+    <t>porphyria_cutanea_tarda_002</t>
+  </si>
+  <si>
+    <t>porphyria_cutanea_tarda_003</t>
+  </si>
+  <si>
+    <t>porphyria_cutanea_tarda_004</t>
+  </si>
+  <si>
+    <t>Porphyria Cutanea Tarda</t>
+  </si>
+  <si>
+    <t>verruca_vulgaris_001</t>
+  </si>
+  <si>
+    <t>verruca_vulgaris_002</t>
+  </si>
+  <si>
+    <t>verruca_vulgaris_003</t>
+  </si>
+  <si>
+    <t>Verruca Vulgaris</t>
+  </si>
+  <si>
+    <t>shingles_001</t>
+  </si>
+  <si>
+    <t>shingles_002</t>
+  </si>
+  <si>
+    <t>shingles_003</t>
+  </si>
+  <si>
+    <t>shingles_004</t>
+  </si>
+  <si>
+    <t>shingles_005</t>
+  </si>
+  <si>
+    <t>shingles_006</t>
+  </si>
+  <si>
+    <t>shingles_007</t>
+  </si>
+  <si>
+    <t>shingles_008</t>
+  </si>
+  <si>
+    <t>shingles_009</t>
+  </si>
+  <si>
+    <t>shingles_010</t>
+  </si>
+  <si>
+    <t>shingles_011</t>
+  </si>
+  <si>
+    <t>shingles_012</t>
+  </si>
+  <si>
+    <t>shingles_013</t>
+  </si>
+  <si>
+    <t>shingles_014</t>
+  </si>
+  <si>
+    <t>shingles_015</t>
+  </si>
+  <si>
+    <t>Shingles</t>
+  </si>
+  <si>
+    <t>601x480</t>
+  </si>
+  <si>
+    <t>folliculitis_001</t>
+  </si>
+  <si>
+    <t>folliculitis_002</t>
+  </si>
+  <si>
+    <t>folliculitis_003</t>
+  </si>
+  <si>
+    <t>folliculitis_004</t>
+  </si>
+  <si>
+    <t>folliculitis_005</t>
+  </si>
+  <si>
+    <t>folliculitis_006</t>
+  </si>
+  <si>
+    <t>folliculitis_007</t>
+  </si>
+  <si>
+    <t>folliculitis_008</t>
+  </si>
+  <si>
+    <t>folliculitis_009</t>
+  </si>
+  <si>
+    <t>folliculitis_010</t>
+  </si>
+  <si>
+    <t>folliculitis_011</t>
+  </si>
+  <si>
+    <t>folliculitis_012</t>
+  </si>
+  <si>
+    <t>folliculitis_013</t>
+  </si>
+  <si>
+    <t>folliculitis_014</t>
+  </si>
+  <si>
+    <t>folliculitis_015</t>
+  </si>
+  <si>
+    <t>Folliculitis</t>
+  </si>
+  <si>
+    <t>637x480</t>
+  </si>
+  <si>
+    <t>cellutlitis_001</t>
+  </si>
+  <si>
+    <t>cellutlitis_002</t>
+  </si>
+  <si>
+    <t>cellutlitis_003</t>
+  </si>
+  <si>
+    <t>Cellulitis</t>
+  </si>
+  <si>
+    <t>479x640</t>
+  </si>
+  <si>
+    <t>diabetic_ulcer_001</t>
+  </si>
+  <si>
+    <t>diabetic_ulcer_002</t>
+  </si>
+  <si>
+    <t>diabetic_ulcer_003</t>
+  </si>
+  <si>
+    <t>diabetic_ulcer_004</t>
+  </si>
+  <si>
+    <t>diabetic_ulcer_005</t>
+  </si>
+  <si>
+    <t>diabetic_ulcer_006</t>
+  </si>
+  <si>
+    <t>Diabetic Ulcer</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_001</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_002</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_003</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_004</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_005</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_006</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_007</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_008</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_009</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_010</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_011</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_012</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_013</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_014</t>
+  </si>
+  <si>
+    <t>hidradenitis_suppurativa_015</t>
+  </si>
+  <si>
+    <t>Hidradenitis Suppurutiva</t>
+  </si>
+  <si>
+    <t>pressure_ulcer_001</t>
+  </si>
+  <si>
+    <t>pressure_ulcer_002</t>
+  </si>
+  <si>
+    <t>pressure_ulcer_003</t>
+  </si>
+  <si>
+    <t>pressure_ulcer_004</t>
+  </si>
+  <si>
+    <t>pressure_ulcer_005</t>
+  </si>
+  <si>
+    <t>pressure_ulcer_006</t>
+  </si>
+  <si>
+    <t>Pressure Ulcer</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_001</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_002</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_003</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_004</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_005</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_006</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_007</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_008</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_009</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_010</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_011</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_012</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_013</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_014</t>
+  </si>
+  <si>
+    <t>pyoderma_gangrenosum_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyoderma Gangrenosum </t>
+  </si>
+  <si>
+    <t>venous_ulcer_001</t>
+  </si>
+  <si>
+    <t>venous_ulcer_002</t>
+  </si>
+  <si>
+    <t>venous_ulcer_003</t>
+  </si>
+  <si>
+    <t>Venous Ulcer</t>
+  </si>
+  <si>
+    <t>bcc_001</t>
+  </si>
+  <si>
+    <t>bcc_002</t>
+  </si>
+  <si>
+    <t>bcc_003</t>
+  </si>
+  <si>
+    <t>bcc_004</t>
+  </si>
+  <si>
+    <t>bcc_005</t>
+  </si>
+  <si>
+    <t>bcc_006</t>
+  </si>
+  <si>
+    <t>bcc_007</t>
+  </si>
+  <si>
+    <t>bcc_008</t>
+  </si>
+  <si>
+    <t>bcc_009</t>
+  </si>
+  <si>
+    <t>bcc_010</t>
+  </si>
+  <si>
+    <t>bcc_011</t>
+  </si>
+  <si>
+    <t>bcc_012</t>
+  </si>
+  <si>
+    <t>bcc_013</t>
+  </si>
+  <si>
+    <t>bcc_014</t>
+  </si>
+  <si>
+    <t>bcc_015</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>621x480</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_001</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_002</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_003</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_004</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_005</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_006</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_007</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_008</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_009</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_010</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_011</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_012</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_013</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_014</t>
+  </si>
+  <si>
+    <t>actinic_keratosis_015</t>
+  </si>
+  <si>
+    <t>Actinic Keratosis</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_001</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_002</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_003</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_004</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_005</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_006</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_007</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_008</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_009</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_010</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_011</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_012</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_013</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_014</t>
+  </si>
+  <si>
+    <t>cutaneous_t_cell_lymphona_015</t>
+  </si>
+  <si>
+    <t>Cutaneous T-Cell Lymphona</t>
+  </si>
+  <si>
+    <t>480x639</t>
+  </si>
+  <si>
+    <t>melanoma_001</t>
+  </si>
+  <si>
+    <t>melanoma_002</t>
+  </si>
+  <si>
+    <t>melanoma_003</t>
+  </si>
+  <si>
+    <t>melanoma_004</t>
+  </si>
+  <si>
+    <t>melanoma_005</t>
+  </si>
+  <si>
+    <t>melanoma_006</t>
+  </si>
+  <si>
+    <t>melanoma_007</t>
+  </si>
+  <si>
+    <t>melanoma_008</t>
+  </si>
+  <si>
+    <t>melanoma_009</t>
+  </si>
+  <si>
+    <t>melanoma_010</t>
+  </si>
+  <si>
+    <t>melanoma_011</t>
+  </si>
+  <si>
+    <t>melanoma_012</t>
+  </si>
+  <si>
+    <t>melanoma_013</t>
+  </si>
+  <si>
+    <t>melanoma_014</t>
+  </si>
+  <si>
+    <t>melanoma_015</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>513x480</t>
   </si>
 </sst>
 </file>
@@ -1187,15 +1688,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>163561</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>154036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1224,7 +1725,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="58464449"/>
+          <a:off x="1628775" y="86058374"/>
           <a:ext cx="7172325" cy="4306937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1237,15 +1738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1419224</xdr:colOff>
-      <xdr:row>308</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>1800224</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>63684</xdr:rowOff>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>35109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1268,7 +1769,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419224" y="63103124"/>
+          <a:off x="1800224" y="90477974"/>
           <a:ext cx="7381875" cy="2768785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1578,16 +2079,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9D3A69-BC2D-7345-811C-0394B0A4FCD6}">
-  <dimension ref="A1:T265"/>
+  <dimension ref="A1:T410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P260" sqref="P260"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P411" sqref="P411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="4" max="12" width="12.125" hidden="1" customWidth="1"/>
@@ -8379,6 +8880,21 @@
       <c r="C260" t="s">
         <v>345</v>
       </c>
+      <c r="P260">
+        <v>1</v>
+      </c>
+      <c r="Q260">
+        <v>4</v>
+      </c>
+      <c r="R260">
+        <v>2</v>
+      </c>
+      <c r="S260" t="s">
+        <v>350</v>
+      </c>
+      <c r="T260">
+        <v>96</v>
+      </c>
     </row>
     <row r="261" spans="1:20">
       <c r="A261" t="s">
@@ -8390,6 +8906,21 @@
       <c r="C261" t="s">
         <v>345</v>
       </c>
+      <c r="P261">
+        <v>1</v>
+      </c>
+      <c r="Q261">
+        <v>4</v>
+      </c>
+      <c r="R261" t="s">
+        <v>89</v>
+      </c>
+      <c r="S261" t="s">
+        <v>237</v>
+      </c>
+      <c r="T261">
+        <v>96</v>
+      </c>
     </row>
     <row r="262" spans="1:20">
       <c r="A262" t="s">
@@ -8401,6 +8932,21 @@
       <c r="C262" t="s">
         <v>345</v>
       </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
+        <v>2</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+      <c r="S262" t="s">
+        <v>351</v>
+      </c>
+      <c r="T262">
+        <v>96</v>
+      </c>
     </row>
     <row r="263" spans="1:20">
       <c r="A263" t="s">
@@ -8412,6 +8958,21 @@
       <c r="C263" t="s">
         <v>345</v>
       </c>
+      <c r="P263">
+        <v>1</v>
+      </c>
+      <c r="Q263">
+        <v>4</v>
+      </c>
+      <c r="R263">
+        <v>6</v>
+      </c>
+      <c r="S263" t="s">
+        <v>146</v>
+      </c>
+      <c r="T263">
+        <v>96</v>
+      </c>
     </row>
     <row r="264" spans="1:20">
       <c r="A264" t="s">
@@ -8423,6 +8984,21 @@
       <c r="C264" t="s">
         <v>345</v>
       </c>
+      <c r="P264">
+        <v>1</v>
+      </c>
+      <c r="Q264">
+        <v>4</v>
+      </c>
+      <c r="R264">
+        <v>1</v>
+      </c>
+      <c r="S264" t="s">
+        <v>348</v>
+      </c>
+      <c r="T264">
+        <v>96</v>
+      </c>
     </row>
     <row r="265" spans="1:20">
       <c r="A265" t="s">
@@ -8433,6 +9009,3791 @@
       </c>
       <c r="C265" t="s">
         <v>345</v>
+      </c>
+      <c r="P265">
+        <v>1</v>
+      </c>
+      <c r="Q265">
+        <v>4</v>
+      </c>
+      <c r="R265">
+        <v>1</v>
+      </c>
+      <c r="S265" t="s">
+        <v>348</v>
+      </c>
+      <c r="T265">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20">
+      <c r="A266" t="s">
+        <v>352</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>356</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+      <c r="Q266">
+        <v>4</v>
+      </c>
+      <c r="R266">
+        <v>5</v>
+      </c>
+      <c r="S266" t="s">
+        <v>92</v>
+      </c>
+      <c r="T266">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20">
+      <c r="A267" t="s">
+        <v>353</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>356</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+      <c r="Q267">
+        <v>4</v>
+      </c>
+      <c r="R267">
+        <v>5</v>
+      </c>
+      <c r="S267" t="s">
+        <v>186</v>
+      </c>
+      <c r="T267">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20">
+      <c r="A268" t="s">
+        <v>354</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>356</v>
+      </c>
+      <c r="P268">
+        <v>1</v>
+      </c>
+      <c r="Q268">
+        <v>4</v>
+      </c>
+      <c r="R268">
+        <v>1</v>
+      </c>
+      <c r="S268" t="s">
+        <v>36</v>
+      </c>
+      <c r="T268">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20">
+      <c r="A269" t="s">
+        <v>355</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>356</v>
+      </c>
+      <c r="P269">
+        <v>1</v>
+      </c>
+      <c r="Q269">
+        <v>4</v>
+      </c>
+      <c r="R269">
+        <v>5</v>
+      </c>
+      <c r="S269" t="s">
+        <v>36</v>
+      </c>
+      <c r="T269">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20">
+      <c r="A270" t="s">
+        <v>357</v>
+      </c>
+      <c r="B270">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>360</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
+        <v>3</v>
+      </c>
+      <c r="R270" t="s">
+        <v>89</v>
+      </c>
+      <c r="S270" t="s">
+        <v>36</v>
+      </c>
+      <c r="T270">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20">
+      <c r="A271" t="s">
+        <v>358</v>
+      </c>
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>360</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
+        <v>2</v>
+      </c>
+      <c r="R271">
+        <v>5</v>
+      </c>
+      <c r="S271" t="s">
+        <v>36</v>
+      </c>
+      <c r="T271">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20">
+      <c r="A272" t="s">
+        <v>359</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>360</v>
+      </c>
+      <c r="P272">
+        <v>1</v>
+      </c>
+      <c r="Q272">
+        <v>4</v>
+      </c>
+      <c r="R272">
+        <v>6</v>
+      </c>
+      <c r="S272" t="s">
+        <v>36</v>
+      </c>
+      <c r="T272">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20">
+      <c r="A273" t="s">
+        <v>361</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>376</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
+        <v>2</v>
+      </c>
+      <c r="R273" t="s">
+        <v>278</v>
+      </c>
+      <c r="S273" t="s">
+        <v>38</v>
+      </c>
+      <c r="T273">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
+      <c r="A274" t="s">
+        <v>362</v>
+      </c>
+      <c r="B274">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>376</v>
+      </c>
+      <c r="P274">
+        <v>1</v>
+      </c>
+      <c r="Q274">
+        <v>4</v>
+      </c>
+      <c r="R274">
+        <v>3</v>
+      </c>
+      <c r="S274" t="s">
+        <v>36</v>
+      </c>
+      <c r="T274">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
+      <c r="A275" t="s">
+        <v>363</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>376</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
+        <v>3</v>
+      </c>
+      <c r="R275">
+        <v>3</v>
+      </c>
+      <c r="S275" t="s">
+        <v>38</v>
+      </c>
+      <c r="T275">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
+      <c r="A276" t="s">
+        <v>364</v>
+      </c>
+      <c r="B276">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>376</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
+        <v>3</v>
+      </c>
+      <c r="R276">
+        <v>6</v>
+      </c>
+      <c r="S276" t="s">
+        <v>36</v>
+      </c>
+      <c r="T276">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
+      <c r="A277" t="s">
+        <v>365</v>
+      </c>
+      <c r="B277">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>376</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+      <c r="R277">
+        <v>1</v>
+      </c>
+      <c r="S277" t="s">
+        <v>36</v>
+      </c>
+      <c r="T277">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
+      <c r="A278" t="s">
+        <v>366</v>
+      </c>
+      <c r="B278">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>376</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278">
+        <v>1</v>
+      </c>
+      <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278" t="s">
+        <v>38</v>
+      </c>
+      <c r="T278">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
+      <c r="A279" t="s">
+        <v>367</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>376</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>3</v>
+      </c>
+      <c r="R279" t="s">
+        <v>277</v>
+      </c>
+      <c r="S279" t="s">
+        <v>38</v>
+      </c>
+      <c r="T279">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
+      <c r="A280" t="s">
+        <v>368</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>376</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
+        <v>2</v>
+      </c>
+      <c r="R280">
+        <v>1</v>
+      </c>
+      <c r="S280" t="s">
+        <v>36</v>
+      </c>
+      <c r="T280">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
+      <c r="A281" t="s">
+        <v>369</v>
+      </c>
+      <c r="B281">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>376</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+      <c r="Q281">
+        <v>2</v>
+      </c>
+      <c r="R281" t="s">
+        <v>278</v>
+      </c>
+      <c r="S281" t="s">
+        <v>36</v>
+      </c>
+      <c r="T281">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
+      <c r="A282" t="s">
+        <v>370</v>
+      </c>
+      <c r="B282">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>376</v>
+      </c>
+      <c r="P282">
+        <v>0</v>
+      </c>
+      <c r="Q282">
+        <v>2</v>
+      </c>
+      <c r="R282">
+        <v>1</v>
+      </c>
+      <c r="S282" t="s">
+        <v>36</v>
+      </c>
+      <c r="T282">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
+      <c r="A283" t="s">
+        <v>371</v>
+      </c>
+      <c r="B283">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>376</v>
+      </c>
+      <c r="P283">
+        <v>1</v>
+      </c>
+      <c r="Q283">
+        <v>5</v>
+      </c>
+      <c r="R283">
+        <v>1</v>
+      </c>
+      <c r="S283" t="s">
+        <v>38</v>
+      </c>
+      <c r="T283">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
+      <c r="A284" t="s">
+        <v>372</v>
+      </c>
+      <c r="B284">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>376</v>
+      </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
+      <c r="Q284">
+        <v>2</v>
+      </c>
+      <c r="R284">
+        <v>2</v>
+      </c>
+      <c r="S284" t="s">
+        <v>377</v>
+      </c>
+      <c r="T284">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20">
+      <c r="A285" t="s">
+        <v>373</v>
+      </c>
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>376</v>
+      </c>
+      <c r="P285">
+        <v>1</v>
+      </c>
+      <c r="Q285">
+        <v>4</v>
+      </c>
+      <c r="R285">
+        <v>2</v>
+      </c>
+      <c r="S285" t="s">
+        <v>36</v>
+      </c>
+      <c r="T285">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
+      <c r="A286" t="s">
+        <v>374</v>
+      </c>
+      <c r="B286">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>376</v>
+      </c>
+      <c r="P286">
+        <v>1</v>
+      </c>
+      <c r="Q286">
+        <v>4</v>
+      </c>
+      <c r="R286" t="s">
+        <v>278</v>
+      </c>
+      <c r="S286" t="s">
+        <v>36</v>
+      </c>
+      <c r="T286">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="A287" t="s">
+        <v>375</v>
+      </c>
+      <c r="B287">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>376</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+      <c r="Q287">
+        <v>3</v>
+      </c>
+      <c r="R287" t="s">
+        <v>278</v>
+      </c>
+      <c r="S287" t="s">
+        <v>36</v>
+      </c>
+      <c r="T287">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
+      <c r="A288" t="s">
+        <v>378</v>
+      </c>
+      <c r="B288">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>393</v>
+      </c>
+      <c r="P288">
+        <v>0</v>
+      </c>
+      <c r="Q288">
+        <v>2</v>
+      </c>
+      <c r="R288">
+        <v>1</v>
+      </c>
+      <c r="S288" t="s">
+        <v>299</v>
+      </c>
+      <c r="T288">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20">
+      <c r="A289" t="s">
+        <v>379</v>
+      </c>
+      <c r="B289">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>393</v>
+      </c>
+      <c r="P289">
+        <v>0</v>
+      </c>
+      <c r="Q289">
+        <v>3</v>
+      </c>
+      <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289" t="s">
+        <v>36</v>
+      </c>
+      <c r="T289">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="A290" t="s">
+        <v>380</v>
+      </c>
+      <c r="B290">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>393</v>
+      </c>
+      <c r="P290">
+        <v>1</v>
+      </c>
+      <c r="Q290">
+        <v>4</v>
+      </c>
+      <c r="R290">
+        <v>1</v>
+      </c>
+      <c r="S290" t="s">
+        <v>91</v>
+      </c>
+      <c r="T290">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20">
+      <c r="A291" t="s">
+        <v>381</v>
+      </c>
+      <c r="B291">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>393</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+      <c r="Q291">
+        <v>3</v>
+      </c>
+      <c r="R291">
+        <v>1</v>
+      </c>
+      <c r="S291" t="s">
+        <v>36</v>
+      </c>
+      <c r="T291">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20">
+      <c r="A292" t="s">
+        <v>382</v>
+      </c>
+      <c r="B292">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>393</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+      <c r="Q292">
+        <v>2</v>
+      </c>
+      <c r="R292">
+        <v>2</v>
+      </c>
+      <c r="S292" t="s">
+        <v>36</v>
+      </c>
+      <c r="T292">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
+      <c r="A293" t="s">
+        <v>383</v>
+      </c>
+      <c r="B293">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>393</v>
+      </c>
+      <c r="P293">
+        <v>1</v>
+      </c>
+      <c r="Q293">
+        <v>4</v>
+      </c>
+      <c r="R293" t="s">
+        <v>278</v>
+      </c>
+      <c r="S293" t="s">
+        <v>92</v>
+      </c>
+      <c r="T293">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20">
+      <c r="A294" t="s">
+        <v>384</v>
+      </c>
+      <c r="B294">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>393</v>
+      </c>
+      <c r="P294">
+        <v>1</v>
+      </c>
+      <c r="Q294">
+        <v>4</v>
+      </c>
+      <c r="R294">
+        <v>4</v>
+      </c>
+      <c r="S294" t="s">
+        <v>38</v>
+      </c>
+      <c r="T294">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20">
+      <c r="A295" t="s">
+        <v>385</v>
+      </c>
+      <c r="B295">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>393</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+      <c r="Q295">
+        <v>3</v>
+      </c>
+      <c r="R295">
+        <v>6</v>
+      </c>
+      <c r="S295" t="s">
+        <v>38</v>
+      </c>
+      <c r="T295">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20">
+      <c r="A296" t="s">
+        <v>386</v>
+      </c>
+      <c r="B296">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>393</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+      <c r="Q296">
+        <v>2</v>
+      </c>
+      <c r="R296">
+        <v>6</v>
+      </c>
+      <c r="S296" t="s">
+        <v>36</v>
+      </c>
+      <c r="T296">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20">
+      <c r="A297" t="s">
+        <v>387</v>
+      </c>
+      <c r="B297">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>393</v>
+      </c>
+      <c r="P297">
+        <v>1</v>
+      </c>
+      <c r="Q297">
+        <v>4</v>
+      </c>
+      <c r="R297">
+        <v>2</v>
+      </c>
+      <c r="S297" t="s">
+        <v>36</v>
+      </c>
+      <c r="T297">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20">
+      <c r="A298" t="s">
+        <v>388</v>
+      </c>
+      <c r="B298">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>393</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
+        <v>2</v>
+      </c>
+      <c r="R298">
+        <v>4</v>
+      </c>
+      <c r="S298" t="s">
+        <v>36</v>
+      </c>
+      <c r="T298">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20">
+      <c r="A299" t="s">
+        <v>389</v>
+      </c>
+      <c r="B299">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>393</v>
+      </c>
+      <c r="P299">
+        <v>1</v>
+      </c>
+      <c r="Q299">
+        <v>4</v>
+      </c>
+      <c r="R299" t="s">
+        <v>279</v>
+      </c>
+      <c r="S299" t="s">
+        <v>36</v>
+      </c>
+      <c r="T299">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20">
+      <c r="A300" t="s">
+        <v>390</v>
+      </c>
+      <c r="B300">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>393</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+      <c r="Q300">
+        <v>3</v>
+      </c>
+      <c r="R300" t="s">
+        <v>278</v>
+      </c>
+      <c r="S300" t="s">
+        <v>36</v>
+      </c>
+      <c r="T300">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20">
+      <c r="A301" t="s">
+        <v>391</v>
+      </c>
+      <c r="B301">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>393</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+      <c r="Q301">
+        <v>2</v>
+      </c>
+      <c r="R301">
+        <v>1</v>
+      </c>
+      <c r="S301" t="s">
+        <v>394</v>
+      </c>
+      <c r="T301">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20">
+      <c r="A302" t="s">
+        <v>392</v>
+      </c>
+      <c r="B302">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>393</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+      <c r="Q302">
+        <v>1</v>
+      </c>
+      <c r="R302">
+        <v>6</v>
+      </c>
+      <c r="S302" t="s">
+        <v>92</v>
+      </c>
+      <c r="T302">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20">
+      <c r="A303" t="s">
+        <v>395</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>398</v>
+      </c>
+      <c r="P303">
+        <v>1</v>
+      </c>
+      <c r="Q303">
+        <v>4</v>
+      </c>
+      <c r="R303">
+        <v>6</v>
+      </c>
+      <c r="S303" t="s">
+        <v>399</v>
+      </c>
+      <c r="T303">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20">
+      <c r="A304" t="s">
+        <v>396</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>398</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+      <c r="Q304">
+        <v>3</v>
+      </c>
+      <c r="R304">
+        <v>6</v>
+      </c>
+      <c r="S304" t="s">
+        <v>92</v>
+      </c>
+      <c r="T304">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20">
+      <c r="A305" t="s">
+        <v>397</v>
+      </c>
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>398</v>
+      </c>
+      <c r="P305">
+        <v>0</v>
+      </c>
+      <c r="Q305">
+        <v>2</v>
+      </c>
+      <c r="R305">
+        <v>6</v>
+      </c>
+      <c r="S305" t="s">
+        <v>129</v>
+      </c>
+      <c r="T305">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20">
+      <c r="A306" t="s">
+        <v>400</v>
+      </c>
+      <c r="B306">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>406</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+      <c r="Q306">
+        <v>1</v>
+      </c>
+      <c r="R306">
+        <v>7</v>
+      </c>
+      <c r="S306" t="s">
+        <v>36</v>
+      </c>
+      <c r="T306">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20">
+      <c r="A307" t="s">
+        <v>401</v>
+      </c>
+      <c r="B307">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>406</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+      <c r="Q307">
+        <v>2</v>
+      </c>
+      <c r="R307">
+        <v>7</v>
+      </c>
+      <c r="S307" t="s">
+        <v>36</v>
+      </c>
+      <c r="T307">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20">
+      <c r="A308" t="s">
+        <v>402</v>
+      </c>
+      <c r="B308">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>406</v>
+      </c>
+      <c r="P308">
+        <v>1</v>
+      </c>
+      <c r="Q308">
+        <v>4</v>
+      </c>
+      <c r="R308">
+        <v>7</v>
+      </c>
+      <c r="S308" t="s">
+        <v>36</v>
+      </c>
+      <c r="T308">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20">
+      <c r="A309" t="s">
+        <v>403</v>
+      </c>
+      <c r="B309">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>406</v>
+      </c>
+      <c r="P309">
+        <v>1</v>
+      </c>
+      <c r="Q309">
+        <v>5</v>
+      </c>
+      <c r="R309">
+        <v>7</v>
+      </c>
+      <c r="S309" t="s">
+        <v>317</v>
+      </c>
+      <c r="T309">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20">
+      <c r="A310" t="s">
+        <v>404</v>
+      </c>
+      <c r="B310">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s">
+        <v>406</v>
+      </c>
+      <c r="P310">
+        <v>0</v>
+      </c>
+      <c r="Q310">
+        <v>3</v>
+      </c>
+      <c r="R310">
+        <v>7</v>
+      </c>
+      <c r="S310" t="s">
+        <v>36</v>
+      </c>
+      <c r="T310">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20">
+      <c r="A311" t="s">
+        <v>405</v>
+      </c>
+      <c r="B311">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>406</v>
+      </c>
+      <c r="P311">
+        <v>0</v>
+      </c>
+      <c r="Q311">
+        <v>2</v>
+      </c>
+      <c r="R311">
+        <v>7</v>
+      </c>
+      <c r="S311" t="s">
+        <v>36</v>
+      </c>
+      <c r="T311">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20">
+      <c r="A312" t="s">
+        <v>407</v>
+      </c>
+      <c r="B312">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>422</v>
+      </c>
+      <c r="P312">
+        <v>0</v>
+      </c>
+      <c r="Q312">
+        <v>3</v>
+      </c>
+      <c r="R312">
+        <v>4</v>
+      </c>
+      <c r="S312" t="s">
+        <v>399</v>
+      </c>
+      <c r="T312">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20">
+      <c r="A313" t="s">
+        <v>408</v>
+      </c>
+      <c r="B313">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>422</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+      <c r="Q313">
+        <v>2</v>
+      </c>
+      <c r="R313">
+        <v>4</v>
+      </c>
+      <c r="S313" t="s">
+        <v>36</v>
+      </c>
+      <c r="T313">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20">
+      <c r="A314" t="s">
+        <v>409</v>
+      </c>
+      <c r="B314">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>422</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+      <c r="Q314">
+        <v>3</v>
+      </c>
+      <c r="R314">
+        <v>4</v>
+      </c>
+      <c r="S314" t="s">
+        <v>36</v>
+      </c>
+      <c r="T314">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20">
+      <c r="A315" t="s">
+        <v>410</v>
+      </c>
+      <c r="B315">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>422</v>
+      </c>
+      <c r="P315">
+        <v>1</v>
+      </c>
+      <c r="Q315">
+        <v>4</v>
+      </c>
+      <c r="R315">
+        <v>4</v>
+      </c>
+      <c r="S315" t="s">
+        <v>146</v>
+      </c>
+      <c r="T315">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20">
+      <c r="A316" t="s">
+        <v>411</v>
+      </c>
+      <c r="B316">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>422</v>
+      </c>
+      <c r="P316">
+        <v>1</v>
+      </c>
+      <c r="Q316">
+        <v>5</v>
+      </c>
+      <c r="R316">
+        <v>4</v>
+      </c>
+      <c r="S316" t="s">
+        <v>36</v>
+      </c>
+      <c r="T316">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20">
+      <c r="A317" t="s">
+        <v>412</v>
+      </c>
+      <c r="B317">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>422</v>
+      </c>
+      <c r="P317">
+        <v>0</v>
+      </c>
+      <c r="Q317">
+        <v>3</v>
+      </c>
+      <c r="R317">
+        <v>4</v>
+      </c>
+      <c r="S317" t="s">
+        <v>399</v>
+      </c>
+      <c r="T317">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20">
+      <c r="A318" t="s">
+        <v>413</v>
+      </c>
+      <c r="B318">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>422</v>
+      </c>
+      <c r="P318">
+        <v>0</v>
+      </c>
+      <c r="Q318">
+        <v>3</v>
+      </c>
+      <c r="R318">
+        <v>3</v>
+      </c>
+      <c r="S318" t="s">
+        <v>91</v>
+      </c>
+      <c r="T318">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20">
+      <c r="A319" t="s">
+        <v>414</v>
+      </c>
+      <c r="B319">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s">
+        <v>422</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+      <c r="Q319">
+        <v>2</v>
+      </c>
+      <c r="R319">
+        <v>3</v>
+      </c>
+      <c r="S319" t="s">
+        <v>36</v>
+      </c>
+      <c r="T319">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20">
+      <c r="A320" t="s">
+        <v>415</v>
+      </c>
+      <c r="B320">
+        <v>6</v>
+      </c>
+      <c r="C320" t="s">
+        <v>422</v>
+      </c>
+      <c r="P320">
+        <v>0</v>
+      </c>
+      <c r="Q320">
+        <v>3</v>
+      </c>
+      <c r="R320">
+        <v>4</v>
+      </c>
+      <c r="S320" t="s">
+        <v>36</v>
+      </c>
+      <c r="T320">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20">
+      <c r="A321" t="s">
+        <v>416</v>
+      </c>
+      <c r="B321">
+        <v>6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>422</v>
+      </c>
+      <c r="P321">
+        <v>0</v>
+      </c>
+      <c r="Q321">
+        <v>3</v>
+      </c>
+      <c r="R321">
+        <v>4</v>
+      </c>
+      <c r="S321" t="s">
+        <v>399</v>
+      </c>
+      <c r="T321">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20">
+      <c r="A322" t="s">
+        <v>417</v>
+      </c>
+      <c r="B322">
+        <v>6</v>
+      </c>
+      <c r="C322" t="s">
+        <v>422</v>
+      </c>
+      <c r="P322">
+        <v>0</v>
+      </c>
+      <c r="Q322">
+        <v>3</v>
+      </c>
+      <c r="R322">
+        <v>4</v>
+      </c>
+      <c r="S322" t="s">
+        <v>36</v>
+      </c>
+      <c r="T322">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20">
+      <c r="A323" t="s">
+        <v>418</v>
+      </c>
+      <c r="B323">
+        <v>6</v>
+      </c>
+      <c r="C323" t="s">
+        <v>422</v>
+      </c>
+      <c r="P323">
+        <v>1</v>
+      </c>
+      <c r="Q323">
+        <v>4</v>
+      </c>
+      <c r="R323">
+        <v>4</v>
+      </c>
+      <c r="S323" t="s">
+        <v>36</v>
+      </c>
+      <c r="T323">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20">
+      <c r="A324" t="s">
+        <v>419</v>
+      </c>
+      <c r="B324">
+        <v>6</v>
+      </c>
+      <c r="C324" t="s">
+        <v>422</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+      <c r="Q324">
+        <v>3</v>
+      </c>
+      <c r="R324" t="s">
+        <v>89</v>
+      </c>
+      <c r="S324" t="s">
+        <v>317</v>
+      </c>
+      <c r="T324">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="A325" t="s">
+        <v>420</v>
+      </c>
+      <c r="B325">
+        <v>6</v>
+      </c>
+      <c r="C325" t="s">
+        <v>422</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+      <c r="Q325">
+        <v>3</v>
+      </c>
+      <c r="R325" t="s">
+        <v>89</v>
+      </c>
+      <c r="S325" t="s">
+        <v>36</v>
+      </c>
+      <c r="T325">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20">
+      <c r="A326" t="s">
+        <v>421</v>
+      </c>
+      <c r="B326">
+        <v>6</v>
+      </c>
+      <c r="C326" t="s">
+        <v>422</v>
+      </c>
+      <c r="P326">
+        <v>0</v>
+      </c>
+      <c r="Q326">
+        <v>5</v>
+      </c>
+      <c r="R326">
+        <v>4</v>
+      </c>
+      <c r="S326" t="s">
+        <v>36</v>
+      </c>
+      <c r="T326">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20">
+      <c r="A327" t="s">
+        <v>423</v>
+      </c>
+      <c r="B327">
+        <v>6</v>
+      </c>
+      <c r="C327" t="s">
+        <v>429</v>
+      </c>
+      <c r="P327">
+        <v>0</v>
+      </c>
+      <c r="Q327">
+        <v>3</v>
+      </c>
+      <c r="R327">
+        <v>5</v>
+      </c>
+      <c r="S327" t="s">
+        <v>317</v>
+      </c>
+      <c r="T327">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20">
+      <c r="A328" t="s">
+        <v>424</v>
+      </c>
+      <c r="B328">
+        <v>6</v>
+      </c>
+      <c r="C328" t="s">
+        <v>429</v>
+      </c>
+      <c r="P328">
+        <v>0</v>
+      </c>
+      <c r="Q328">
+        <v>3</v>
+      </c>
+      <c r="R328">
+        <v>7</v>
+      </c>
+      <c r="S328" t="s">
+        <v>36</v>
+      </c>
+      <c r="T328">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20">
+      <c r="A329" t="s">
+        <v>425</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>429</v>
+      </c>
+      <c r="P329">
+        <v>0</v>
+      </c>
+      <c r="Q329">
+        <v>3</v>
+      </c>
+      <c r="R329">
+        <v>6</v>
+      </c>
+      <c r="S329" t="s">
+        <v>36</v>
+      </c>
+      <c r="T329">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20">
+      <c r="A330" t="s">
+        <v>426</v>
+      </c>
+      <c r="B330">
+        <v>6</v>
+      </c>
+      <c r="C330" t="s">
+        <v>429</v>
+      </c>
+      <c r="P330">
+        <v>1</v>
+      </c>
+      <c r="Q330">
+        <v>5</v>
+      </c>
+      <c r="R330" t="s">
+        <v>279</v>
+      </c>
+      <c r="S330" t="s">
+        <v>38</v>
+      </c>
+      <c r="T330">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20">
+      <c r="A331" t="s">
+        <v>427</v>
+      </c>
+      <c r="B331">
+        <v>6</v>
+      </c>
+      <c r="C331" t="s">
+        <v>429</v>
+      </c>
+      <c r="P331">
+        <v>1</v>
+      </c>
+      <c r="Q331">
+        <v>5</v>
+      </c>
+      <c r="R331" t="s">
+        <v>279</v>
+      </c>
+      <c r="S331" t="s">
+        <v>38</v>
+      </c>
+      <c r="T331">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20">
+      <c r="A332" t="s">
+        <v>428</v>
+      </c>
+      <c r="B332">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>429</v>
+      </c>
+      <c r="P332">
+        <v>0</v>
+      </c>
+      <c r="Q332">
+        <v>3</v>
+      </c>
+      <c r="R332">
+        <v>6</v>
+      </c>
+      <c r="S332" t="s">
+        <v>36</v>
+      </c>
+      <c r="T332">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20">
+      <c r="A333" t="s">
+        <v>430</v>
+      </c>
+      <c r="B333">
+        <v>6</v>
+      </c>
+      <c r="C333" t="s">
+        <v>445</v>
+      </c>
+      <c r="P333">
+        <v>1</v>
+      </c>
+      <c r="Q333">
+        <v>5</v>
+      </c>
+      <c r="R333">
+        <v>4</v>
+      </c>
+      <c r="S333" t="s">
+        <v>36</v>
+      </c>
+      <c r="T333">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20">
+      <c r="A334" t="s">
+        <v>431</v>
+      </c>
+      <c r="B334">
+        <v>6</v>
+      </c>
+      <c r="C334" t="s">
+        <v>445</v>
+      </c>
+      <c r="P334">
+        <v>1</v>
+      </c>
+      <c r="Q334">
+        <v>4</v>
+      </c>
+      <c r="R334">
+        <v>7</v>
+      </c>
+      <c r="S334" t="s">
+        <v>36</v>
+      </c>
+      <c r="T334">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20">
+      <c r="A335" t="s">
+        <v>432</v>
+      </c>
+      <c r="B335">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>445</v>
+      </c>
+      <c r="P335">
+        <v>0</v>
+      </c>
+      <c r="Q335">
+        <v>2</v>
+      </c>
+      <c r="R335">
+        <v>6</v>
+      </c>
+      <c r="S335" t="s">
+        <v>36</v>
+      </c>
+      <c r="T335">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20">
+      <c r="A336" t="s">
+        <v>433</v>
+      </c>
+      <c r="B336">
+        <v>6</v>
+      </c>
+      <c r="C336" t="s">
+        <v>445</v>
+      </c>
+      <c r="P336">
+        <v>1</v>
+      </c>
+      <c r="Q336">
+        <v>5</v>
+      </c>
+      <c r="R336">
+        <v>5</v>
+      </c>
+      <c r="S336" t="s">
+        <v>36</v>
+      </c>
+      <c r="T336">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20">
+      <c r="A337" t="s">
+        <v>434</v>
+      </c>
+      <c r="B337">
+        <v>6</v>
+      </c>
+      <c r="C337" t="s">
+        <v>445</v>
+      </c>
+      <c r="P337">
+        <v>0</v>
+      </c>
+      <c r="Q337">
+        <v>2</v>
+      </c>
+      <c r="R337">
+        <v>6</v>
+      </c>
+      <c r="S337" t="s">
+        <v>36</v>
+      </c>
+      <c r="T337">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20">
+      <c r="A338" t="s">
+        <v>435</v>
+      </c>
+      <c r="B338">
+        <v>6</v>
+      </c>
+      <c r="C338" t="s">
+        <v>445</v>
+      </c>
+      <c r="P338">
+        <v>0</v>
+      </c>
+      <c r="Q338">
+        <v>1</v>
+      </c>
+      <c r="R338">
+        <v>3</v>
+      </c>
+      <c r="S338" t="s">
+        <v>36</v>
+      </c>
+      <c r="T338">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20">
+      <c r="A339" t="s">
+        <v>436</v>
+      </c>
+      <c r="B339">
+        <v>6</v>
+      </c>
+      <c r="C339" t="s">
+        <v>445</v>
+      </c>
+      <c r="P339">
+        <v>0</v>
+      </c>
+      <c r="Q339">
+        <v>3</v>
+      </c>
+      <c r="R339">
+        <v>6</v>
+      </c>
+      <c r="S339" t="s">
+        <v>36</v>
+      </c>
+      <c r="T339">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20">
+      <c r="A340" t="s">
+        <v>437</v>
+      </c>
+      <c r="B340">
+        <v>6</v>
+      </c>
+      <c r="C340" t="s">
+        <v>445</v>
+      </c>
+      <c r="P340">
+        <v>0</v>
+      </c>
+      <c r="Q340">
+        <v>3</v>
+      </c>
+      <c r="R340">
+        <v>6</v>
+      </c>
+      <c r="S340" t="s">
+        <v>36</v>
+      </c>
+      <c r="T340">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20">
+      <c r="A341" t="s">
+        <v>438</v>
+      </c>
+      <c r="B341">
+        <v>6</v>
+      </c>
+      <c r="C341" t="s">
+        <v>445</v>
+      </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
+      <c r="Q341">
+        <v>2</v>
+      </c>
+      <c r="R341">
+        <v>6</v>
+      </c>
+      <c r="S341" t="s">
+        <v>36</v>
+      </c>
+      <c r="T341">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20">
+      <c r="A342" t="s">
+        <v>439</v>
+      </c>
+      <c r="B342">
+        <v>6</v>
+      </c>
+      <c r="C342" t="s">
+        <v>445</v>
+      </c>
+      <c r="P342">
+        <v>0</v>
+      </c>
+      <c r="Q342">
+        <v>2</v>
+      </c>
+      <c r="R342">
+        <v>5</v>
+      </c>
+      <c r="S342" t="s">
+        <v>36</v>
+      </c>
+      <c r="T342">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20">
+      <c r="A343" t="s">
+        <v>440</v>
+      </c>
+      <c r="B343">
+        <v>6</v>
+      </c>
+      <c r="C343" t="s">
+        <v>445</v>
+      </c>
+      <c r="P343">
+        <v>1</v>
+      </c>
+      <c r="Q343">
+        <v>4</v>
+      </c>
+      <c r="R343">
+        <v>6</v>
+      </c>
+      <c r="S343" t="s">
+        <v>36</v>
+      </c>
+      <c r="T343">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20">
+      <c r="A344" t="s">
+        <v>441</v>
+      </c>
+      <c r="B344">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>445</v>
+      </c>
+      <c r="P344">
+        <v>1</v>
+      </c>
+      <c r="Q344">
+        <v>6</v>
+      </c>
+      <c r="R344">
+        <v>6</v>
+      </c>
+      <c r="S344" t="s">
+        <v>36</v>
+      </c>
+      <c r="T344">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20">
+      <c r="A345" t="s">
+        <v>442</v>
+      </c>
+      <c r="B345">
+        <v>6</v>
+      </c>
+      <c r="C345" t="s">
+        <v>445</v>
+      </c>
+      <c r="P345">
+        <v>1</v>
+      </c>
+      <c r="Q345">
+        <v>6</v>
+      </c>
+      <c r="R345">
+        <v>6</v>
+      </c>
+      <c r="S345" t="s">
+        <v>36</v>
+      </c>
+      <c r="T345">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20">
+      <c r="A346" t="s">
+        <v>443</v>
+      </c>
+      <c r="B346">
+        <v>6</v>
+      </c>
+      <c r="C346" t="s">
+        <v>445</v>
+      </c>
+      <c r="P346">
+        <v>1</v>
+      </c>
+      <c r="Q346">
+        <v>6</v>
+      </c>
+      <c r="R346">
+        <v>6</v>
+      </c>
+      <c r="S346" t="s">
+        <v>36</v>
+      </c>
+      <c r="T346">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20">
+      <c r="A347" t="s">
+        <v>444</v>
+      </c>
+      <c r="B347">
+        <v>6</v>
+      </c>
+      <c r="C347" t="s">
+        <v>445</v>
+      </c>
+      <c r="P347">
+        <v>1</v>
+      </c>
+      <c r="Q347">
+        <v>6</v>
+      </c>
+      <c r="R347">
+        <v>6</v>
+      </c>
+      <c r="S347" t="s">
+        <v>36</v>
+      </c>
+      <c r="T347">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20">
+      <c r="A348" t="s">
+        <v>446</v>
+      </c>
+      <c r="B348">
+        <v>6</v>
+      </c>
+      <c r="C348" t="s">
+        <v>449</v>
+      </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
+      <c r="Q348">
+        <v>3</v>
+      </c>
+      <c r="R348">
+        <v>6</v>
+      </c>
+      <c r="S348" t="s">
+        <v>36</v>
+      </c>
+      <c r="T348">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20">
+      <c r="A349" t="s">
+        <v>447</v>
+      </c>
+      <c r="B349">
+        <v>6</v>
+      </c>
+      <c r="C349" t="s">
+        <v>449</v>
+      </c>
+      <c r="P349">
+        <v>1</v>
+      </c>
+      <c r="Q349">
+        <v>4</v>
+      </c>
+      <c r="R349">
+        <v>6</v>
+      </c>
+      <c r="S349" t="s">
+        <v>38</v>
+      </c>
+      <c r="T349">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20">
+      <c r="A350" t="s">
+        <v>448</v>
+      </c>
+      <c r="B350">
+        <v>6</v>
+      </c>
+      <c r="C350" t="s">
+        <v>449</v>
+      </c>
+      <c r="P350">
+        <v>1</v>
+      </c>
+      <c r="Q350">
+        <v>4</v>
+      </c>
+      <c r="R350">
+        <v>6</v>
+      </c>
+      <c r="S350" t="s">
+        <v>92</v>
+      </c>
+      <c r="T350">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20">
+      <c r="A351" t="s">
+        <v>450</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>465</v>
+      </c>
+      <c r="P351">
+        <v>0</v>
+      </c>
+      <c r="Q351">
+        <v>3</v>
+      </c>
+      <c r="R351">
+        <v>1</v>
+      </c>
+      <c r="S351" t="s">
+        <v>92</v>
+      </c>
+      <c r="T351">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20">
+      <c r="A352" t="s">
+        <v>451</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352" t="s">
+        <v>465</v>
+      </c>
+      <c r="P352">
+        <v>0</v>
+      </c>
+      <c r="Q352">
+        <v>3</v>
+      </c>
+      <c r="R352">
+        <v>1</v>
+      </c>
+      <c r="S352" t="s">
+        <v>466</v>
+      </c>
+      <c r="T352">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20">
+      <c r="A353" t="s">
+        <v>452</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353" t="s">
+        <v>465</v>
+      </c>
+      <c r="P353">
+        <v>0</v>
+      </c>
+      <c r="Q353">
+        <v>2</v>
+      </c>
+      <c r="R353">
+        <v>1</v>
+      </c>
+      <c r="S353" t="s">
+        <v>92</v>
+      </c>
+      <c r="T353">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20">
+      <c r="A354" t="s">
+        <v>453</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354" t="s">
+        <v>465</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+      <c r="Q354">
+        <v>3</v>
+      </c>
+      <c r="R354">
+        <v>1</v>
+      </c>
+      <c r="S354" t="s">
+        <v>92</v>
+      </c>
+      <c r="T354">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20">
+      <c r="A355" t="s">
+        <v>454</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355" t="s">
+        <v>465</v>
+      </c>
+      <c r="P355">
+        <v>1</v>
+      </c>
+      <c r="Q355">
+        <v>4</v>
+      </c>
+      <c r="R355">
+        <v>1</v>
+      </c>
+      <c r="S355" t="s">
+        <v>129</v>
+      </c>
+      <c r="T355">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20">
+      <c r="A356" t="s">
+        <v>455</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356" t="s">
+        <v>465</v>
+      </c>
+      <c r="P356">
+        <v>0</v>
+      </c>
+      <c r="Q356">
+        <v>2</v>
+      </c>
+      <c r="R356">
+        <v>1</v>
+      </c>
+      <c r="S356" t="s">
+        <v>36</v>
+      </c>
+      <c r="T356">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20">
+      <c r="A357" t="s">
+        <v>456</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357" t="s">
+        <v>465</v>
+      </c>
+      <c r="P357">
+        <v>0</v>
+      </c>
+      <c r="Q357">
+        <v>1</v>
+      </c>
+      <c r="R357">
+        <v>1</v>
+      </c>
+      <c r="S357" t="s">
+        <v>36</v>
+      </c>
+      <c r="T357">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20">
+      <c r="A358" t="s">
+        <v>457</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+      <c r="C358" t="s">
+        <v>465</v>
+      </c>
+      <c r="P358">
+        <v>0</v>
+      </c>
+      <c r="Q358">
+        <v>1</v>
+      </c>
+      <c r="R358">
+        <v>1</v>
+      </c>
+      <c r="S358" t="s">
+        <v>92</v>
+      </c>
+      <c r="T358">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20">
+      <c r="A359" t="s">
+        <v>458</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+      <c r="C359" t="s">
+        <v>465</v>
+      </c>
+      <c r="P359">
+        <v>1</v>
+      </c>
+      <c r="Q359">
+        <v>4</v>
+      </c>
+      <c r="R359">
+        <v>3</v>
+      </c>
+      <c r="S359" t="s">
+        <v>36</v>
+      </c>
+      <c r="T359">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20">
+      <c r="A360" t="s">
+        <v>459</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360" t="s">
+        <v>465</v>
+      </c>
+      <c r="P360">
+        <v>1</v>
+      </c>
+      <c r="Q360">
+        <v>4</v>
+      </c>
+      <c r="R360">
+        <v>3</v>
+      </c>
+      <c r="S360" t="s">
+        <v>36</v>
+      </c>
+      <c r="T360">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20">
+      <c r="A361" t="s">
+        <v>460</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>465</v>
+      </c>
+      <c r="P361">
+        <v>1</v>
+      </c>
+      <c r="Q361">
+        <v>5</v>
+      </c>
+      <c r="R361">
+        <v>3</v>
+      </c>
+      <c r="S361" t="s">
+        <v>38</v>
+      </c>
+      <c r="T361">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20">
+      <c r="A362" t="s">
+        <v>461</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362" t="s">
+        <v>465</v>
+      </c>
+      <c r="P362">
+        <v>0</v>
+      </c>
+      <c r="Q362">
+        <v>2</v>
+      </c>
+      <c r="R362">
+        <v>2</v>
+      </c>
+      <c r="S362" t="s">
+        <v>38</v>
+      </c>
+      <c r="T362">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20">
+      <c r="A363" t="s">
+        <v>462</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>465</v>
+      </c>
+      <c r="P363">
+        <v>1</v>
+      </c>
+      <c r="Q363">
+        <v>5</v>
+      </c>
+      <c r="R363">
+        <v>2</v>
+      </c>
+      <c r="S363" t="s">
+        <v>36</v>
+      </c>
+      <c r="T363">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20">
+      <c r="A364" t="s">
+        <v>463</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>465</v>
+      </c>
+      <c r="P364">
+        <v>1</v>
+      </c>
+      <c r="Q364">
+        <v>5</v>
+      </c>
+      <c r="R364">
+        <v>2</v>
+      </c>
+      <c r="S364" t="s">
+        <v>36</v>
+      </c>
+      <c r="T364">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20">
+      <c r="A365" t="s">
+        <v>464</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365" t="s">
+        <v>465</v>
+      </c>
+      <c r="P365">
+        <v>0</v>
+      </c>
+      <c r="Q365">
+        <v>2</v>
+      </c>
+      <c r="R365">
+        <v>3</v>
+      </c>
+      <c r="S365" t="s">
+        <v>36</v>
+      </c>
+      <c r="T365">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20">
+      <c r="A366" t="s">
+        <v>467</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366" t="s">
+        <v>482</v>
+      </c>
+      <c r="P366">
+        <v>0</v>
+      </c>
+      <c r="Q366">
+        <v>2</v>
+      </c>
+      <c r="R366">
+        <v>1</v>
+      </c>
+      <c r="S366" t="s">
+        <v>38</v>
+      </c>
+      <c r="T366">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20">
+      <c r="A367" t="s">
+        <v>468</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367" t="s">
+        <v>482</v>
+      </c>
+      <c r="P367">
+        <v>0</v>
+      </c>
+      <c r="Q367">
+        <v>1</v>
+      </c>
+      <c r="R367">
+        <v>1</v>
+      </c>
+      <c r="S367" t="s">
+        <v>36</v>
+      </c>
+      <c r="T367">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20">
+      <c r="A368" t="s">
+        <v>469</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368" t="s">
+        <v>482</v>
+      </c>
+      <c r="P368">
+        <v>0</v>
+      </c>
+      <c r="Q368">
+        <v>2</v>
+      </c>
+      <c r="R368">
+        <v>1</v>
+      </c>
+      <c r="S368" t="s">
+        <v>36</v>
+      </c>
+      <c r="T368">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20">
+      <c r="A369" t="s">
+        <v>470</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369" t="s">
+        <v>482</v>
+      </c>
+      <c r="P369">
+        <v>0</v>
+      </c>
+      <c r="Q369">
+        <v>2</v>
+      </c>
+      <c r="R369">
+        <v>7</v>
+      </c>
+      <c r="S369" t="s">
+        <v>36</v>
+      </c>
+      <c r="T369">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20">
+      <c r="A370" t="s">
+        <v>471</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370" t="s">
+        <v>482</v>
+      </c>
+      <c r="P370">
+        <v>1</v>
+      </c>
+      <c r="Q370">
+        <v>4</v>
+      </c>
+      <c r="R370">
+        <v>6</v>
+      </c>
+      <c r="S370" t="s">
+        <v>38</v>
+      </c>
+      <c r="T370">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20">
+      <c r="A371" t="s">
+        <v>472</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371" t="s">
+        <v>482</v>
+      </c>
+      <c r="P371">
+        <v>1</v>
+      </c>
+      <c r="Q371">
+        <v>4</v>
+      </c>
+      <c r="R371">
+        <v>6</v>
+      </c>
+      <c r="S371" t="s">
+        <v>38</v>
+      </c>
+      <c r="T371">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20">
+      <c r="A372" t="s">
+        <v>473</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372" t="s">
+        <v>482</v>
+      </c>
+      <c r="P372">
+        <v>1</v>
+      </c>
+      <c r="Q372">
+        <v>4</v>
+      </c>
+      <c r="R372">
+        <v>5</v>
+      </c>
+      <c r="S372" t="s">
+        <v>38</v>
+      </c>
+      <c r="T372">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20">
+      <c r="A373" t="s">
+        <v>474</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+      <c r="C373" t="s">
+        <v>482</v>
+      </c>
+      <c r="P373">
+        <v>1</v>
+      </c>
+      <c r="Q373">
+        <v>4</v>
+      </c>
+      <c r="R373">
+        <v>5</v>
+      </c>
+      <c r="S373" t="s">
+        <v>36</v>
+      </c>
+      <c r="T373">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20">
+      <c r="A374" t="s">
+        <v>475</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+      <c r="C374" t="s">
+        <v>482</v>
+      </c>
+      <c r="P374">
+        <v>0</v>
+      </c>
+      <c r="Q374">
+        <v>3</v>
+      </c>
+      <c r="R374">
+        <v>5</v>
+      </c>
+      <c r="S374" t="s">
+        <v>36</v>
+      </c>
+      <c r="T374">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20">
+      <c r="A375" t="s">
+        <v>476</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375" t="s">
+        <v>482</v>
+      </c>
+      <c r="P375">
+        <v>1</v>
+      </c>
+      <c r="Q375">
+        <v>4</v>
+      </c>
+      <c r="R375">
+        <v>5</v>
+      </c>
+      <c r="S375" t="s">
+        <v>36</v>
+      </c>
+      <c r="T375">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20">
+      <c r="A376" t="s">
+        <v>477</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376" t="s">
+        <v>482</v>
+      </c>
+      <c r="P376">
+        <v>0</v>
+      </c>
+      <c r="Q376">
+        <v>2</v>
+      </c>
+      <c r="R376">
+        <v>1</v>
+      </c>
+      <c r="S376" t="s">
+        <v>92</v>
+      </c>
+      <c r="T376">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20">
+      <c r="A377" t="s">
+        <v>478</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>482</v>
+      </c>
+      <c r="P377">
+        <v>0</v>
+      </c>
+      <c r="Q377">
+        <v>1</v>
+      </c>
+      <c r="R377">
+        <v>1</v>
+      </c>
+      <c r="S377" t="s">
+        <v>129</v>
+      </c>
+      <c r="T377">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20">
+      <c r="A378" t="s">
+        <v>479</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378" t="s">
+        <v>482</v>
+      </c>
+      <c r="P378">
+        <v>0</v>
+      </c>
+      <c r="Q378">
+        <v>3</v>
+      </c>
+      <c r="R378">
+        <v>7</v>
+      </c>
+      <c r="S378" t="s">
+        <v>36</v>
+      </c>
+      <c r="T378">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20">
+      <c r="A379" t="s">
+        <v>480</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379" t="s">
+        <v>482</v>
+      </c>
+      <c r="P379">
+        <v>0</v>
+      </c>
+      <c r="Q379">
+        <v>2</v>
+      </c>
+      <c r="R379">
+        <v>1</v>
+      </c>
+      <c r="S379" t="s">
+        <v>129</v>
+      </c>
+      <c r="T379">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20">
+      <c r="A380" t="s">
+        <v>481</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380" t="s">
+        <v>482</v>
+      </c>
+      <c r="P380">
+        <v>1</v>
+      </c>
+      <c r="Q380">
+        <v>4</v>
+      </c>
+      <c r="R380">
+        <v>6</v>
+      </c>
+      <c r="S380" t="s">
+        <v>38</v>
+      </c>
+      <c r="T380">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20">
+      <c r="A381" t="s">
+        <v>483</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381" t="s">
+        <v>498</v>
+      </c>
+      <c r="P381">
+        <v>1</v>
+      </c>
+      <c r="Q381">
+        <v>4</v>
+      </c>
+      <c r="R381">
+        <v>2</v>
+      </c>
+      <c r="S381" t="s">
+        <v>36</v>
+      </c>
+      <c r="T381">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20">
+      <c r="A382" t="s">
+        <v>484</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382" t="s">
+        <v>498</v>
+      </c>
+      <c r="P382">
+        <v>1</v>
+      </c>
+      <c r="Q382">
+        <v>4</v>
+      </c>
+      <c r="R382">
+        <v>2</v>
+      </c>
+      <c r="S382" t="s">
+        <v>317</v>
+      </c>
+      <c r="T382">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20">
+      <c r="A383" t="s">
+        <v>485</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383" t="s">
+        <v>498</v>
+      </c>
+      <c r="P383">
+        <v>1</v>
+      </c>
+      <c r="Q383">
+        <v>4</v>
+      </c>
+      <c r="R383">
+        <v>6</v>
+      </c>
+      <c r="S383" t="s">
+        <v>317</v>
+      </c>
+      <c r="T383">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20">
+      <c r="A384" t="s">
+        <v>486</v>
+      </c>
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384" t="s">
+        <v>498</v>
+      </c>
+      <c r="P384">
+        <v>1</v>
+      </c>
+      <c r="Q384">
+        <v>4</v>
+      </c>
+      <c r="R384">
+        <v>4</v>
+      </c>
+      <c r="S384" t="s">
+        <v>91</v>
+      </c>
+      <c r="T384">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20">
+      <c r="A385" t="s">
+        <v>487</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385" t="s">
+        <v>498</v>
+      </c>
+      <c r="P385">
+        <v>1</v>
+      </c>
+      <c r="Q385">
+        <v>4</v>
+      </c>
+      <c r="R385">
+        <v>3</v>
+      </c>
+      <c r="S385" t="s">
+        <v>91</v>
+      </c>
+      <c r="T385">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20">
+      <c r="A386" t="s">
+        <v>488</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+      <c r="C386" t="s">
+        <v>498</v>
+      </c>
+      <c r="P386">
+        <v>0</v>
+      </c>
+      <c r="Q386">
+        <v>3</v>
+      </c>
+      <c r="R386">
+        <v>2</v>
+      </c>
+      <c r="S386" t="s">
+        <v>499</v>
+      </c>
+      <c r="T386">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20">
+      <c r="A387" t="s">
+        <v>489</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387" t="s">
+        <v>498</v>
+      </c>
+      <c r="P387">
+        <v>0</v>
+      </c>
+      <c r="Q387">
+        <v>3</v>
+      </c>
+      <c r="R387">
+        <v>1</v>
+      </c>
+      <c r="S387" t="s">
+        <v>36</v>
+      </c>
+      <c r="T387">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20">
+      <c r="A388" t="s">
+        <v>490</v>
+      </c>
+      <c r="B388">
+        <v>2</v>
+      </c>
+      <c r="C388" t="s">
+        <v>498</v>
+      </c>
+      <c r="P388">
+        <v>0</v>
+      </c>
+      <c r="Q388">
+        <v>1</v>
+      </c>
+      <c r="R388">
+        <v>1</v>
+      </c>
+      <c r="S388" t="s">
+        <v>38</v>
+      </c>
+      <c r="T388">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20">
+      <c r="A389" t="s">
+        <v>491</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+      <c r="C389" t="s">
+        <v>498</v>
+      </c>
+      <c r="P389">
+        <v>0</v>
+      </c>
+      <c r="Q389">
+        <v>2</v>
+      </c>
+      <c r="R389">
+        <v>7</v>
+      </c>
+      <c r="S389" t="s">
+        <v>36</v>
+      </c>
+      <c r="T389">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20">
+      <c r="A390" t="s">
+        <v>492</v>
+      </c>
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390" t="s">
+        <v>498</v>
+      </c>
+      <c r="P390">
+        <v>1</v>
+      </c>
+      <c r="Q390">
+        <v>4</v>
+      </c>
+      <c r="R390">
+        <v>2</v>
+      </c>
+      <c r="S390" t="s">
+        <v>36</v>
+      </c>
+      <c r="T390">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20">
+      <c r="A391" t="s">
+        <v>493</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391" t="s">
+        <v>498</v>
+      </c>
+      <c r="P391">
+        <v>0</v>
+      </c>
+      <c r="Q391">
+        <v>1</v>
+      </c>
+      <c r="R391">
+        <v>2</v>
+      </c>
+      <c r="S391" t="s">
+        <v>36</v>
+      </c>
+      <c r="T391">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20">
+      <c r="A392" t="s">
+        <v>494</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392" t="s">
+        <v>498</v>
+      </c>
+      <c r="P392">
+        <v>0</v>
+      </c>
+      <c r="Q392">
+        <v>1</v>
+      </c>
+      <c r="R392">
+        <v>3</v>
+      </c>
+      <c r="S392" t="s">
+        <v>36</v>
+      </c>
+      <c r="T392">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20">
+      <c r="A393" t="s">
+        <v>495</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393" t="s">
+        <v>498</v>
+      </c>
+      <c r="P393">
+        <v>1</v>
+      </c>
+      <c r="Q393">
+        <v>5</v>
+      </c>
+      <c r="R393">
+        <v>6</v>
+      </c>
+      <c r="S393" t="s">
+        <v>36</v>
+      </c>
+      <c r="T393">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20">
+      <c r="A394" t="s">
+        <v>496</v>
+      </c>
+      <c r="B394">
+        <v>2</v>
+      </c>
+      <c r="C394" t="s">
+        <v>498</v>
+      </c>
+      <c r="P394">
+        <v>1</v>
+      </c>
+      <c r="Q394">
+        <v>4</v>
+      </c>
+      <c r="R394">
+        <v>4</v>
+      </c>
+      <c r="S394" t="s">
+        <v>36</v>
+      </c>
+      <c r="T394">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20">
+      <c r="A395" t="s">
+        <v>497</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+      <c r="C395" t="s">
+        <v>498</v>
+      </c>
+      <c r="P395">
+        <v>0</v>
+      </c>
+      <c r="Q395">
+        <v>3</v>
+      </c>
+      <c r="R395">
+        <v>2</v>
+      </c>
+      <c r="S395" t="s">
+        <v>92</v>
+      </c>
+      <c r="T395">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20">
+      <c r="A396" t="s">
+        <v>500</v>
+      </c>
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="C396" t="s">
+        <v>515</v>
+      </c>
+      <c r="P396">
+        <v>1</v>
+      </c>
+      <c r="Q396">
+        <v>4</v>
+      </c>
+      <c r="R396">
+        <v>6</v>
+      </c>
+      <c r="S396" t="s">
+        <v>36</v>
+      </c>
+      <c r="T396">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20">
+      <c r="A397" t="s">
+        <v>501</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>515</v>
+      </c>
+      <c r="P397">
+        <v>0</v>
+      </c>
+      <c r="Q397">
+        <v>2</v>
+      </c>
+      <c r="R397">
+        <v>5</v>
+      </c>
+      <c r="S397" t="s">
+        <v>36</v>
+      </c>
+      <c r="T397">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20">
+      <c r="A398" t="s">
+        <v>502</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398" t="s">
+        <v>515</v>
+      </c>
+      <c r="P398">
+        <v>0</v>
+      </c>
+      <c r="Q398">
+        <v>2</v>
+      </c>
+      <c r="R398">
+        <v>7</v>
+      </c>
+      <c r="S398" t="s">
+        <v>36</v>
+      </c>
+      <c r="T398">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20">
+      <c r="A399" t="s">
+        <v>503</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399" t="s">
+        <v>515</v>
+      </c>
+      <c r="P399">
+        <v>0</v>
+      </c>
+      <c r="Q399">
+        <v>1</v>
+      </c>
+      <c r="R399">
+        <v>7</v>
+      </c>
+      <c r="S399" t="s">
+        <v>36</v>
+      </c>
+      <c r="T399">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20">
+      <c r="A400" t="s">
+        <v>504</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400" t="s">
+        <v>515</v>
+      </c>
+      <c r="P400">
+        <v>0</v>
+      </c>
+      <c r="Q400">
+        <v>2</v>
+      </c>
+      <c r="R400">
+        <v>2</v>
+      </c>
+      <c r="S400" t="s">
+        <v>36</v>
+      </c>
+      <c r="T400">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20">
+      <c r="A401" t="s">
+        <v>505</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401" t="s">
+        <v>515</v>
+      </c>
+      <c r="P401">
+        <v>0</v>
+      </c>
+      <c r="Q401">
+        <v>2</v>
+      </c>
+      <c r="R401" t="s">
+        <v>89</v>
+      </c>
+      <c r="S401" t="s">
+        <v>36</v>
+      </c>
+      <c r="T401">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20">
+      <c r="A402" t="s">
+        <v>506</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402" t="s">
+        <v>515</v>
+      </c>
+      <c r="P402">
+        <v>0</v>
+      </c>
+      <c r="Q402">
+        <v>1</v>
+      </c>
+      <c r="R402">
+        <v>1</v>
+      </c>
+      <c r="S402" t="s">
+        <v>36</v>
+      </c>
+      <c r="T402">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20">
+      <c r="A403" t="s">
+        <v>507</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403" t="s">
+        <v>515</v>
+      </c>
+      <c r="P403">
+        <v>0</v>
+      </c>
+      <c r="Q403">
+        <v>2</v>
+      </c>
+      <c r="R403">
+        <v>1</v>
+      </c>
+      <c r="S403" t="s">
+        <v>36</v>
+      </c>
+      <c r="T403">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20">
+      <c r="A404" t="s">
+        <v>508</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404" t="s">
+        <v>515</v>
+      </c>
+      <c r="P404">
+        <v>0</v>
+      </c>
+      <c r="Q404">
+        <v>1</v>
+      </c>
+      <c r="R404">
+        <v>1</v>
+      </c>
+      <c r="S404" t="s">
+        <v>36</v>
+      </c>
+      <c r="T404">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20">
+      <c r="A405" t="s">
+        <v>509</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405" t="s">
+        <v>515</v>
+      </c>
+      <c r="P405">
+        <v>0</v>
+      </c>
+      <c r="Q405">
+        <v>3</v>
+      </c>
+      <c r="R405" t="s">
+        <v>89</v>
+      </c>
+      <c r="S405" t="s">
+        <v>36</v>
+      </c>
+      <c r="T405">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20">
+      <c r="A406" t="s">
+        <v>510</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406" t="s">
+        <v>515</v>
+      </c>
+      <c r="P406">
+        <v>0</v>
+      </c>
+      <c r="Q406">
+        <v>2</v>
+      </c>
+      <c r="R406">
+        <v>2</v>
+      </c>
+      <c r="S406" t="s">
+        <v>36</v>
+      </c>
+      <c r="T406">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20">
+      <c r="A407" t="s">
+        <v>511</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407" t="s">
+        <v>515</v>
+      </c>
+      <c r="P407">
+        <v>0</v>
+      </c>
+      <c r="Q407">
+        <v>3</v>
+      </c>
+      <c r="R407">
+        <v>7</v>
+      </c>
+      <c r="S407" t="s">
+        <v>516</v>
+      </c>
+      <c r="T407">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20">
+      <c r="A408" t="s">
+        <v>512</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408" t="s">
+        <v>515</v>
+      </c>
+      <c r="P408">
+        <v>1</v>
+      </c>
+      <c r="Q408">
+        <v>4</v>
+      </c>
+      <c r="R408" t="s">
+        <v>89</v>
+      </c>
+      <c r="S408" t="s">
+        <v>36</v>
+      </c>
+      <c r="T408">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20">
+      <c r="A409" t="s">
+        <v>513</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409" t="s">
+        <v>515</v>
+      </c>
+      <c r="P409">
+        <v>1</v>
+      </c>
+      <c r="Q409">
+        <v>4</v>
+      </c>
+      <c r="R409" t="s">
+        <v>89</v>
+      </c>
+      <c r="S409" t="s">
+        <v>92</v>
+      </c>
+      <c r="T409">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20">
+      <c r="A410" t="s">
+        <v>514</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410" t="s">
+        <v>515</v>
+      </c>
+      <c r="P410">
+        <v>1</v>
+      </c>
+      <c r="Q410">
+        <v>5</v>
+      </c>
+      <c r="R410" t="s">
+        <v>89</v>
+      </c>
+      <c r="S410" t="s">
+        <v>36</v>
+      </c>
+      <c r="T410">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84072642-1229-45A8-8779-ED3DD48000B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26390699-987F-4CB5-AD13-2E5A5C51F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14370" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="567">
   <si>
     <t>PictureCode</t>
   </si>
@@ -1608,6 +1608,156 @@
   </si>
   <si>
     <t>513x480</t>
+  </si>
+  <si>
+    <t>Seborrhoeic Keratosis</t>
+  </si>
+  <si>
+    <t>Malignant Melanoma</t>
+  </si>
+  <si>
+    <t> Nevus</t>
+  </si>
+  <si>
+    <t>Angioma (Cherry angioma)</t>
+  </si>
+  <si>
+    <t>Epidermal / Benign Cyst</t>
+  </si>
+  <si>
+    <t>Neurodermatitis (Lichen Simplex Chronicus)</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Dermatitis, UNS</t>
+  </si>
+  <si>
+    <t>Contact Dermatitis</t>
+  </si>
+  <si>
+    <t>Lichen Ruber Planus</t>
+  </si>
+  <si>
+    <t>Pityriasis Rosea</t>
+  </si>
+  <si>
+    <t>Tinea Corporis (Ringworm)</t>
+  </si>
+  <si>
+    <t>Herpes Simplex</t>
+  </si>
+  <si>
+    <t>Herpes Zoster</t>
+  </si>
+  <si>
+    <t>Syphilis</t>
+  </si>
+  <si>
+    <t>Sebaceous Glands (Fordyce Spots)</t>
+  </si>
+  <si>
+    <t>Genital Herpes</t>
+  </si>
+  <si>
+    <t>Genital Warts (Condyloma)</t>
+  </si>
+  <si>
+    <t>Perioral Dermatitis</t>
+  </si>
+  <si>
+    <t>Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>Insect Bite</t>
+  </si>
+  <si>
+    <t> Perioral Dermatitis</t>
+  </si>
+  <si>
+    <t>Vitiligo</t>
+  </si>
+  <si>
+    <t> Actinic Keratosis</t>
+  </si>
+  <si>
+    <t>Basal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Pearly Penile Papules</t>
+  </si>
+  <si>
+    <t>Rosacea</t>
+  </si>
+  <si>
+    <t>Verruca Vulgaris / Wart(s)</t>
+  </si>
+  <si>
+    <t>Postinflammatory Hyperpigmentation</t>
+  </si>
+  <si>
+    <t> Squamous Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Pityriasis Versicolor</t>
+  </si>
+  <si>
+    <t> Dermatitis, UNS</t>
+  </si>
+  <si>
+    <t> Psoriasis</t>
+  </si>
+  <si>
+    <t>Balanitis</t>
+  </si>
+  <si>
+    <t> Genital Herpes</t>
+  </si>
+  <si>
+    <t> Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t> Pityriasis Rosea</t>
+  </si>
+  <si>
+    <t>Borrelia</t>
+  </si>
+  <si>
+    <t> Insect Bite</t>
+  </si>
+  <si>
+    <t>Acne Vulgaris (Acne)</t>
+  </si>
+  <si>
+    <t> Impetigo</t>
+  </si>
+  <si>
+    <t> Neurodermatitis (Lichen Simplex Chronicus)</t>
+  </si>
+  <si>
+    <t> Pityriasis Versicolor</t>
+  </si>
+  <si>
+    <t> Herpes Simplex</t>
+  </si>
+  <si>
+    <t> Basal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t> Lichen Ruber Planus</t>
+  </si>
+  <si>
+    <t> Verruca Vulgaris / Wart(s)</t>
+  </si>
+  <si>
+    <t>Lentigo</t>
+  </si>
+  <si>
+    <t>Furuncle (Deep Folliculitis)</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1843,8 @@
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>444</xdr:row>
       <xdr:rowOff>154036</xdr:rowOff>
     </xdr:to>
@@ -1743,8 +1893,8 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>459</xdr:row>
       <xdr:rowOff>35109</xdr:rowOff>
     </xdr:to>
@@ -2082,8 +2232,8 @@
   <dimension ref="A1:T410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P411" sqref="P411"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2091,13 +2241,18 @@
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="12" width="12.125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
     <col min="14" max="14" width="14.625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="6.75" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="10.125" customWidth="1"/>
-    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="10.625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.375" hidden="1" customWidth="1"/>
+    <col min="21" max="25" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="126">
@@ -2172,6 +2327,21 @@
       <c r="C2" t="s">
         <v>35</v>
       </c>
+      <c r="D2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H2" t="s">
+        <v>526</v>
+      </c>
       <c r="P2">
         <v>0</v>
       </c>
@@ -2198,6 +2368,21 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
+      <c r="D3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H3" t="s">
+        <v>526</v>
+      </c>
       <c r="P3">
         <v>0</v>
       </c>
@@ -2224,6 +2409,21 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H4" t="s">
+        <v>527</v>
+      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -2250,6 +2450,21 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H5" t="s">
+        <v>527</v>
+      </c>
       <c r="P5">
         <v>1</v>
       </c>
@@ -2276,6 +2491,21 @@
       <c r="C6" t="s">
         <v>35</v>
       </c>
+      <c r="D6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F6" t="s">
+        <v>525</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>526</v>
+      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -2302,6 +2532,21 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
+      <c r="D7" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>526</v>
+      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -2328,6 +2573,21 @@
       <c r="C8" t="s">
         <v>35</v>
       </c>
+      <c r="D8" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" t="s">
+        <v>518</v>
+      </c>
+      <c r="F8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G8" t="s">
+        <v>520</v>
+      </c>
+      <c r="H8" t="s">
+        <v>521</v>
+      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -2354,6 +2614,21 @@
       <c r="C9" t="s">
         <v>35</v>
       </c>
+      <c r="D9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" t="s">
+        <v>520</v>
+      </c>
+      <c r="H9" t="s">
+        <v>521</v>
+      </c>
       <c r="P9">
         <v>0</v>
       </c>
@@ -2380,6 +2655,21 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
+      <c r="D10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" t="s">
+        <v>522</v>
+      </c>
+      <c r="F10" t="s">
+        <v>528</v>
+      </c>
+      <c r="G10" t="s">
+        <v>529</v>
+      </c>
+      <c r="H10" t="s">
+        <v>530</v>
+      </c>
       <c r="P10">
         <v>1</v>
       </c>
@@ -2432,6 +2722,21 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
+      <c r="D12" t="s">
+        <v>523</v>
+      </c>
+      <c r="E12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F12" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12" t="s">
+        <v>524</v>
+      </c>
+      <c r="H12" t="s">
+        <v>526</v>
+      </c>
       <c r="P12">
         <v>1</v>
       </c>
@@ -2484,6 +2789,21 @@
       <c r="C14" t="s">
         <v>35</v>
       </c>
+      <c r="D14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" t="s">
+        <v>532</v>
+      </c>
+      <c r="F14" t="s">
+        <v>533</v>
+      </c>
+      <c r="G14" t="s">
+        <v>534</v>
+      </c>
+      <c r="H14" t="s">
+        <v>521</v>
+      </c>
       <c r="P14">
         <v>1</v>
       </c>
@@ -2536,6 +2856,21 @@
       <c r="C16" t="s">
         <v>35</v>
       </c>
+      <c r="D16" t="s">
+        <v>535</v>
+      </c>
+      <c r="E16" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" t="s">
+        <v>482</v>
+      </c>
+      <c r="G16" t="s">
+        <v>532</v>
+      </c>
+      <c r="H16" t="s">
+        <v>523</v>
+      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -2562,6 +2897,21 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
+      <c r="D17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" t="s">
+        <v>524</v>
+      </c>
+      <c r="F17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" t="s">
+        <v>536</v>
+      </c>
+      <c r="H17" t="s">
+        <v>537</v>
+      </c>
       <c r="P17">
         <v>1</v>
       </c>
@@ -2614,6 +2964,21 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" t="s">
+        <v>532</v>
+      </c>
+      <c r="F19" t="s">
+        <v>529</v>
+      </c>
+      <c r="G19" t="s">
+        <v>538</v>
+      </c>
+      <c r="H19" t="s">
+        <v>539</v>
+      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -2666,6 +3031,21 @@
       <c r="C21" t="s">
         <v>56</v>
       </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
+        <v>540</v>
+      </c>
+      <c r="F21" t="s">
+        <v>529</v>
+      </c>
+      <c r="G21" t="s">
+        <v>532</v>
+      </c>
+      <c r="H21" t="s">
+        <v>541</v>
+      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -2718,6 +3098,21 @@
       <c r="C23" t="s">
         <v>56</v>
       </c>
+      <c r="D23" t="s">
+        <v>482</v>
+      </c>
+      <c r="E23" t="s">
+        <v>542</v>
+      </c>
+      <c r="F23" t="s">
+        <v>541</v>
+      </c>
+      <c r="G23" t="s">
+        <v>532</v>
+      </c>
+      <c r="H23" t="s">
+        <v>543</v>
+      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -2770,6 +3165,21 @@
       <c r="C25" t="s">
         <v>56</v>
       </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
+        <v>544</v>
+      </c>
+      <c r="F25" t="s">
+        <v>535</v>
+      </c>
+      <c r="G25" t="s">
+        <v>529</v>
+      </c>
+      <c r="H25" t="s">
+        <v>482</v>
+      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -2822,6 +3232,21 @@
       <c r="C27" t="s">
         <v>56</v>
       </c>
+      <c r="D27" t="s">
+        <v>545</v>
+      </c>
+      <c r="E27" t="s">
+        <v>525</v>
+      </c>
+      <c r="F27" t="s">
+        <v>524</v>
+      </c>
+      <c r="G27" t="s">
+        <v>539</v>
+      </c>
+      <c r="H27" t="s">
+        <v>546</v>
+      </c>
       <c r="P27">
         <v>0</v>
       </c>
@@ -2874,6 +3299,21 @@
       <c r="C29" t="s">
         <v>56</v>
       </c>
+      <c r="D29" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" t="s">
+        <v>547</v>
+      </c>
+      <c r="G29" t="s">
+        <v>541</v>
+      </c>
+      <c r="H29" t="s">
+        <v>532</v>
+      </c>
       <c r="P29">
         <v>0</v>
       </c>
@@ -2926,6 +3366,21 @@
       <c r="C31" t="s">
         <v>56</v>
       </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>544</v>
+      </c>
+      <c r="F31" t="s">
+        <v>535</v>
+      </c>
+      <c r="G31" t="s">
+        <v>536</v>
+      </c>
+      <c r="H31" t="s">
+        <v>525</v>
+      </c>
       <c r="P31">
         <v>0</v>
       </c>
@@ -2952,6 +3407,21 @@
       <c r="C32" t="s">
         <v>72</v>
       </c>
+      <c r="D32" t="s">
+        <v>548</v>
+      </c>
+      <c r="E32" t="s">
+        <v>539</v>
+      </c>
+      <c r="F32" t="s">
+        <v>527</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" t="s">
+        <v>528</v>
+      </c>
       <c r="P32">
         <v>0</v>
       </c>
@@ -3004,6 +3474,21 @@
       <c r="C34" t="s">
         <v>72</v>
       </c>
+      <c r="D34" t="s">
+        <v>530</v>
+      </c>
+      <c r="E34" t="s">
+        <v>522</v>
+      </c>
+      <c r="F34" t="s">
+        <v>524</v>
+      </c>
+      <c r="G34" t="s">
+        <v>536</v>
+      </c>
+      <c r="H34" t="s">
+        <v>165</v>
+      </c>
       <c r="P34">
         <v>0</v>
       </c>
@@ -3056,6 +3541,21 @@
       <c r="C36" t="s">
         <v>72</v>
       </c>
+      <c r="D36" t="s">
+        <v>522</v>
+      </c>
+      <c r="E36" t="s">
+        <v>549</v>
+      </c>
+      <c r="F36" t="s">
+        <v>536</v>
+      </c>
+      <c r="G36" t="s">
+        <v>525</v>
+      </c>
+      <c r="H36" t="s">
+        <v>526</v>
+      </c>
       <c r="P36">
         <v>1</v>
       </c>
@@ -3108,6 +3608,21 @@
       <c r="C38" t="s">
         <v>72</v>
       </c>
+      <c r="D38" t="s">
+        <v>544</v>
+      </c>
+      <c r="E38" t="s">
+        <v>535</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" t="s">
+        <v>536</v>
+      </c>
+      <c r="H38" t="s">
+        <v>540</v>
+      </c>
       <c r="P38">
         <v>0</v>
       </c>
@@ -3160,6 +3675,21 @@
       <c r="C40" t="s">
         <v>72</v>
       </c>
+      <c r="D40" t="s">
+        <v>525</v>
+      </c>
+      <c r="E40" t="s">
+        <v>535</v>
+      </c>
+      <c r="F40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" t="s">
+        <v>524</v>
+      </c>
+      <c r="H40" t="s">
+        <v>522</v>
+      </c>
       <c r="P40">
         <v>1</v>
       </c>
@@ -3212,6 +3742,21 @@
       <c r="C42" t="s">
         <v>72</v>
       </c>
+      <c r="D42" t="s">
+        <v>522</v>
+      </c>
+      <c r="E42" t="s">
+        <v>546</v>
+      </c>
+      <c r="F42" t="s">
+        <v>526</v>
+      </c>
+      <c r="G42" t="s">
+        <v>550</v>
+      </c>
+      <c r="H42" t="s">
+        <v>524</v>
+      </c>
       <c r="P42">
         <v>1</v>
       </c>
@@ -3264,6 +3809,21 @@
       <c r="C44" t="s">
         <v>72</v>
       </c>
+      <c r="D44" t="s">
+        <v>551</v>
+      </c>
+      <c r="E44" t="s">
+        <v>526</v>
+      </c>
+      <c r="F44" t="s">
+        <v>552</v>
+      </c>
+      <c r="G44" t="s">
+        <v>531</v>
+      </c>
+      <c r="H44" t="s">
+        <v>534</v>
+      </c>
       <c r="P44">
         <v>0</v>
       </c>
@@ -3316,6 +3876,21 @@
       <c r="C46" t="s">
         <v>72</v>
       </c>
+      <c r="D46" t="s">
+        <v>523</v>
+      </c>
+      <c r="E46" t="s">
+        <v>530</v>
+      </c>
+      <c r="F46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
+        <v>522</v>
+      </c>
+      <c r="H46" t="s">
+        <v>525</v>
+      </c>
       <c r="P46">
         <v>1</v>
       </c>
@@ -3342,6 +3917,21 @@
       <c r="C47" t="s">
         <v>88</v>
       </c>
+      <c r="D47" t="s">
+        <v>546</v>
+      </c>
+      <c r="E47" t="s">
+        <v>525</v>
+      </c>
+      <c r="F47" t="s">
+        <v>524</v>
+      </c>
+      <c r="G47" t="s">
+        <v>545</v>
+      </c>
+      <c r="H47" t="s">
+        <v>536</v>
+      </c>
       <c r="P47">
         <v>1</v>
       </c>
@@ -3394,6 +3984,21 @@
       <c r="C49" t="s">
         <v>88</v>
       </c>
+      <c r="D49" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" t="s">
+        <v>525</v>
+      </c>
+      <c r="F49" t="s">
+        <v>524</v>
+      </c>
+      <c r="G49" t="s">
+        <v>532</v>
+      </c>
+      <c r="H49" t="s">
+        <v>517</v>
+      </c>
       <c r="P49">
         <v>1</v>
       </c>
@@ -3446,6 +4051,21 @@
       <c r="C51" t="s">
         <v>88</v>
       </c>
+      <c r="D51" t="s">
+        <v>535</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" t="s">
+        <v>544</v>
+      </c>
+      <c r="H51" t="s">
+        <v>529</v>
+      </c>
       <c r="P51">
         <v>0</v>
       </c>
@@ -3498,6 +4118,21 @@
       <c r="C53" t="s">
         <v>88</v>
       </c>
+      <c r="D53" t="s">
+        <v>548</v>
+      </c>
+      <c r="E53" t="s">
+        <v>528</v>
+      </c>
+      <c r="F53" t="s">
+        <v>530</v>
+      </c>
+      <c r="G53" t="s">
+        <v>527</v>
+      </c>
+      <c r="H53" t="s">
+        <v>523</v>
+      </c>
       <c r="P53">
         <v>0</v>
       </c>
@@ -3550,6 +4185,21 @@
       <c r="C55" t="s">
         <v>88</v>
       </c>
+      <c r="D55" t="s">
+        <v>528</v>
+      </c>
+      <c r="E55" t="s">
+        <v>525</v>
+      </c>
+      <c r="F55" t="s">
+        <v>530</v>
+      </c>
+      <c r="G55" t="s">
+        <v>524</v>
+      </c>
+      <c r="H55" t="s">
+        <v>548</v>
+      </c>
       <c r="P55">
         <v>0</v>
       </c>
@@ -3602,6 +4252,21 @@
       <c r="C57" t="s">
         <v>88</v>
       </c>
+      <c r="D57" t="s">
+        <v>525</v>
+      </c>
+      <c r="E57" t="s">
+        <v>524</v>
+      </c>
+      <c r="F57" t="s">
+        <v>545</v>
+      </c>
+      <c r="G57" t="s">
+        <v>536</v>
+      </c>
+      <c r="H57" t="s">
+        <v>523</v>
+      </c>
       <c r="P57">
         <v>0</v>
       </c>
@@ -3654,6 +4319,21 @@
       <c r="C59" t="s">
         <v>88</v>
       </c>
+      <c r="D59" t="s">
+        <v>525</v>
+      </c>
+      <c r="E59" t="s">
+        <v>524</v>
+      </c>
+      <c r="F59" t="s">
+        <v>536</v>
+      </c>
+      <c r="G59" t="s">
+        <v>523</v>
+      </c>
+      <c r="H59" t="s">
+        <v>529</v>
+      </c>
       <c r="P59">
         <v>0</v>
       </c>
@@ -3706,6 +4386,21 @@
       <c r="C61" t="s">
         <v>88</v>
       </c>
+      <c r="D61" t="s">
+        <v>523</v>
+      </c>
+      <c r="E61" t="s">
+        <v>525</v>
+      </c>
+      <c r="F61" t="s">
+        <v>524</v>
+      </c>
+      <c r="G61" t="s">
+        <v>526</v>
+      </c>
+      <c r="H61" t="s">
+        <v>533</v>
+      </c>
       <c r="P61">
         <v>0</v>
       </c>
@@ -3732,6 +4427,21 @@
       <c r="C62" t="s">
         <v>108</v>
       </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" t="s">
+        <v>548</v>
+      </c>
+      <c r="F62" t="s">
+        <v>523</v>
+      </c>
+      <c r="G62" t="s">
+        <v>553</v>
+      </c>
+      <c r="H62" t="s">
+        <v>539</v>
+      </c>
       <c r="P62">
         <v>0</v>
       </c>
@@ -3784,6 +4494,21 @@
       <c r="C64" t="s">
         <v>108</v>
       </c>
+      <c r="D64" t="s">
+        <v>548</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" t="s">
+        <v>554</v>
+      </c>
+      <c r="G64" t="s">
+        <v>528</v>
+      </c>
+      <c r="H64" t="s">
+        <v>536</v>
+      </c>
       <c r="P64">
         <v>0</v>
       </c>
@@ -3836,6 +4561,21 @@
       <c r="C66" t="s">
         <v>108</v>
       </c>
+      <c r="D66" t="s">
+        <v>523</v>
+      </c>
+      <c r="E66" t="s">
+        <v>525</v>
+      </c>
+      <c r="F66" t="s">
+        <v>536</v>
+      </c>
+      <c r="G66" t="s">
+        <v>528</v>
+      </c>
+      <c r="H66" t="s">
+        <v>524</v>
+      </c>
       <c r="P66">
         <v>0</v>
       </c>
@@ -3888,6 +4628,21 @@
       <c r="C68" t="s">
         <v>108</v>
       </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>527</v>
+      </c>
+      <c r="F68" t="s">
+        <v>550</v>
+      </c>
+      <c r="G68" t="s">
+        <v>528</v>
+      </c>
+      <c r="H68" t="s">
+        <v>537</v>
+      </c>
       <c r="P68">
         <v>1</v>
       </c>
@@ -3940,6 +4695,21 @@
       <c r="C70" t="s">
         <v>108</v>
       </c>
+      <c r="D70" t="s">
+        <v>548</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" t="s">
+        <v>523</v>
+      </c>
+      <c r="G70" t="s">
+        <v>527</v>
+      </c>
+      <c r="H70" t="s">
+        <v>528</v>
+      </c>
       <c r="P70">
         <v>0</v>
       </c>
@@ -3992,6 +4762,21 @@
       <c r="C72" t="s">
         <v>108</v>
       </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>548</v>
+      </c>
+      <c r="F72" t="s">
+        <v>523</v>
+      </c>
+      <c r="G72" t="s">
+        <v>525</v>
+      </c>
+      <c r="H72" t="s">
+        <v>524</v>
+      </c>
       <c r="P72">
         <v>0</v>
       </c>
@@ -4044,6 +4829,21 @@
       <c r="C74" t="s">
         <v>108</v>
       </c>
+      <c r="D74" t="s">
+        <v>555</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" t="s">
+        <v>528</v>
+      </c>
+      <c r="G74" t="s">
+        <v>527</v>
+      </c>
+      <c r="H74" t="s">
+        <v>556</v>
+      </c>
       <c r="P74">
         <v>0</v>
       </c>
@@ -4096,6 +4896,21 @@
       <c r="C76" t="s">
         <v>108</v>
       </c>
+      <c r="D76" t="s">
+        <v>548</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" t="s">
+        <v>527</v>
+      </c>
+      <c r="G76" t="s">
+        <v>528</v>
+      </c>
+      <c r="H76" t="s">
+        <v>550</v>
+      </c>
       <c r="P76">
         <v>1</v>
       </c>
@@ -4122,6 +4937,21 @@
       <c r="C77" t="s">
         <v>125</v>
       </c>
+      <c r="D77" t="s">
+        <v>526</v>
+      </c>
+      <c r="E77" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" t="s">
+        <v>546</v>
+      </c>
+      <c r="G77" t="s">
+        <v>522</v>
+      </c>
+      <c r="H77" t="s">
+        <v>523</v>
+      </c>
       <c r="P77">
         <v>1</v>
       </c>
@@ -4174,6 +5004,21 @@
       <c r="C79" t="s">
         <v>125</v>
       </c>
+      <c r="D79" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" t="s">
+        <v>554</v>
+      </c>
+      <c r="F79" t="s">
+        <v>524</v>
+      </c>
+      <c r="G79" t="s">
+        <v>536</v>
+      </c>
+      <c r="H79" t="s">
+        <v>108</v>
+      </c>
       <c r="P79">
         <v>0</v>
       </c>
@@ -4226,6 +5071,21 @@
       <c r="C81" t="s">
         <v>125</v>
       </c>
+      <c r="D81" t="s">
+        <v>535</v>
+      </c>
+      <c r="E81" t="s">
+        <v>557</v>
+      </c>
+      <c r="F81" t="s">
+        <v>529</v>
+      </c>
+      <c r="G81" t="s">
+        <v>558</v>
+      </c>
+      <c r="H81" t="s">
+        <v>546</v>
+      </c>
       <c r="P81">
         <v>1</v>
       </c>
@@ -4278,6 +5138,21 @@
       <c r="C83" t="s">
         <v>125</v>
       </c>
+      <c r="D83" t="s">
+        <v>557</v>
+      </c>
+      <c r="E83" t="s">
+        <v>530</v>
+      </c>
+      <c r="F83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" t="s">
+        <v>393</v>
+      </c>
+      <c r="H83" t="s">
+        <v>559</v>
+      </c>
       <c r="P83">
         <v>1</v>
       </c>
@@ -4330,6 +5205,21 @@
       <c r="C85" t="s">
         <v>125</v>
       </c>
+      <c r="D85" t="s">
+        <v>523</v>
+      </c>
+      <c r="E85" t="s">
+        <v>554</v>
+      </c>
+      <c r="F85" t="s">
+        <v>526</v>
+      </c>
+      <c r="G85" t="s">
+        <v>560</v>
+      </c>
+      <c r="H85" t="s">
+        <v>393</v>
+      </c>
       <c r="P85">
         <v>0</v>
       </c>
@@ -4382,6 +5272,21 @@
       <c r="C87" t="s">
         <v>125</v>
       </c>
+      <c r="D87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
+        <v>529</v>
+      </c>
+      <c r="F87" t="s">
+        <v>535</v>
+      </c>
+      <c r="G87" t="s">
+        <v>557</v>
+      </c>
+      <c r="H87" t="s">
+        <v>525</v>
+      </c>
       <c r="P87">
         <v>0</v>
       </c>
@@ -4434,6 +5339,21 @@
       <c r="C89" t="s">
         <v>125</v>
       </c>
+      <c r="D89" t="s">
+        <v>482</v>
+      </c>
+      <c r="E89" t="s">
+        <v>533</v>
+      </c>
+      <c r="F89" t="s">
+        <v>526</v>
+      </c>
+      <c r="G89" t="s">
+        <v>523</v>
+      </c>
+      <c r="H89" t="s">
+        <v>542</v>
+      </c>
       <c r="P89">
         <v>1</v>
       </c>
@@ -4486,6 +5406,21 @@
       <c r="C91" t="s">
         <v>125</v>
       </c>
+      <c r="D91" t="s">
+        <v>557</v>
+      </c>
+      <c r="E91" t="s">
+        <v>393</v>
+      </c>
+      <c r="F91" t="s">
+        <v>527</v>
+      </c>
+      <c r="G91" t="s">
+        <v>544</v>
+      </c>
+      <c r="H91" t="s">
+        <v>524</v>
+      </c>
       <c r="P91">
         <v>1</v>
       </c>
@@ -4512,6 +5447,21 @@
       <c r="C92" t="s">
         <v>131</v>
       </c>
+      <c r="D92" t="s">
+        <v>525</v>
+      </c>
+      <c r="E92" t="s">
+        <v>532</v>
+      </c>
+      <c r="F92" t="s">
+        <v>524</v>
+      </c>
+      <c r="G92" t="s">
+        <v>550</v>
+      </c>
+      <c r="H92" t="s">
+        <v>543</v>
+      </c>
       <c r="P92">
         <v>0</v>
       </c>
@@ -4564,6 +5514,21 @@
       <c r="C94" t="s">
         <v>131</v>
       </c>
+      <c r="D94" t="s">
+        <v>545</v>
+      </c>
+      <c r="E94" t="s">
+        <v>525</v>
+      </c>
+      <c r="F94" t="s">
+        <v>561</v>
+      </c>
+      <c r="G94" t="s">
+        <v>524</v>
+      </c>
+      <c r="H94" t="s">
+        <v>539</v>
+      </c>
       <c r="P94">
         <v>1</v>
       </c>
@@ -4616,6 +5581,21 @@
       <c r="C96" t="s">
         <v>131</v>
       </c>
+      <c r="D96" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" t="s">
+        <v>545</v>
+      </c>
+      <c r="F96" t="s">
+        <v>523</v>
+      </c>
+      <c r="G96" t="s">
+        <v>168</v>
+      </c>
+      <c r="H96" t="s">
+        <v>529</v>
+      </c>
       <c r="P96">
         <v>0</v>
       </c>
@@ -4668,6 +5648,21 @@
       <c r="C98" t="s">
         <v>131</v>
       </c>
+      <c r="D98" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" t="s">
+        <v>523</v>
+      </c>
+      <c r="F98" t="s">
+        <v>545</v>
+      </c>
+      <c r="G98" t="s">
+        <v>529</v>
+      </c>
+      <c r="H98" t="s">
+        <v>537</v>
+      </c>
       <c r="P98">
         <v>0</v>
       </c>
@@ -4720,6 +5715,21 @@
       <c r="C100" t="s">
         <v>131</v>
       </c>
+      <c r="D100" t="s">
+        <v>551</v>
+      </c>
+      <c r="E100" t="s">
+        <v>543</v>
+      </c>
+      <c r="F100" t="s">
+        <v>532</v>
+      </c>
+      <c r="G100" t="s">
+        <v>526</v>
+      </c>
+      <c r="H100" t="s">
+        <v>534</v>
+      </c>
       <c r="P100">
         <v>1</v>
       </c>
@@ -4772,6 +5782,21 @@
       <c r="C102" t="s">
         <v>131</v>
       </c>
+      <c r="D102" t="s">
+        <v>525</v>
+      </c>
+      <c r="E102" t="s">
+        <v>545</v>
+      </c>
+      <c r="F102" t="s">
+        <v>524</v>
+      </c>
+      <c r="G102" t="s">
+        <v>523</v>
+      </c>
+      <c r="H102" t="s">
+        <v>536</v>
+      </c>
       <c r="P102">
         <v>0</v>
       </c>
@@ -4824,6 +5849,21 @@
       <c r="C104" t="s">
         <v>131</v>
       </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" t="s">
+        <v>545</v>
+      </c>
+      <c r="F104" t="s">
+        <v>536</v>
+      </c>
+      <c r="G104" t="s">
+        <v>524</v>
+      </c>
+      <c r="H104" t="s">
+        <v>525</v>
+      </c>
       <c r="P104">
         <v>0</v>
       </c>
@@ -4876,6 +5916,21 @@
       <c r="C106" t="s">
         <v>131</v>
       </c>
+      <c r="D106" t="s">
+        <v>520</v>
+      </c>
+      <c r="E106" t="s">
+        <v>525</v>
+      </c>
+      <c r="F106" t="s">
+        <v>524</v>
+      </c>
+      <c r="G106" t="s">
+        <v>534</v>
+      </c>
+      <c r="H106" t="s">
+        <v>553</v>
+      </c>
       <c r="P106">
         <v>1</v>
       </c>
@@ -4902,6 +5957,21 @@
       <c r="C107" t="s">
         <v>165</v>
       </c>
+      <c r="D107" t="s">
+        <v>523</v>
+      </c>
+      <c r="E107" t="s">
+        <v>165</v>
+      </c>
+      <c r="F107" t="s">
+        <v>527</v>
+      </c>
+      <c r="G107" t="s">
+        <v>526</v>
+      </c>
+      <c r="H107" t="s">
+        <v>528</v>
+      </c>
       <c r="P107">
         <v>0</v>
       </c>
@@ -4954,6 +6024,21 @@
       <c r="C109" t="s">
         <v>165</v>
       </c>
+      <c r="D109" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" t="s">
+        <v>542</v>
+      </c>
+      <c r="F109" t="s">
+        <v>522</v>
+      </c>
+      <c r="G109" t="s">
+        <v>523</v>
+      </c>
+      <c r="H109" t="s">
+        <v>545</v>
+      </c>
       <c r="P109">
         <v>1</v>
       </c>
@@ -5006,6 +6091,21 @@
       <c r="C111" t="s">
         <v>165</v>
       </c>
+      <c r="D111" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" t="s">
+        <v>529</v>
+      </c>
+      <c r="F111" t="s">
+        <v>189</v>
+      </c>
+      <c r="G111" t="s">
+        <v>553</v>
+      </c>
+      <c r="H111" t="s">
+        <v>523</v>
+      </c>
       <c r="P111">
         <v>1</v>
       </c>
@@ -5058,6 +6158,21 @@
       <c r="C113" t="s">
         <v>165</v>
       </c>
+      <c r="D113" t="s">
+        <v>558</v>
+      </c>
+      <c r="E113" t="s">
+        <v>523</v>
+      </c>
+      <c r="F113" t="s">
+        <v>542</v>
+      </c>
+      <c r="G113" t="s">
+        <v>530</v>
+      </c>
+      <c r="H113" t="s">
+        <v>525</v>
+      </c>
       <c r="P113">
         <v>0</v>
       </c>
@@ -5110,6 +6225,21 @@
       <c r="C115" t="s">
         <v>165</v>
       </c>
+      <c r="D115" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" t="s">
+        <v>523</v>
+      </c>
+      <c r="F115" t="s">
+        <v>546</v>
+      </c>
+      <c r="G115" t="s">
+        <v>525</v>
+      </c>
+      <c r="H115" t="s">
+        <v>530</v>
+      </c>
       <c r="P115">
         <v>0</v>
       </c>
@@ -5162,6 +6292,21 @@
       <c r="C117" t="s">
         <v>165</v>
       </c>
+      <c r="D117" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" t="s">
+        <v>542</v>
+      </c>
+      <c r="F117" t="s">
+        <v>523</v>
+      </c>
+      <c r="G117" t="s">
+        <v>537</v>
+      </c>
+      <c r="H117" t="s">
+        <v>562</v>
+      </c>
       <c r="P117">
         <v>0</v>
       </c>
@@ -5214,6 +6359,21 @@
       <c r="C119" t="s">
         <v>165</v>
       </c>
+      <c r="D119" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" t="s">
+        <v>529</v>
+      </c>
+      <c r="F119" t="s">
+        <v>523</v>
+      </c>
+      <c r="G119" t="s">
+        <v>547</v>
+      </c>
+      <c r="H119" t="s">
+        <v>533</v>
+      </c>
       <c r="P119">
         <v>1</v>
       </c>
@@ -5266,6 +6426,21 @@
       <c r="C121" t="s">
         <v>165</v>
       </c>
+      <c r="D121" t="s">
+        <v>529</v>
+      </c>
+      <c r="E121" t="s">
+        <v>558</v>
+      </c>
+      <c r="F121" t="s">
+        <v>535</v>
+      </c>
+      <c r="G121" t="s">
+        <v>533</v>
+      </c>
+      <c r="H121" t="s">
+        <v>525</v>
+      </c>
       <c r="P121">
         <v>0</v>
       </c>
@@ -5292,6 +6467,21 @@
       <c r="C122" t="s">
         <v>168</v>
       </c>
+      <c r="D122" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" t="s">
+        <v>527</v>
+      </c>
+      <c r="F122" t="s">
+        <v>545</v>
+      </c>
+      <c r="G122" t="s">
+        <v>526</v>
+      </c>
+      <c r="H122" t="s">
+        <v>523</v>
+      </c>
       <c r="P122">
         <v>1</v>
       </c>
@@ -5344,6 +6534,21 @@
       <c r="C124" t="s">
         <v>168</v>
       </c>
+      <c r="D124" t="s">
+        <v>393</v>
+      </c>
+      <c r="E124" t="s">
+        <v>527</v>
+      </c>
+      <c r="F124" t="s">
+        <v>536</v>
+      </c>
+      <c r="G124" t="s">
+        <v>524</v>
+      </c>
+      <c r="H124" t="s">
+        <v>526</v>
+      </c>
       <c r="P124">
         <v>0</v>
       </c>
@@ -5396,6 +6601,21 @@
       <c r="C126" t="s">
         <v>168</v>
       </c>
+      <c r="D126" t="s">
+        <v>393</v>
+      </c>
+      <c r="E126" t="s">
+        <v>168</v>
+      </c>
+      <c r="F126" t="s">
+        <v>527</v>
+      </c>
+      <c r="G126" t="s">
+        <v>523</v>
+      </c>
+      <c r="H126" t="s">
+        <v>537</v>
+      </c>
       <c r="P126">
         <v>0</v>
       </c>
@@ -5448,6 +6668,21 @@
       <c r="C128" t="s">
         <v>168</v>
       </c>
+      <c r="D128" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" t="s">
+        <v>529</v>
+      </c>
+      <c r="F128" t="s">
+        <v>533</v>
+      </c>
+      <c r="G128" t="s">
+        <v>165</v>
+      </c>
+      <c r="H128" t="s">
+        <v>530</v>
+      </c>
       <c r="P128">
         <v>1</v>
       </c>
@@ -5500,6 +6735,21 @@
       <c r="C130" t="s">
         <v>168</v>
       </c>
+      <c r="D130" t="s">
+        <v>523</v>
+      </c>
+      <c r="E130" t="s">
+        <v>563</v>
+      </c>
+      <c r="F130" t="s">
+        <v>527</v>
+      </c>
+      <c r="G130" t="s">
+        <v>393</v>
+      </c>
+      <c r="H130" t="s">
+        <v>168</v>
+      </c>
       <c r="P130">
         <v>0</v>
       </c>
@@ -5552,6 +6802,21 @@
       <c r="C132" t="s">
         <v>168</v>
       </c>
+      <c r="D132" t="s">
+        <v>189</v>
+      </c>
+      <c r="E132" t="s">
+        <v>521</v>
+      </c>
+      <c r="F132" t="s">
+        <v>482</v>
+      </c>
+      <c r="G132" t="s">
+        <v>562</v>
+      </c>
+      <c r="H132" t="s">
+        <v>564</v>
+      </c>
       <c r="P132">
         <v>0</v>
       </c>
@@ -5604,6 +6869,21 @@
       <c r="C134" t="s">
         <v>168</v>
       </c>
+      <c r="D134" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" t="s">
+        <v>523</v>
+      </c>
+      <c r="F134" t="s">
+        <v>527</v>
+      </c>
+      <c r="G134" t="s">
+        <v>545</v>
+      </c>
+      <c r="H134" t="s">
+        <v>165</v>
+      </c>
       <c r="P134">
         <v>0</v>
       </c>
@@ -5656,6 +6936,21 @@
       <c r="C136" t="s">
         <v>168</v>
       </c>
+      <c r="D136" t="s">
+        <v>536</v>
+      </c>
+      <c r="E136" t="s">
+        <v>108</v>
+      </c>
+      <c r="F136" t="s">
+        <v>527</v>
+      </c>
+      <c r="G136" t="s">
+        <v>524</v>
+      </c>
+      <c r="H136" t="s">
+        <v>525</v>
+      </c>
       <c r="P136">
         <v>0</v>
       </c>
@@ -5682,6 +6977,21 @@
       <c r="C137" t="s">
         <v>189</v>
       </c>
+      <c r="D137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="s">
+        <v>536</v>
+      </c>
+      <c r="F137" t="s">
+        <v>525</v>
+      </c>
+      <c r="G137" t="s">
+        <v>523</v>
+      </c>
+      <c r="H137" t="s">
+        <v>524</v>
+      </c>
       <c r="P137">
         <v>0</v>
       </c>
@@ -5734,6 +7044,21 @@
       <c r="C139" t="s">
         <v>189</v>
       </c>
+      <c r="D139" t="s">
+        <v>542</v>
+      </c>
+      <c r="E139" t="s">
+        <v>523</v>
+      </c>
+      <c r="F139" t="s">
+        <v>189</v>
+      </c>
+      <c r="G139" t="s">
+        <v>558</v>
+      </c>
+      <c r="H139" t="s">
+        <v>482</v>
+      </c>
       <c r="P139">
         <v>0</v>
       </c>
@@ -5786,6 +7111,21 @@
       <c r="C141" t="s">
         <v>189</v>
       </c>
+      <c r="D141" t="s">
+        <v>528</v>
+      </c>
+      <c r="E141" t="s">
+        <v>555</v>
+      </c>
+      <c r="F141" t="s">
+        <v>108</v>
+      </c>
+      <c r="G141" t="s">
+        <v>536</v>
+      </c>
+      <c r="H141" t="s">
+        <v>548</v>
+      </c>
       <c r="P141">
         <v>0</v>
       </c>
@@ -5838,6 +7178,21 @@
       <c r="C143" t="s">
         <v>189</v>
       </c>
+      <c r="D143" t="s">
+        <v>189</v>
+      </c>
+      <c r="E143" t="s">
+        <v>523</v>
+      </c>
+      <c r="F143" t="s">
+        <v>482</v>
+      </c>
+      <c r="G143" t="s">
+        <v>530</v>
+      </c>
+      <c r="H143" t="s">
+        <v>558</v>
+      </c>
       <c r="P143">
         <v>1</v>
       </c>
@@ -5890,6 +7245,21 @@
       <c r="C145" t="s">
         <v>189</v>
       </c>
+      <c r="D145" t="s">
+        <v>539</v>
+      </c>
+      <c r="E145" t="s">
+        <v>523</v>
+      </c>
+      <c r="F145" t="s">
+        <v>526</v>
+      </c>
+      <c r="G145" t="s">
+        <v>564</v>
+      </c>
+      <c r="H145" t="s">
+        <v>522</v>
+      </c>
       <c r="P145">
         <v>1</v>
       </c>
@@ -5942,6 +7312,21 @@
       <c r="C147" t="s">
         <v>189</v>
       </c>
+      <c r="D147" t="s">
+        <v>565</v>
+      </c>
+      <c r="E147" t="s">
+        <v>539</v>
+      </c>
+      <c r="F147" t="s">
+        <v>189</v>
+      </c>
+      <c r="G147" t="s">
+        <v>482</v>
+      </c>
+      <c r="H147" t="s">
+        <v>546</v>
+      </c>
       <c r="P147">
         <v>1</v>
       </c>
@@ -5994,6 +7379,21 @@
       <c r="C149" t="s">
         <v>189</v>
       </c>
+      <c r="D149" t="s">
+        <v>108</v>
+      </c>
+      <c r="F149" t="s">
+        <v>560</v>
+      </c>
+      <c r="G149" t="s">
+        <v>549</v>
+      </c>
+      <c r="H149" t="s">
+        <v>525</v>
+      </c>
+      <c r="I149" t="s">
+        <v>536</v>
+      </c>
       <c r="P149">
         <v>0</v>
       </c>
@@ -6046,6 +7446,21 @@
       <c r="C151" t="s">
         <v>189</v>
       </c>
+      <c r="D151" t="s">
+        <v>189</v>
+      </c>
+      <c r="E151" t="s">
+        <v>548</v>
+      </c>
+      <c r="F151" t="s">
+        <v>539</v>
+      </c>
+      <c r="G151" t="s">
+        <v>523</v>
+      </c>
+      <c r="H151" t="s">
+        <v>530</v>
+      </c>
       <c r="P151">
         <v>0</v>
       </c>
@@ -6072,6 +7487,21 @@
       <c r="C152" t="s">
         <v>219</v>
       </c>
+      <c r="D152" t="s">
+        <v>393</v>
+      </c>
+      <c r="E152" t="s">
+        <v>537</v>
+      </c>
+      <c r="F152" t="s">
+        <v>524</v>
+      </c>
+      <c r="G152" t="s">
+        <v>482</v>
+      </c>
+      <c r="H152" t="s">
+        <v>522</v>
+      </c>
       <c r="P152">
         <v>0</v>
       </c>
@@ -6124,6 +7554,21 @@
       <c r="C154" t="s">
         <v>219</v>
       </c>
+      <c r="D154" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" t="s">
+        <v>556</v>
+      </c>
+      <c r="F154" t="s">
+        <v>562</v>
+      </c>
+      <c r="G154" t="s">
+        <v>566</v>
+      </c>
+      <c r="H154" t="s">
+        <v>527</v>
+      </c>
       <c r="P154">
         <v>0</v>
       </c>
@@ -6176,6 +7621,21 @@
       <c r="C156" t="s">
         <v>219</v>
       </c>
+      <c r="D156" t="s">
+        <v>537</v>
+      </c>
+      <c r="E156" t="s">
+        <v>393</v>
+      </c>
+      <c r="F156" t="s">
+        <v>566</v>
+      </c>
+      <c r="G156" t="s">
+        <v>530</v>
+      </c>
+      <c r="H156" t="s">
+        <v>524</v>
+      </c>
       <c r="P156">
         <v>0</v>
       </c>
@@ -6228,6 +7688,21 @@
       <c r="C158" t="s">
         <v>219</v>
       </c>
+      <c r="D158" t="s">
+        <v>545</v>
+      </c>
+      <c r="E158" t="s">
+        <v>523</v>
+      </c>
+      <c r="F158" t="s">
+        <v>525</v>
+      </c>
+      <c r="G158" t="s">
+        <v>558</v>
+      </c>
+      <c r="H158" t="s">
+        <v>539</v>
+      </c>
       <c r="P158">
         <v>1</v>
       </c>
@@ -6280,6 +7755,21 @@
       <c r="C160" t="s">
         <v>219</v>
       </c>
+      <c r="D160" t="s">
+        <v>542</v>
+      </c>
+      <c r="E160" t="s">
+        <v>523</v>
+      </c>
+      <c r="F160" t="s">
+        <v>482</v>
+      </c>
+      <c r="G160" t="s">
+        <v>529</v>
+      </c>
+      <c r="H160" t="s">
+        <v>165</v>
+      </c>
       <c r="P160">
         <v>1</v>
       </c>
@@ -6332,6 +7822,21 @@
       <c r="C162" t="s">
         <v>219</v>
       </c>
+      <c r="D162" t="s">
+        <v>558</v>
+      </c>
+      <c r="E162" t="s">
+        <v>542</v>
+      </c>
+      <c r="F162" t="s">
+        <v>518</v>
+      </c>
+      <c r="G162" t="s">
+        <v>530</v>
+      </c>
+      <c r="H162" t="s">
+        <v>529</v>
+      </c>
       <c r="P162">
         <v>0</v>
       </c>
@@ -6384,6 +7889,21 @@
       <c r="C164" t="s">
         <v>219</v>
       </c>
+      <c r="D164" t="s">
+        <v>521</v>
+      </c>
+      <c r="E164" t="s">
+        <v>189</v>
+      </c>
+      <c r="F164" t="s">
+        <v>532</v>
+      </c>
+      <c r="G164" t="s">
+        <v>562</v>
+      </c>
+      <c r="H164" t="s">
+        <v>482</v>
+      </c>
       <c r="P164">
         <v>0</v>
       </c>
@@ -6436,6 +7956,21 @@
       <c r="C166" t="s">
         <v>219</v>
       </c>
+      <c r="D166" t="s">
+        <v>533</v>
+      </c>
+      <c r="E166" t="s">
+        <v>531</v>
+      </c>
+      <c r="F166" t="s">
+        <v>529</v>
+      </c>
+      <c r="G166" t="s">
+        <v>534</v>
+      </c>
+      <c r="H166" t="s">
+        <v>165</v>
+      </c>
       <c r="P166">
         <v>0</v>
       </c>
@@ -6462,6 +7997,21 @@
       <c r="C167" t="s">
         <v>235</v>
       </c>
+      <c r="D167" t="s">
+        <v>523</v>
+      </c>
+      <c r="E167" t="s">
+        <v>522</v>
+      </c>
+      <c r="F167" t="s">
+        <v>528</v>
+      </c>
+      <c r="G167" t="s">
+        <v>525</v>
+      </c>
+      <c r="H167" t="s">
+        <v>563</v>
+      </c>
       <c r="P167">
         <v>1</v>
       </c>
@@ -6514,6 +8064,21 @@
       <c r="C169" t="s">
         <v>235</v>
       </c>
+      <c r="D169" t="s">
+        <v>546</v>
+      </c>
+      <c r="E169" t="s">
+        <v>522</v>
+      </c>
+      <c r="F169" t="s">
+        <v>526</v>
+      </c>
+      <c r="G169" t="s">
+        <v>393</v>
+      </c>
+      <c r="H169" t="s">
+        <v>539</v>
+      </c>
       <c r="P169">
         <v>1</v>
       </c>
@@ -6566,6 +8131,21 @@
       <c r="C171" t="s">
         <v>235</v>
       </c>
+      <c r="D171" t="s">
+        <v>566</v>
+      </c>
+      <c r="E171" t="s">
+        <v>541</v>
+      </c>
+      <c r="F171" t="s">
+        <v>521</v>
+      </c>
+      <c r="G171" t="s">
+        <v>482</v>
+      </c>
+      <c r="H171" t="s">
+        <v>393</v>
+      </c>
       <c r="P171">
         <v>0</v>
       </c>
@@ -6618,6 +8198,21 @@
       <c r="C173" t="s">
         <v>235</v>
       </c>
+      <c r="D173" t="s">
+        <v>550</v>
+      </c>
+      <c r="E173" t="s">
+        <v>525</v>
+      </c>
+      <c r="F173" t="s">
+        <v>524</v>
+      </c>
+      <c r="G173" t="s">
+        <v>528</v>
+      </c>
+      <c r="H173" t="s">
+        <v>522</v>
+      </c>
       <c r="P173">
         <v>0</v>
       </c>
@@ -6670,6 +8265,21 @@
       <c r="C175" t="s">
         <v>235</v>
       </c>
+      <c r="D175" t="s">
+        <v>564</v>
+      </c>
+      <c r="E175" t="s">
+        <v>525</v>
+      </c>
+      <c r="F175" t="s">
+        <v>524</v>
+      </c>
+      <c r="G175" t="s">
+        <v>529</v>
+      </c>
+      <c r="H175" t="s">
+        <v>536</v>
+      </c>
       <c r="P175">
         <v>1</v>
       </c>
@@ -6722,6 +8332,21 @@
       <c r="C177" t="s">
         <v>235</v>
       </c>
+      <c r="D177" t="s">
+        <v>544</v>
+      </c>
+      <c r="E177" t="s">
+        <v>189</v>
+      </c>
+      <c r="F177" t="s">
+        <v>538</v>
+      </c>
+      <c r="G177" t="s">
+        <v>525</v>
+      </c>
+      <c r="H177" t="s">
+        <v>541</v>
+      </c>
       <c r="P177">
         <v>1</v>
       </c>
@@ -6774,6 +8399,21 @@
       <c r="C179" t="s">
         <v>235</v>
       </c>
+      <c r="D179" t="s">
+        <v>525</v>
+      </c>
+      <c r="E179" t="s">
+        <v>524</v>
+      </c>
+      <c r="F179" t="s">
+        <v>523</v>
+      </c>
+      <c r="G179" t="s">
+        <v>522</v>
+      </c>
+      <c r="H179" t="s">
+        <v>526</v>
+      </c>
       <c r="P179">
         <v>1</v>
       </c>
@@ -6826,6 +8466,21 @@
       <c r="C181" t="s">
         <v>235</v>
       </c>
+      <c r="D181" t="s">
+        <v>545</v>
+      </c>
+      <c r="E181" t="s">
+        <v>558</v>
+      </c>
+      <c r="F181" t="s">
+        <v>525</v>
+      </c>
+      <c r="G181" t="s">
+        <v>523</v>
+      </c>
+      <c r="H181" t="s">
+        <v>529</v>
+      </c>
       <c r="P181">
         <v>0</v>
       </c>
@@ -12799,6 +14454,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26390699-987F-4CB5-AD13-2E5A5C51F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313D7EE3-F49A-41DA-B4DC-C563FC31101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14370" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="570">
   <si>
     <t>PictureCode</t>
   </si>
@@ -1758,6 +1758,15 @@
   </si>
   <si>
     <t>Furuncle (Deep Folliculitis)</t>
+  </si>
+  <si>
+    <t>Dermatofibroma</t>
+  </si>
+  <si>
+    <t> Lentigo</t>
+  </si>
+  <si>
+    <t> Seborrhoeic Dermatitis</t>
   </si>
 </sst>
 </file>
@@ -2232,8 +2241,8 @@
   <dimension ref="A1:T410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H181" sqref="H181"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8507,6 +8516,21 @@
       <c r="C182" t="s">
         <v>257</v>
       </c>
+      <c r="D182" t="s">
+        <v>558</v>
+      </c>
+      <c r="E182" t="s">
+        <v>542</v>
+      </c>
+      <c r="F182" t="s">
+        <v>529</v>
+      </c>
+      <c r="G182" t="s">
+        <v>529</v>
+      </c>
+      <c r="H182" t="s">
+        <v>523</v>
+      </c>
       <c r="P182">
         <v>1</v>
       </c>
@@ -8559,6 +8583,21 @@
       <c r="C184" t="s">
         <v>257</v>
       </c>
+      <c r="D184" t="s">
+        <v>522</v>
+      </c>
+      <c r="E184" t="s">
+        <v>523</v>
+      </c>
+      <c r="F184" t="s">
+        <v>526</v>
+      </c>
+      <c r="G184" t="s">
+        <v>542</v>
+      </c>
+      <c r="H184" t="s">
+        <v>165</v>
+      </c>
       <c r="P184">
         <v>1</v>
       </c>
@@ -8611,6 +8650,21 @@
       <c r="C186" t="s">
         <v>257</v>
       </c>
+      <c r="D186" t="s">
+        <v>550</v>
+      </c>
+      <c r="E186" t="s">
+        <v>563</v>
+      </c>
+      <c r="F186" t="s">
+        <v>528</v>
+      </c>
+      <c r="G186" t="s">
+        <v>108</v>
+      </c>
+      <c r="H186" t="s">
+        <v>524</v>
+      </c>
       <c r="P186">
         <v>0</v>
       </c>
@@ -8663,6 +8717,21 @@
       <c r="C188" t="s">
         <v>257</v>
       </c>
+      <c r="D188" t="s">
+        <v>541</v>
+      </c>
+      <c r="E188" t="s">
+        <v>567</v>
+      </c>
+      <c r="F188" t="s">
+        <v>528</v>
+      </c>
+      <c r="G188" t="s">
+        <v>523</v>
+      </c>
+      <c r="H188" t="s">
+        <v>558</v>
+      </c>
       <c r="P188">
         <v>0</v>
       </c>
@@ -8715,6 +8784,21 @@
       <c r="C190" t="s">
         <v>257</v>
       </c>
+      <c r="D190" t="s">
+        <v>526</v>
+      </c>
+      <c r="E190" t="s">
+        <v>522</v>
+      </c>
+      <c r="F190" t="s">
+        <v>523</v>
+      </c>
+      <c r="G190" t="s">
+        <v>528</v>
+      </c>
+      <c r="H190" t="s">
+        <v>393</v>
+      </c>
       <c r="P190">
         <v>1</v>
       </c>
@@ -8767,6 +8851,21 @@
       <c r="C192" t="s">
         <v>257</v>
       </c>
+      <c r="D192" t="s">
+        <v>393</v>
+      </c>
+      <c r="E192" t="s">
+        <v>523</v>
+      </c>
+      <c r="F192" t="s">
+        <v>530</v>
+      </c>
+      <c r="G192" t="s">
+        <v>527</v>
+      </c>
+      <c r="H192" t="s">
+        <v>527</v>
+      </c>
       <c r="P192">
         <v>0</v>
       </c>
@@ -8819,6 +8918,21 @@
       <c r="C194" t="s">
         <v>257</v>
       </c>
+      <c r="D194" t="s">
+        <v>546</v>
+      </c>
+      <c r="E194" t="s">
+        <v>189</v>
+      </c>
+      <c r="F194" t="s">
+        <v>535</v>
+      </c>
+      <c r="G194" t="s">
+        <v>568</v>
+      </c>
+      <c r="H194" t="s">
+        <v>165</v>
+      </c>
       <c r="P194">
         <v>1</v>
       </c>
@@ -8871,6 +8985,21 @@
       <c r="C196" t="s">
         <v>257</v>
       </c>
+      <c r="D196" t="s">
+        <v>528</v>
+      </c>
+      <c r="E196" t="s">
+        <v>525</v>
+      </c>
+      <c r="F196" t="s">
+        <v>535</v>
+      </c>
+      <c r="G196" t="s">
+        <v>553</v>
+      </c>
+      <c r="H196" t="s">
+        <v>524</v>
+      </c>
       <c r="P196">
         <v>1</v>
       </c>
@@ -8897,6 +9026,21 @@
       <c r="C197" t="s">
         <v>275</v>
       </c>
+      <c r="D197" t="s">
+        <v>529</v>
+      </c>
+      <c r="E197" t="s">
+        <v>558</v>
+      </c>
+      <c r="F197" t="s">
+        <v>533</v>
+      </c>
+      <c r="G197" t="s">
+        <v>520</v>
+      </c>
+      <c r="H197" t="s">
+        <v>532</v>
+      </c>
       <c r="P197">
         <v>0</v>
       </c>
@@ -8949,6 +9093,21 @@
       <c r="C199" t="s">
         <v>275</v>
       </c>
+      <c r="D199" t="s">
+        <v>544</v>
+      </c>
+      <c r="E199" t="s">
+        <v>569</v>
+      </c>
+      <c r="F199" t="s">
+        <v>558</v>
+      </c>
+      <c r="G199" t="s">
+        <v>535</v>
+      </c>
+      <c r="H199" t="s">
+        <v>557</v>
+      </c>
       <c r="P199">
         <v>0</v>
       </c>
@@ -9001,6 +9160,21 @@
       <c r="C201" t="s">
         <v>275</v>
       </c>
+      <c r="D201" t="s">
+        <v>526</v>
+      </c>
+      <c r="E201" t="s">
+        <v>523</v>
+      </c>
+      <c r="F201" t="s">
+        <v>165</v>
+      </c>
+      <c r="G201" t="s">
+        <v>522</v>
+      </c>
+      <c r="H201" t="s">
+        <v>529</v>
+      </c>
       <c r="P201">
         <v>1</v>
       </c>
@@ -9053,6 +9227,21 @@
       <c r="C203" t="s">
         <v>275</v>
       </c>
+      <c r="D203" t="s">
+        <v>555</v>
+      </c>
+      <c r="E203" t="s">
+        <v>108</v>
+      </c>
+      <c r="F203" t="s">
+        <v>536</v>
+      </c>
+      <c r="G203" t="s">
+        <v>530</v>
+      </c>
+      <c r="H203" t="s">
+        <v>556</v>
+      </c>
       <c r="P203">
         <v>0</v>
       </c>
@@ -9105,6 +9294,21 @@
       <c r="C205" t="s">
         <v>275</v>
       </c>
+      <c r="D205" t="s">
+        <v>523</v>
+      </c>
+      <c r="E205" t="s">
+        <v>526</v>
+      </c>
+      <c r="F205" t="s">
+        <v>524</v>
+      </c>
+      <c r="G205" t="s">
+        <v>528</v>
+      </c>
+      <c r="H205" t="s">
+        <v>525</v>
+      </c>
       <c r="P205">
         <v>0</v>
       </c>
@@ -9157,6 +9361,21 @@
       <c r="C207" t="s">
         <v>275</v>
       </c>
+      <c r="D207" t="s">
+        <v>536</v>
+      </c>
+      <c r="E207" t="s">
+        <v>108</v>
+      </c>
+      <c r="F207" t="s">
+        <v>524</v>
+      </c>
+      <c r="G207" t="s">
+        <v>525</v>
+      </c>
+      <c r="H207" t="s">
+        <v>528</v>
+      </c>
       <c r="P207">
         <v>0</v>
       </c>
@@ -9209,6 +9428,21 @@
       <c r="C209" t="s">
         <v>275</v>
       </c>
+      <c r="D209" t="s">
+        <v>529</v>
+      </c>
+      <c r="E209" t="s">
+        <v>543</v>
+      </c>
+      <c r="F209" t="s">
+        <v>165</v>
+      </c>
+      <c r="G209" t="s">
+        <v>525</v>
+      </c>
+      <c r="H209" t="s">
+        <v>532</v>
+      </c>
       <c r="P209">
         <v>1</v>
       </c>
@@ -9261,6 +9495,21 @@
       <c r="C211" t="s">
         <v>275</v>
       </c>
+      <c r="D211" t="s">
+        <v>482</v>
+      </c>
+      <c r="E211" t="s">
+        <v>189</v>
+      </c>
+      <c r="F211" t="s">
+        <v>541</v>
+      </c>
+      <c r="G211" t="s">
+        <v>561</v>
+      </c>
+      <c r="H211" t="s">
+        <v>544</v>
+      </c>
       <c r="P211">
         <v>1</v>
       </c>
@@ -9287,6 +9536,21 @@
       <c r="C212" t="s">
         <v>298</v>
       </c>
+      <c r="D212" t="s">
+        <v>165</v>
+      </c>
+      <c r="E212" t="s">
+        <v>523</v>
+      </c>
+      <c r="F212" t="s">
+        <v>522</v>
+      </c>
+      <c r="G212" t="s">
+        <v>526</v>
+      </c>
+      <c r="H212" t="s">
+        <v>542</v>
+      </c>
       <c r="P212">
         <v>1</v>
       </c>
@@ -9339,6 +9603,21 @@
       <c r="C214" t="s">
         <v>298</v>
       </c>
+      <c r="D214" t="s">
+        <v>523</v>
+      </c>
+      <c r="E214" t="s">
+        <v>165</v>
+      </c>
+      <c r="F214" t="s">
+        <v>527</v>
+      </c>
+      <c r="G214" t="s">
+        <v>168</v>
+      </c>
+      <c r="H214" t="s">
+        <v>534</v>
+      </c>
       <c r="P214">
         <v>1</v>
       </c>
@@ -9391,6 +9670,21 @@
       <c r="C216" t="s">
         <v>298</v>
       </c>
+      <c r="D216" t="s">
+        <v>542</v>
+      </c>
+      <c r="E216" t="s">
+        <v>558</v>
+      </c>
+      <c r="F216" t="s">
+        <v>523</v>
+      </c>
+      <c r="G216" t="s">
+        <v>482</v>
+      </c>
+      <c r="H216" t="s">
+        <v>517</v>
+      </c>
       <c r="P216">
         <v>0</v>
       </c>
@@ -9443,6 +9737,21 @@
       <c r="C218" t="s">
         <v>298</v>
       </c>
+      <c r="D218" t="s">
+        <v>523</v>
+      </c>
+      <c r="E218" t="s">
+        <v>542</v>
+      </c>
+      <c r="F218" t="s">
+        <v>482</v>
+      </c>
+      <c r="G218" t="s">
+        <v>165</v>
+      </c>
+      <c r="H218" t="s">
+        <v>526</v>
+      </c>
       <c r="P218">
         <v>1</v>
       </c>
@@ -9495,6 +9804,21 @@
       <c r="C220" t="s">
         <v>298</v>
       </c>
+      <c r="D220" t="s">
+        <v>523</v>
+      </c>
+      <c r="E220" t="s">
+        <v>558</v>
+      </c>
+      <c r="F220" t="s">
+        <v>563</v>
+      </c>
+      <c r="G220" t="s">
+        <v>522</v>
+      </c>
+      <c r="H220" t="s">
+        <v>528</v>
+      </c>
       <c r="P220">
         <v>1</v>
       </c>
@@ -9547,6 +9871,21 @@
       <c r="C222" t="s">
         <v>298</v>
       </c>
+      <c r="D222" t="s">
+        <v>165</v>
+      </c>
+      <c r="E222" t="s">
+        <v>523</v>
+      </c>
+      <c r="F222" t="s">
+        <v>530</v>
+      </c>
+      <c r="G222" t="s">
+        <v>529</v>
+      </c>
+      <c r="H222" t="s">
+        <v>525</v>
+      </c>
       <c r="P222">
         <v>0</v>
       </c>
@@ -9599,6 +9938,21 @@
       <c r="C224" t="s">
         <v>298</v>
       </c>
+      <c r="D224" t="s">
+        <v>533</v>
+      </c>
+      <c r="E224" t="s">
+        <v>533</v>
+      </c>
+      <c r="F224" t="s">
+        <v>523</v>
+      </c>
+      <c r="G224" t="s">
+        <v>482</v>
+      </c>
+      <c r="H224" t="s">
+        <v>542</v>
+      </c>
       <c r="P224">
         <v>0</v>
       </c>
@@ -9651,6 +10005,21 @@
       <c r="C226" t="s">
         <v>298</v>
       </c>
+      <c r="D226" t="s">
+        <v>523</v>
+      </c>
+      <c r="E226" t="s">
+        <v>558</v>
+      </c>
+      <c r="F226" t="s">
+        <v>526</v>
+      </c>
+      <c r="G226" t="s">
+        <v>518</v>
+      </c>
+      <c r="H226" t="s">
+        <v>525</v>
+      </c>
       <c r="P226">
         <v>0</v>
       </c>
@@ -9677,6 +10046,21 @@
       <c r="C227" t="s">
         <v>316</v>
       </c>
+      <c r="D227" t="s">
+        <v>530</v>
+      </c>
+      <c r="E227" t="s">
+        <v>165</v>
+      </c>
+      <c r="F227" t="s">
+        <v>557</v>
+      </c>
+      <c r="G227" t="s">
+        <v>393</v>
+      </c>
+      <c r="H227" t="s">
+        <v>526</v>
+      </c>
       <c r="P227">
         <v>0</v>
       </c>
@@ -9729,6 +10113,21 @@
       <c r="C229" t="s">
         <v>316</v>
       </c>
+      <c r="D229" t="s">
+        <v>522</v>
+      </c>
+      <c r="E229" t="s">
+        <v>530</v>
+      </c>
+      <c r="F229" t="s">
+        <v>393</v>
+      </c>
+      <c r="G229" t="s">
+        <v>524</v>
+      </c>
+      <c r="H229" t="s">
+        <v>523</v>
+      </c>
       <c r="P229">
         <v>0</v>
       </c>
@@ -9781,6 +10180,21 @@
       <c r="C231" t="s">
         <v>316</v>
       </c>
+      <c r="D231" t="s">
+        <v>530</v>
+      </c>
+      <c r="E231" t="s">
+        <v>165</v>
+      </c>
+      <c r="F231" t="s">
+        <v>533</v>
+      </c>
+      <c r="G231" t="s">
+        <v>529</v>
+      </c>
+      <c r="H231" t="s">
+        <v>523</v>
+      </c>
       <c r="P231">
         <v>0</v>
       </c>
@@ -9833,6 +10247,21 @@
       <c r="C233" t="s">
         <v>316</v>
       </c>
+      <c r="D233" t="s">
+        <v>530</v>
+      </c>
+      <c r="E233" t="s">
+        <v>529</v>
+      </c>
+      <c r="F233" t="s">
+        <v>165</v>
+      </c>
+      <c r="G233" t="s">
+        <v>523</v>
+      </c>
+      <c r="H233" t="s">
+        <v>522</v>
+      </c>
       <c r="P233">
         <v>0</v>
       </c>
@@ -9885,6 +10314,21 @@
       <c r="C235" t="s">
         <v>316</v>
       </c>
+      <c r="D235" t="s">
+        <v>548</v>
+      </c>
+      <c r="E235" t="s">
+        <v>550</v>
+      </c>
+      <c r="F235" t="s">
+        <v>108</v>
+      </c>
+      <c r="G235" t="s">
+        <v>527</v>
+      </c>
+      <c r="H235" t="s">
+        <v>539</v>
+      </c>
       <c r="P235">
         <v>0</v>
       </c>
@@ -9937,6 +10381,21 @@
       <c r="C237" t="s">
         <v>316</v>
       </c>
+      <c r="D237" t="s">
+        <v>542</v>
+      </c>
+      <c r="E237" t="s">
+        <v>517</v>
+      </c>
+      <c r="F237" t="s">
+        <v>545</v>
+      </c>
+      <c r="G237" t="s">
+        <v>562</v>
+      </c>
+      <c r="H237" t="s">
+        <v>534</v>
+      </c>
       <c r="P237">
         <v>0</v>
       </c>
@@ -9989,6 +10448,21 @@
       <c r="C239" t="s">
         <v>316</v>
       </c>
+      <c r="D239" t="s">
+        <v>533</v>
+      </c>
+      <c r="E239" t="s">
+        <v>165</v>
+      </c>
+      <c r="F239" t="s">
+        <v>559</v>
+      </c>
+      <c r="G239" t="s">
+        <v>525</v>
+      </c>
+      <c r="H239" t="s">
+        <v>523</v>
+      </c>
       <c r="P239">
         <v>0</v>
       </c>
@@ -10041,6 +10515,21 @@
       <c r="C241" t="s">
         <v>316</v>
       </c>
+      <c r="D241" t="s">
+        <v>558</v>
+      </c>
+      <c r="E241" t="s">
+        <v>530</v>
+      </c>
+      <c r="F241" t="s">
+        <v>523</v>
+      </c>
+      <c r="G241" t="s">
+        <v>522</v>
+      </c>
+      <c r="H241" t="s">
+        <v>533</v>
+      </c>
       <c r="P241">
         <v>1</v>
       </c>
@@ -10067,6 +10556,21 @@
       <c r="C242" t="s">
         <v>328</v>
       </c>
+      <c r="D242" t="s">
+        <v>545</v>
+      </c>
+      <c r="E242" t="s">
+        <v>525</v>
+      </c>
+      <c r="F242" t="s">
+        <v>523</v>
+      </c>
+      <c r="G242" t="s">
+        <v>524</v>
+      </c>
+      <c r="H242" t="s">
+        <v>536</v>
+      </c>
       <c r="P242">
         <v>1</v>
       </c>
@@ -10119,6 +10623,21 @@
       <c r="C244" t="s">
         <v>328</v>
       </c>
+      <c r="D244" t="s">
+        <v>542</v>
+      </c>
+      <c r="E244" t="s">
+        <v>545</v>
+      </c>
+      <c r="F244" t="s">
+        <v>540</v>
+      </c>
+      <c r="G244" t="s">
+        <v>523</v>
+      </c>
+      <c r="H244" t="s">
+        <v>517</v>
+      </c>
       <c r="P244">
         <v>0</v>
       </c>
@@ -10171,6 +10690,21 @@
       <c r="C246" t="s">
         <v>328</v>
       </c>
+      <c r="D246" t="s">
+        <v>542</v>
+      </c>
+      <c r="E246" t="s">
+        <v>165</v>
+      </c>
+      <c r="F246" t="s">
+        <v>518</v>
+      </c>
+      <c r="G246" t="s">
+        <v>562</v>
+      </c>
+      <c r="H246" t="s">
+        <v>482</v>
+      </c>
       <c r="P246">
         <v>1</v>
       </c>
@@ -10223,6 +10757,21 @@
       <c r="C248" t="s">
         <v>328</v>
       </c>
+      <c r="D248" t="s">
+        <v>523</v>
+      </c>
+      <c r="E248" t="s">
+        <v>558</v>
+      </c>
+      <c r="F248" t="s">
+        <v>525</v>
+      </c>
+      <c r="G248" t="s">
+        <v>536</v>
+      </c>
+      <c r="H248" t="s">
+        <v>526</v>
+      </c>
       <c r="P248">
         <v>0</v>
       </c>
@@ -10274,6 +10823,21 @@
       </c>
       <c r="C250" t="s">
         <v>328</v>
+      </c>
+      <c r="D250" t="s">
+        <v>165</v>
+      </c>
+      <c r="E250" t="s">
+        <v>529</v>
+      </c>
+      <c r="F250" t="s">
+        <v>523</v>
+      </c>
+      <c r="G250" t="s">
+        <v>525</v>
+      </c>
+      <c r="H250" t="s">
+        <v>533</v>
       </c>
       <c r="P250">
         <v>0</v>

--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8796A6A1-C9F2-4D2F-AFF1-8C038DC91B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8CB33A-8897-4EFF-AEB7-EFF533D1F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="573">
   <si>
     <t>PictureCode</t>
   </si>
@@ -1752,6 +1752,30 @@
   </si>
   <si>
     <t> Seborrhoeic Dermatitis</t>
+  </si>
+  <si>
+    <t> Herpes Zoster</t>
+  </si>
+  <si>
+    <t> Folliculitis</t>
+  </si>
+  <si>
+    <t> Contact Dermatitis</t>
+  </si>
+  <si>
+    <t> Syphilis</t>
+  </si>
+  <si>
+    <t> Furuncle (Deep Folliculitis)</t>
+  </si>
+  <si>
+    <t>Nevus</t>
+  </si>
+  <si>
+    <t> Seborrhoeic Keratosis</t>
+  </si>
+  <si>
+    <t> Malignant Melanoma</t>
   </si>
 </sst>
 </file>
@@ -2225,9 +2249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9D3A69-BC2D-7345-811C-0394B0A4FCD6}">
   <dimension ref="A1:O410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J260" sqref="J260"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14001,6 +14025,21 @@
       <c r="C251" t="s">
         <v>340</v>
       </c>
+      <c r="D251" t="s">
+        <v>184</v>
+      </c>
+      <c r="E251" t="s">
+        <v>537</v>
+      </c>
+      <c r="F251" t="s">
+        <v>520</v>
+      </c>
+      <c r="G251" t="s">
+        <v>528</v>
+      </c>
+      <c r="H251" t="s">
+        <v>527</v>
+      </c>
       <c r="K251">
         <v>0</v>
       </c>
@@ -14053,6 +14092,21 @@
       <c r="C253" t="s">
         <v>340</v>
       </c>
+      <c r="D253" t="s">
+        <v>545</v>
+      </c>
+      <c r="E253" t="s">
+        <v>543</v>
+      </c>
+      <c r="F253" t="s">
+        <v>523</v>
+      </c>
+      <c r="G253" t="s">
+        <v>160</v>
+      </c>
+      <c r="H253" t="s">
+        <v>522</v>
+      </c>
       <c r="K253">
         <v>0</v>
       </c>
@@ -14105,6 +14159,21 @@
       <c r="C255" t="s">
         <v>340</v>
       </c>
+      <c r="D255" t="s">
+        <v>515</v>
+      </c>
+      <c r="E255" t="s">
+        <v>160</v>
+      </c>
+      <c r="F255" t="s">
+        <v>557</v>
+      </c>
+      <c r="G255" t="s">
+        <v>513</v>
+      </c>
+      <c r="H255" t="s">
+        <v>565</v>
+      </c>
       <c r="K255">
         <v>0</v>
       </c>
@@ -14157,6 +14226,21 @@
       <c r="C257" t="s">
         <v>340</v>
       </c>
+      <c r="D257" t="s">
+        <v>537</v>
+      </c>
+      <c r="E257" t="s">
+        <v>553</v>
+      </c>
+      <c r="F257" t="s">
+        <v>518</v>
+      </c>
+      <c r="G257" t="s">
+        <v>535</v>
+      </c>
+      <c r="H257" t="s">
+        <v>513</v>
+      </c>
       <c r="K257">
         <v>0</v>
       </c>
@@ -14209,6 +14293,21 @@
       <c r="C259" t="s">
         <v>340</v>
       </c>
+      <c r="D259" t="s">
+        <v>160</v>
+      </c>
+      <c r="E259" t="s">
+        <v>537</v>
+      </c>
+      <c r="F259" t="s">
+        <v>184</v>
+      </c>
+      <c r="G259" t="s">
+        <v>518</v>
+      </c>
+      <c r="H259" t="s">
+        <v>525</v>
+      </c>
       <c r="K259">
         <v>0</v>
       </c>
@@ -14261,6 +14360,21 @@
       <c r="C261" t="s">
         <v>340</v>
       </c>
+      <c r="D261" t="s">
+        <v>537</v>
+      </c>
+      <c r="E261" t="s">
+        <v>553</v>
+      </c>
+      <c r="F261" t="s">
+        <v>518</v>
+      </c>
+      <c r="G261" t="s">
+        <v>535</v>
+      </c>
+      <c r="H261" t="s">
+        <v>536</v>
+      </c>
       <c r="K261">
         <v>1</v>
       </c>
@@ -14313,6 +14427,21 @@
       <c r="C263" t="s">
         <v>340</v>
       </c>
+      <c r="D263" t="s">
+        <v>160</v>
+      </c>
+      <c r="E263" t="s">
+        <v>537</v>
+      </c>
+      <c r="F263" t="s">
+        <v>536</v>
+      </c>
+      <c r="G263" t="s">
+        <v>545</v>
+      </c>
+      <c r="H263" t="s">
+        <v>513</v>
+      </c>
       <c r="K263">
         <v>1</v>
       </c>
@@ -14365,6 +14494,21 @@
       <c r="C265" t="s">
         <v>340</v>
       </c>
+      <c r="D265" t="s">
+        <v>561</v>
+      </c>
+      <c r="E265" t="s">
+        <v>477</v>
+      </c>
+      <c r="F265" t="s">
+        <v>536</v>
+      </c>
+      <c r="G265" t="s">
+        <v>516</v>
+      </c>
+      <c r="H265" t="s">
+        <v>526</v>
+      </c>
       <c r="K265">
         <v>1</v>
       </c>
@@ -14391,6 +14535,21 @@
       <c r="C266" t="s">
         <v>351</v>
       </c>
+      <c r="D266" t="s">
+        <v>521</v>
+      </c>
+      <c r="E266" t="s">
+        <v>554</v>
+      </c>
+      <c r="F266" t="s">
+        <v>477</v>
+      </c>
+      <c r="G266" t="s">
+        <v>518</v>
+      </c>
+      <c r="H266" t="s">
+        <v>519</v>
+      </c>
       <c r="K266">
         <v>1</v>
       </c>
@@ -14443,6 +14602,21 @@
       <c r="C268" t="s">
         <v>351</v>
       </c>
+      <c r="D268" t="s">
+        <v>539</v>
+      </c>
+      <c r="E268" t="s">
+        <v>184</v>
+      </c>
+      <c r="F268" t="s">
+        <v>524</v>
+      </c>
+      <c r="G268" t="s">
+        <v>477</v>
+      </c>
+      <c r="H268" t="s">
+        <v>530</v>
+      </c>
       <c r="K268">
         <v>1</v>
       </c>
@@ -14495,6 +14669,21 @@
       <c r="C270" t="s">
         <v>355</v>
       </c>
+      <c r="D270" t="s">
+        <v>512</v>
+      </c>
+      <c r="E270" t="s">
+        <v>529</v>
+      </c>
+      <c r="F270" t="s">
+        <v>536</v>
+      </c>
+      <c r="G270" t="s">
+        <v>538</v>
+      </c>
+      <c r="H270" t="s">
+        <v>527</v>
+      </c>
       <c r="K270">
         <v>0</v>
       </c>
@@ -14547,6 +14736,21 @@
       <c r="C272" t="s">
         <v>355</v>
       </c>
+      <c r="D272" t="s">
+        <v>559</v>
+      </c>
+      <c r="E272" t="s">
+        <v>537</v>
+      </c>
+      <c r="F272" t="s">
+        <v>160</v>
+      </c>
+      <c r="G272" t="s">
+        <v>518</v>
+      </c>
+      <c r="H272" t="s">
+        <v>512</v>
+      </c>
       <c r="K272">
         <v>1</v>
       </c>
@@ -14573,6 +14777,21 @@
       <c r="C273" t="s">
         <v>371</v>
       </c>
+      <c r="D273" t="s">
+        <v>525</v>
+      </c>
+      <c r="E273" t="s">
+        <v>524</v>
+      </c>
+      <c r="F273" t="s">
+        <v>160</v>
+      </c>
+      <c r="G273" t="s">
+        <v>528</v>
+      </c>
+      <c r="H273" t="s">
+        <v>518</v>
+      </c>
       <c r="K273">
         <v>0</v>
       </c>
@@ -14625,6 +14844,21 @@
       <c r="C275" t="s">
         <v>371</v>
       </c>
+      <c r="D275" t="s">
+        <v>518</v>
+      </c>
+      <c r="E275" t="s">
+        <v>160</v>
+      </c>
+      <c r="F275" t="s">
+        <v>525</v>
+      </c>
+      <c r="G275" t="s">
+        <v>528</v>
+      </c>
+      <c r="H275" t="s">
+        <v>388</v>
+      </c>
       <c r="K275">
         <v>0</v>
       </c>
@@ -14677,6 +14911,21 @@
       <c r="C277" t="s">
         <v>371</v>
       </c>
+      <c r="D277" t="s">
+        <v>530</v>
+      </c>
+      <c r="E277" t="s">
+        <v>160</v>
+      </c>
+      <c r="F277" t="s">
+        <v>524</v>
+      </c>
+      <c r="G277" t="s">
+        <v>184</v>
+      </c>
+      <c r="H277" t="s">
+        <v>539</v>
+      </c>
       <c r="K277">
         <v>0</v>
       </c>
@@ -14729,6 +14978,21 @@
       <c r="C279" t="s">
         <v>371</v>
       </c>
+      <c r="D279" t="s">
+        <v>518</v>
+      </c>
+      <c r="E279" t="s">
+        <v>537</v>
+      </c>
+      <c r="F279" t="s">
+        <v>160</v>
+      </c>
+      <c r="G279" t="s">
+        <v>184</v>
+      </c>
+      <c r="H279" t="s">
+        <v>521</v>
+      </c>
       <c r="K279">
         <v>0</v>
       </c>
@@ -14781,6 +15045,21 @@
       <c r="C281" t="s">
         <v>371</v>
       </c>
+      <c r="D281" t="s">
+        <v>525</v>
+      </c>
+      <c r="E281" t="s">
+        <v>160</v>
+      </c>
+      <c r="F281" t="s">
+        <v>524</v>
+      </c>
+      <c r="G281" t="s">
+        <v>521</v>
+      </c>
+      <c r="H281" t="s">
+        <v>517</v>
+      </c>
       <c r="K281">
         <v>0</v>
       </c>
@@ -14833,6 +15112,21 @@
       <c r="C283" t="s">
         <v>371</v>
       </c>
+      <c r="D283" t="s">
+        <v>160</v>
+      </c>
+      <c r="E283" t="s">
+        <v>525</v>
+      </c>
+      <c r="F283" t="s">
+        <v>524</v>
+      </c>
+      <c r="G283" t="s">
+        <v>547</v>
+      </c>
+      <c r="H283" t="s">
+        <v>518</v>
+      </c>
       <c r="K283">
         <v>1</v>
       </c>
@@ -14885,6 +15179,21 @@
       <c r="C285" t="s">
         <v>371</v>
       </c>
+      <c r="D285" t="s">
+        <v>520</v>
+      </c>
+      <c r="E285" t="s">
+        <v>531</v>
+      </c>
+      <c r="F285" t="s">
+        <v>525</v>
+      </c>
+      <c r="G285" t="s">
+        <v>517</v>
+      </c>
+      <c r="H285" t="s">
+        <v>544</v>
+      </c>
       <c r="K285">
         <v>1</v>
       </c>
@@ -14937,6 +15246,21 @@
       <c r="C287" t="s">
         <v>371</v>
       </c>
+      <c r="D287" t="s">
+        <v>565</v>
+      </c>
+      <c r="E287" t="s">
+        <v>520</v>
+      </c>
+      <c r="F287" t="s">
+        <v>523</v>
+      </c>
+      <c r="G287" t="s">
+        <v>550</v>
+      </c>
+      <c r="H287" t="s">
+        <v>519</v>
+      </c>
       <c r="K287">
         <v>0</v>
       </c>
@@ -14963,6 +15287,21 @@
       <c r="C288" t="s">
         <v>388</v>
       </c>
+      <c r="D288" t="s">
+        <v>518</v>
+      </c>
+      <c r="E288" t="s">
+        <v>523</v>
+      </c>
+      <c r="F288" t="s">
+        <v>549</v>
+      </c>
+      <c r="G288" t="s">
+        <v>544</v>
+      </c>
+      <c r="H288" t="s">
+        <v>517</v>
+      </c>
       <c r="K288">
         <v>0</v>
       </c>
@@ -15015,6 +15354,21 @@
       <c r="C290" t="s">
         <v>388</v>
       </c>
+      <c r="D290" t="s">
+        <v>525</v>
+      </c>
+      <c r="E290" t="s">
+        <v>524</v>
+      </c>
+      <c r="F290" t="s">
+        <v>528</v>
+      </c>
+      <c r="G290" t="s">
+        <v>160</v>
+      </c>
+      <c r="H290" t="s">
+        <v>388</v>
+      </c>
       <c r="K290">
         <v>1</v>
       </c>
@@ -15067,6 +15421,21 @@
       <c r="C292" t="s">
         <v>388</v>
       </c>
+      <c r="D292" t="s">
+        <v>519</v>
+      </c>
+      <c r="E292" t="s">
+        <v>103</v>
+      </c>
+      <c r="F292" t="s">
+        <v>388</v>
+      </c>
+      <c r="G292" t="s">
+        <v>520</v>
+      </c>
+      <c r="H292" t="s">
+        <v>531</v>
+      </c>
       <c r="K292">
         <v>0</v>
       </c>
@@ -15119,6 +15488,21 @@
       <c r="C294" t="s">
         <v>388</v>
       </c>
+      <c r="D294" t="s">
+        <v>522</v>
+      </c>
+      <c r="E294" t="s">
+        <v>555</v>
+      </c>
+      <c r="F294" t="s">
+        <v>566</v>
+      </c>
+      <c r="G294" t="s">
+        <v>519</v>
+      </c>
+      <c r="H294" t="s">
+        <v>523</v>
+      </c>
       <c r="K294">
         <v>1</v>
       </c>
@@ -15171,6 +15555,21 @@
       <c r="C296" t="s">
         <v>388</v>
       </c>
+      <c r="D296" t="s">
+        <v>566</v>
+      </c>
+      <c r="E296" t="s">
+        <v>519</v>
+      </c>
+      <c r="F296" t="s">
+        <v>531</v>
+      </c>
+      <c r="G296" t="s">
+        <v>567</v>
+      </c>
+      <c r="H296" t="s">
+        <v>521</v>
+      </c>
       <c r="K296">
         <v>0</v>
       </c>
@@ -15223,6 +15622,21 @@
       <c r="C298" t="s">
         <v>388</v>
       </c>
+      <c r="D298" t="s">
+        <v>566</v>
+      </c>
+      <c r="E298" t="s">
+        <v>551</v>
+      </c>
+      <c r="F298" t="s">
+        <v>521</v>
+      </c>
+      <c r="G298" t="s">
+        <v>163</v>
+      </c>
+      <c r="H298" t="s">
+        <v>525</v>
+      </c>
       <c r="K298">
         <v>0</v>
       </c>
@@ -15275,6 +15689,21 @@
       <c r="C300" t="s">
         <v>388</v>
       </c>
+      <c r="D300" t="s">
+        <v>388</v>
+      </c>
+      <c r="E300" t="s">
+        <v>549</v>
+      </c>
+      <c r="F300" t="s">
+        <v>519</v>
+      </c>
+      <c r="G300" t="s">
+        <v>531</v>
+      </c>
+      <c r="H300" t="s">
+        <v>103</v>
+      </c>
       <c r="K300">
         <v>0</v>
       </c>
@@ -15327,6 +15756,21 @@
       <c r="C302" t="s">
         <v>388</v>
       </c>
+      <c r="D302" t="s">
+        <v>160</v>
+      </c>
+      <c r="E302" t="s">
+        <v>524</v>
+      </c>
+      <c r="F302" t="s">
+        <v>525</v>
+      </c>
+      <c r="G302" t="s">
+        <v>528</v>
+      </c>
+      <c r="H302" t="s">
+        <v>539</v>
+      </c>
       <c r="K302">
         <v>0</v>
       </c>
@@ -15353,6 +15797,21 @@
       <c r="C303" t="s">
         <v>393</v>
       </c>
+      <c r="D303" t="s">
+        <v>541</v>
+      </c>
+      <c r="E303" t="s">
+        <v>554</v>
+      </c>
+      <c r="F303" t="s">
+        <v>519</v>
+      </c>
+      <c r="G303" t="s">
+        <v>520</v>
+      </c>
+      <c r="H303" t="s">
+        <v>521</v>
+      </c>
       <c r="K303">
         <v>1</v>
       </c>
@@ -15405,6 +15864,21 @@
       <c r="C305" t="s">
         <v>393</v>
       </c>
+      <c r="D305" t="s">
+        <v>517</v>
+      </c>
+      <c r="E305" t="s">
+        <v>519</v>
+      </c>
+      <c r="F305" t="s">
+        <v>531</v>
+      </c>
+      <c r="G305" t="s">
+        <v>558</v>
+      </c>
+      <c r="H305" t="s">
+        <v>520</v>
+      </c>
       <c r="K305">
         <v>0</v>
       </c>
@@ -15431,6 +15905,21 @@
       <c r="C306" t="s">
         <v>401</v>
       </c>
+      <c r="D306" t="s">
+        <v>537</v>
+      </c>
+      <c r="E306" t="s">
+        <v>160</v>
+      </c>
+      <c r="F306" t="s">
+        <v>513</v>
+      </c>
+      <c r="G306" t="s">
+        <v>518</v>
+      </c>
+      <c r="H306" t="s">
+        <v>540</v>
+      </c>
       <c r="K306">
         <v>0</v>
       </c>
@@ -15483,6 +15972,21 @@
       <c r="C308" t="s">
         <v>401</v>
       </c>
+      <c r="D308" t="s">
+        <v>537</v>
+      </c>
+      <c r="E308" t="s">
+        <v>160</v>
+      </c>
+      <c r="F308" t="s">
+        <v>518</v>
+      </c>
+      <c r="G308" t="s">
+        <v>513</v>
+      </c>
+      <c r="H308" t="s">
+        <v>568</v>
+      </c>
       <c r="K308">
         <v>1</v>
       </c>
@@ -15535,6 +16039,21 @@
       <c r="C310" t="s">
         <v>401</v>
       </c>
+      <c r="D310" t="s">
+        <v>537</v>
+      </c>
+      <c r="E310" t="s">
+        <v>553</v>
+      </c>
+      <c r="F310" t="s">
+        <v>512</v>
+      </c>
+      <c r="G310" t="s">
+        <v>513</v>
+      </c>
+      <c r="H310" t="s">
+        <v>524</v>
+      </c>
       <c r="K310">
         <v>0</v>
       </c>
@@ -15587,6 +16106,21 @@
       <c r="C312" t="s">
         <v>417</v>
       </c>
+      <c r="D312" t="s">
+        <v>543</v>
+      </c>
+      <c r="E312" t="s">
+        <v>522</v>
+      </c>
+      <c r="F312" t="s">
+        <v>566</v>
+      </c>
+      <c r="G312" t="s">
+        <v>519</v>
+      </c>
+      <c r="H312" t="s">
+        <v>523</v>
+      </c>
       <c r="K312">
         <v>0</v>
       </c>
@@ -15639,6 +16173,21 @@
       <c r="C314" t="s">
         <v>417</v>
       </c>
+      <c r="D314" t="s">
+        <v>528</v>
+      </c>
+      <c r="E314" t="s">
+        <v>517</v>
+      </c>
+      <c r="F314" t="s">
+        <v>529</v>
+      </c>
+      <c r="G314" t="s">
+        <v>512</v>
+      </c>
+      <c r="H314" t="s">
+        <v>513</v>
+      </c>
       <c r="K314">
         <v>0</v>
       </c>
@@ -15691,6 +16240,21 @@
       <c r="C316" t="s">
         <v>417</v>
       </c>
+      <c r="D316" t="s">
+        <v>529</v>
+      </c>
+      <c r="E316" t="s">
+        <v>528</v>
+      </c>
+      <c r="F316" t="s">
+        <v>517</v>
+      </c>
+      <c r="G316" t="s">
+        <v>527</v>
+      </c>
+      <c r="H316" t="s">
+        <v>388</v>
+      </c>
       <c r="K316">
         <v>1</v>
       </c>
@@ -15743,6 +16307,21 @@
       <c r="C318" t="s">
         <v>417</v>
       </c>
+      <c r="D318" t="s">
+        <v>569</v>
+      </c>
+      <c r="E318" t="s">
+        <v>388</v>
+      </c>
+      <c r="F318" t="s">
+        <v>541</v>
+      </c>
+      <c r="G318" t="s">
+        <v>552</v>
+      </c>
+      <c r="H318" t="s">
+        <v>517</v>
+      </c>
       <c r="K318">
         <v>0</v>
       </c>
@@ -15795,6 +16374,21 @@
       <c r="C320" t="s">
         <v>417</v>
       </c>
+      <c r="D320" t="s">
+        <v>561</v>
+      </c>
+      <c r="E320" t="s">
+        <v>525</v>
+      </c>
+      <c r="F320" t="s">
+        <v>517</v>
+      </c>
+      <c r="G320" t="s">
+        <v>160</v>
+      </c>
+      <c r="H320" t="s">
+        <v>477</v>
+      </c>
       <c r="K320">
         <v>0</v>
       </c>
@@ -15847,6 +16441,21 @@
       <c r="C322" t="s">
         <v>417</v>
       </c>
+      <c r="D322" t="s">
+        <v>513</v>
+      </c>
+      <c r="E322" t="s">
+        <v>570</v>
+      </c>
+      <c r="F322" t="s">
+        <v>515</v>
+      </c>
+      <c r="G322" t="s">
+        <v>512</v>
+      </c>
+      <c r="H322" t="s">
+        <v>543</v>
+      </c>
       <c r="K322">
         <v>0</v>
       </c>
@@ -15899,6 +16508,21 @@
       <c r="C324" t="s">
         <v>417</v>
       </c>
+      <c r="D324" t="s">
+        <v>529</v>
+      </c>
+      <c r="E324" t="s">
+        <v>527</v>
+      </c>
+      <c r="F324" t="s">
+        <v>477</v>
+      </c>
+      <c r="G324" t="s">
+        <v>516</v>
+      </c>
+      <c r="H324" t="s">
+        <v>528</v>
+      </c>
       <c r="K324">
         <v>0</v>
       </c>
@@ -15951,6 +16575,21 @@
       <c r="C326" t="s">
         <v>417</v>
       </c>
+      <c r="D326" t="s">
+        <v>521</v>
+      </c>
+      <c r="E326" t="s">
+        <v>388</v>
+      </c>
+      <c r="F326" t="s">
+        <v>518</v>
+      </c>
+      <c r="G326" t="s">
+        <v>537</v>
+      </c>
+      <c r="H326" t="s">
+        <v>517</v>
+      </c>
       <c r="K326">
         <v>0</v>
       </c>
@@ -15977,6 +16616,21 @@
       <c r="C327" t="s">
         <v>424</v>
       </c>
+      <c r="D327" t="s">
+        <v>570</v>
+      </c>
+      <c r="E327" t="s">
+        <v>513</v>
+      </c>
+      <c r="F327" t="s">
+        <v>160</v>
+      </c>
+      <c r="G327" t="s">
+        <v>517</v>
+      </c>
+      <c r="H327" t="s">
+        <v>571</v>
+      </c>
       <c r="K327">
         <v>0</v>
       </c>
@@ -16029,6 +16683,21 @@
       <c r="C329" t="s">
         <v>424</v>
       </c>
+      <c r="D329" t="s">
+        <v>477</v>
+      </c>
+      <c r="E329" t="s">
+        <v>536</v>
+      </c>
+      <c r="F329" t="s">
+        <v>525</v>
+      </c>
+      <c r="G329" t="s">
+        <v>537</v>
+      </c>
+      <c r="H329" t="s">
+        <v>524</v>
+      </c>
       <c r="K329">
         <v>0</v>
       </c>
@@ -16081,6 +16750,21 @@
       <c r="C331" t="s">
         <v>424</v>
       </c>
+      <c r="D331" t="s">
+        <v>528</v>
+      </c>
+      <c r="E331" t="s">
+        <v>527</v>
+      </c>
+      <c r="F331" t="s">
+        <v>524</v>
+      </c>
+      <c r="G331" t="s">
+        <v>529</v>
+      </c>
+      <c r="H331" t="s">
+        <v>537</v>
+      </c>
       <c r="K331">
         <v>1</v>
       </c>
@@ -16133,6 +16817,21 @@
       <c r="C333" t="s">
         <v>440</v>
       </c>
+      <c r="D333" t="s">
+        <v>537</v>
+      </c>
+      <c r="E333" t="s">
+        <v>518</v>
+      </c>
+      <c r="F333" t="s">
+        <v>477</v>
+      </c>
+      <c r="G333" t="s">
+        <v>572</v>
+      </c>
+      <c r="H333" t="s">
+        <v>160</v>
+      </c>
       <c r="K333">
         <v>1</v>
       </c>
@@ -16185,6 +16884,21 @@
       <c r="C335" t="s">
         <v>440</v>
       </c>
+      <c r="D335" t="s">
+        <v>518</v>
+      </c>
+      <c r="E335" t="s">
+        <v>160</v>
+      </c>
+      <c r="F335" t="s">
+        <v>523</v>
+      </c>
+      <c r="G335" t="s">
+        <v>521</v>
+      </c>
+      <c r="H335" t="s">
+        <v>517</v>
+      </c>
       <c r="K335">
         <v>0</v>
       </c>
@@ -16237,6 +16951,21 @@
       <c r="C337" t="s">
         <v>440</v>
       </c>
+      <c r="D337" t="s">
+        <v>537</v>
+      </c>
+      <c r="E337" t="s">
+        <v>553</v>
+      </c>
+      <c r="F337" t="s">
+        <v>513</v>
+      </c>
+      <c r="G337" t="s">
+        <v>524</v>
+      </c>
+      <c r="H337" t="s">
+        <v>536</v>
+      </c>
       <c r="K337">
         <v>0</v>
       </c>
@@ -16289,6 +17018,21 @@
       <c r="C339" t="s">
         <v>440</v>
       </c>
+      <c r="D339" t="s">
+        <v>160</v>
+      </c>
+      <c r="E339" t="s">
+        <v>537</v>
+      </c>
+      <c r="F339" t="s">
+        <v>518</v>
+      </c>
+      <c r="G339" t="s">
+        <v>524</v>
+      </c>
+      <c r="H339" t="s">
+        <v>513</v>
+      </c>
       <c r="K339">
         <v>0</v>
       </c>
@@ -16341,6 +17085,21 @@
       <c r="C341" t="s">
         <v>440</v>
       </c>
+      <c r="D341" t="s">
+        <v>537</v>
+      </c>
+      <c r="E341" t="s">
+        <v>160</v>
+      </c>
+      <c r="F341" t="s">
+        <v>561</v>
+      </c>
+      <c r="G341" t="s">
+        <v>518</v>
+      </c>
+      <c r="H341" t="s">
+        <v>517</v>
+      </c>
       <c r="K341">
         <v>0</v>
       </c>
@@ -16393,6 +17152,21 @@
       <c r="C343" t="s">
         <v>440</v>
       </c>
+      <c r="D343" t="s">
+        <v>537</v>
+      </c>
+      <c r="E343" t="s">
+        <v>561</v>
+      </c>
+      <c r="F343" t="s">
+        <v>160</v>
+      </c>
+      <c r="G343" t="s">
+        <v>540</v>
+      </c>
+      <c r="H343" t="s">
+        <v>526</v>
+      </c>
       <c r="K343">
         <v>1</v>
       </c>
@@ -16445,6 +17219,21 @@
       <c r="C345" t="s">
         <v>440</v>
       </c>
+      <c r="D345" t="s">
+        <v>537</v>
+      </c>
+      <c r="E345" t="s">
+        <v>160</v>
+      </c>
+      <c r="F345" t="s">
+        <v>513</v>
+      </c>
+      <c r="G345" t="s">
+        <v>524</v>
+      </c>
+      <c r="H345" t="s">
+        <v>518</v>
+      </c>
       <c r="K345">
         <v>1</v>
       </c>
@@ -16497,6 +17286,21 @@
       <c r="C347" t="s">
         <v>440</v>
       </c>
+      <c r="D347" t="s">
+        <v>517</v>
+      </c>
+      <c r="E347" t="s">
+        <v>537</v>
+      </c>
+      <c r="F347" t="s">
+        <v>518</v>
+      </c>
+      <c r="G347" t="s">
+        <v>160</v>
+      </c>
+      <c r="H347" t="s">
+        <v>569</v>
+      </c>
       <c r="K347">
         <v>1</v>
       </c>
@@ -16523,6 +17327,21 @@
       <c r="C348" t="s">
         <v>444</v>
       </c>
+      <c r="D348" t="s">
+        <v>518</v>
+      </c>
+      <c r="E348" t="s">
+        <v>160</v>
+      </c>
+      <c r="F348" t="s">
+        <v>517</v>
+      </c>
+      <c r="G348" t="s">
+        <v>537</v>
+      </c>
+      <c r="H348" t="s">
+        <v>513</v>
+      </c>
       <c r="K348">
         <v>0</v>
       </c>
@@ -16574,6 +17393,21 @@
       </c>
       <c r="C350" t="s">
         <v>444</v>
+      </c>
+      <c r="D350" t="s">
+        <v>537</v>
+      </c>
+      <c r="E350" t="s">
+        <v>553</v>
+      </c>
+      <c r="F350" t="s">
+        <v>518</v>
+      </c>
+      <c r="G350" t="s">
+        <v>477</v>
+      </c>
+      <c r="H350" t="s">
+        <v>554</v>
       </c>
       <c r="K350">
         <v>1</v>

--- a/SkinImageAI_Datasheet.xlsx
+++ b/SkinImageAI_Datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\medical_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D8951-A440-4D55-9B23-F1F43C2D1DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A118D0D-650F-4F6A-A6AE-17106BFAB9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2578BC43-5C86-DC43-9F93-03A1754087CA}"/>
   </bookViews>
@@ -2418,8 +2418,8 @@
   <dimension ref="A1:O476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A450" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J461" sqref="J461:J476"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H481" sqref="H481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
